--- a/shared/2.2 UI/QLYTHUEXE-tailieuthietke/TaiLieuThietKeChiTiet/QLYTHUEXE_TLPT_02_DetailCar.xlsx
+++ b/shared/2.2 UI/QLYTHUEXE-tailieuthietke/TaiLieuThietKeChiTiet/QLYTHUEXE_TLPT_02_DetailCar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr saveExternalLinkValues="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phamquocvy/Downloads/QLYTHUEXE-tailieuthietke/TaiLieuThietKeChiTiet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\QLYTHUEXE-tailieuthietke\QLYTHUEXE-tailieuthietke\TaiLieuThietKeChiTiet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F75CBFC-45CE-FE48-AFB9-52A8802CAF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20040" tabRatio="826" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="38400" windowHeight="20040" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bìa" sheetId="19" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Trang_bìa!$A$1:$AW$160</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'機能間関連図 (2)'!$A:$AW</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="155">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -605,17 +604,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>＝</t>
-    </r>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -647,28 +635,7 @@
     <t>Đối tượng</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>Truy xuất</t>
-  </si>
-  <si>
-    <t>User.email</t>
-  </si>
-  <si>
-    <t>User.password</t>
-  </si>
-  <si>
-    <t>[Vùng nhập].text.toString()</t>
-  </si>
-  <si>
-    <t>a. Truy vấn Firebase Authentication qua đối tượng của lớp FirebaseAuth</t>
-  </si>
-  <si>
-    <t>- Nếu thành công: lưu user và chuyển vào màn hình chính</t>
-  </si>
-  <si>
-    <t>- Nếu thất bại: thông báo tại màn hình này</t>
   </si>
   <si>
     <t>Thông báo</t>
@@ -692,37 +659,7 @@
     <t>Chuỗi chữ</t>
   </si>
   <si>
-    <t>1. Nhấn nút button SignUp để thực hiện xử lý</t>
-  </si>
-  <si>
     <t>Trường hợp chưa nhập, báo lỗi</t>
-  </si>
-  <si>
-    <t>User.name</t>
-  </si>
-  <si>
-    <t>User.isEmployee</t>
-  </si>
-  <si>
-    <t>[Vùng nhập].isChecked()</t>
-  </si>
-  <si>
-    <t>(2) Xử lý đăng ký</t>
-  </si>
-  <si>
-    <t>Câu truy vấn: FirebaseAuth.createUserWithEmailPassword(String email, String password)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng kí thành công </t>
-  </si>
-  <si>
-    <t>SIGNUP_SUCCESS</t>
-  </si>
-  <si>
-    <t>SIGNUP_FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email đã tồn tại </t>
   </si>
   <si>
     <t>Chi tiết thông tin xe</t>
@@ -797,16 +734,7 @@
     <t>Vui lòng nhập ngày thuê</t>
   </si>
   <si>
-    <t>RentalDate</t>
-  </si>
-  <si>
-    <t>ReturnDate</t>
-  </si>
-  <si>
     <t>Vui lòng nhập ngày trả xe</t>
-  </si>
-  <si>
-    <t>RentRequestStatusEnum</t>
   </si>
   <si>
     <t>Trường hợp nhập loại không nằm trong danh sách đã cấu hình</t>
@@ -819,9 +747,6 @@
   </si>
   <si>
     <t>3. Xử lý gửi yêu cầu</t>
-  </si>
-  <si>
-    <t>Sau khi thực hiện gửi yêu cầu thuê xe thành công hệ thống sẽ chuyển khách hàng đến màn hình danh sách xe đang cho thuê</t>
   </si>
   <si>
     <t>Trang chi tiết xe</t>
@@ -839,11 +764,65 @@
     <t>QUAN LY THUE XE
 Tài liệu phát triển hệ thống</t>
   </si>
+  <si>
+    <t>1. Nhấn nút button Gửi Yêu Cầu để thực hiện xử lý</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>a. Gọi tới CarController action Rent gói parameter qua một đối tượng RentCarViewModel</t>
+  </si>
+  <si>
+    <t>Câu truy vấn: CarService.RentCarAsync(RentCarViewModel)</t>
+  </si>
+  <si>
+    <t>- Nếu thành công: thì gửi thông báo Yêu cầu thuê xe thành công</t>
+  </si>
+  <si>
+    <t>- Nếu thất bại: thông báo tại trang này</t>
+  </si>
+  <si>
+    <t>Đặt xe thành công, vui lòng đợi xác nhận từ nhân viên</t>
+  </si>
+  <si>
+    <t>Xe không có sẵn để thuê trong thời gian trên</t>
+  </si>
+  <si>
+    <t>RentCarViewModel</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>EstimateId</t>
+  </si>
+  <si>
+    <t>RentCarViewModel.StartDate</t>
+  </si>
+  <si>
+    <t>RentCarViewModelr.EndDate</t>
+  </si>
+  <si>
+    <t>RentCarViewModel.EstimateId</t>
+  </si>
+  <si>
+    <t>RentCarViewModel.Note</t>
+  </si>
+  <si>
+    <t>RENTCAR_FAILED</t>
+  </si>
+  <si>
+    <t>RENTCAR_SUCCESS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
@@ -1792,7 +1771,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="417">
+  <cellXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2416,93 +2395,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2534,20 +2446,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2573,32 +2488,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2614,6 +2556,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -2638,6 +2589,249 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2683,242 +2877,48 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2929,6 +2929,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2965,30 +2989,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3089,30 +3089,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_AP生産依頼 回答リスト画面" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準_基本要件仕様書_20061109" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準_基本設計書(FWIH105)" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_AP生産依頼 回答リスト画面" xfId="1"/>
+    <cellStyle name="標準_基本要件仕様書_20061109" xfId="3"/>
+    <cellStyle name="標準_基本設計書(FWIH105)" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3583,7 +3565,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3591,7 +3573,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3608,8 +3590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1571625" y="22459950"/>
-          <a:ext cx="2038350" cy="0"/>
+          <a:off x="1386840" y="22898100"/>
+          <a:ext cx="1914525" cy="15240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -17556,9 +17538,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>101600</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17991,199 +17973,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AX161"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A123" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BF137" sqref="BF137"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A123" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="49" width="2.6640625" style="20" customWidth="1"/>
-    <col min="50" max="59" width="3.1640625" style="20" customWidth="1"/>
+    <col min="50" max="59" width="3.109375" style="20" customWidth="1"/>
     <col min="60" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="19" customFormat="1" ht="17" customHeight="1" thickTop="1">
-      <c r="A1" s="237" t="s">
-        <v>89</v>
+    <row r="1" spans="1:49" s="19" customFormat="1" ht="16.95" customHeight="1" thickTop="1">
+      <c r="A1" s="223" t="s">
+        <v>88</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="246" t="s">
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="246" t="s">
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="252" t="s">
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="224"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="258" t="s">
-        <v>124</v>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+      <c r="Y1" s="240"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="245" t="s">
+        <v>106</v>
       </c>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="238"/>
-      <c r="AG1" s="238"/>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="238"/>
-      <c r="AJ1" s="238"/>
-      <c r="AK1" s="238"/>
-      <c r="AL1" s="239"/>
-      <c r="AM1" s="247" t="s">
+      <c r="AB1" s="224"/>
+      <c r="AC1" s="224"/>
+      <c r="AD1" s="224"/>
+      <c r="AE1" s="224"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="224"/>
+      <c r="AH1" s="224"/>
+      <c r="AI1" s="224"/>
+      <c r="AJ1" s="224"/>
+      <c r="AK1" s="224"/>
+      <c r="AL1" s="225"/>
+      <c r="AM1" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="260"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="262"/>
-      <c r="AR1" s="247" t="s">
+      <c r="AN1" s="260"/>
+      <c r="AO1" s="265"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="267"/>
+      <c r="AR1" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="249"/>
-      <c r="AU1" s="250"/>
-      <c r="AV1" s="250"/>
-      <c r="AW1" s="251"/>
-    </row>
-    <row r="2" spans="1:49" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A2" s="240"/>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="241"/>
-      <c r="O2" s="242"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="241"/>
-      <c r="R2" s="241"/>
-      <c r="S2" s="241"/>
-      <c r="T2" s="241"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="259"/>
-      <c r="AB2" s="241"/>
-      <c r="AC2" s="241"/>
-      <c r="AD2" s="241"/>
-      <c r="AE2" s="241"/>
-      <c r="AF2" s="241"/>
-      <c r="AG2" s="241"/>
-      <c r="AH2" s="241"/>
-      <c r="AI2" s="241"/>
-      <c r="AJ2" s="241"/>
-      <c r="AK2" s="241"/>
-      <c r="AL2" s="242"/>
-      <c r="AM2" s="273" t="s">
+      <c r="AS1" s="260"/>
+      <c r="AT1" s="276"/>
+      <c r="AU1" s="277"/>
+      <c r="AV1" s="277"/>
+      <c r="AW1" s="278"/>
+    </row>
+    <row r="2" spans="1:49" s="19" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A2" s="226"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="228"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="227"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="228"/>
+      <c r="V2" s="242"/>
+      <c r="W2" s="243"/>
+      <c r="X2" s="243"/>
+      <c r="Y2" s="243"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="227"/>
+      <c r="AC2" s="227"/>
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="227"/>
+      <c r="AH2" s="227"/>
+      <c r="AI2" s="227"/>
+      <c r="AJ2" s="227"/>
+      <c r="AK2" s="227"/>
+      <c r="AL2" s="228"/>
+      <c r="AM2" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="274"/>
-      <c r="AO2" s="275"/>
-      <c r="AP2" s="276"/>
-      <c r="AQ2" s="277"/>
-      <c r="AR2" s="273" t="s">
+      <c r="AN2" s="269"/>
+      <c r="AO2" s="270"/>
+      <c r="AP2" s="271"/>
+      <c r="AQ2" s="272"/>
+      <c r="AR2" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="AS2" s="274"/>
-      <c r="AT2" s="278"/>
-      <c r="AU2" s="279"/>
-      <c r="AV2" s="279"/>
-      <c r="AW2" s="280"/>
-    </row>
-    <row r="3" spans="1:49" ht="17" customHeight="1" thickBot="1">
-      <c r="A3" s="243"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="245"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="263" t="s">
+      <c r="AS2" s="269"/>
+      <c r="AT2" s="273"/>
+      <c r="AU2" s="274"/>
+      <c r="AV2" s="274"/>
+      <c r="AW2" s="275"/>
+    </row>
+    <row r="3" spans="1:49" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A3" s="229"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="231"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="230"/>
+      <c r="R3" s="230"/>
+      <c r="S3" s="230"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="231"/>
+      <c r="V3" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="265"/>
-      <c r="AA3" s="266" t="s">
-        <v>122</v>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="233" t="s">
+        <v>104</v>
       </c>
-      <c r="AB3" s="267"/>
-      <c r="AC3" s="267"/>
-      <c r="AD3" s="267"/>
-      <c r="AE3" s="267"/>
-      <c r="AF3" s="267"/>
-      <c r="AG3" s="268"/>
-      <c r="AH3" s="269" t="s">
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="234"/>
+      <c r="AD3" s="234"/>
+      <c r="AE3" s="234"/>
+      <c r="AF3" s="234"/>
+      <c r="AG3" s="235"/>
+      <c r="AH3" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="AI3" s="270"/>
-      <c r="AJ3" s="270"/>
-      <c r="AK3" s="270"/>
-      <c r="AL3" s="271"/>
-      <c r="AM3" s="266" t="s">
-        <v>154</v>
+      <c r="AI3" s="262"/>
+      <c r="AJ3" s="262"/>
+      <c r="AK3" s="262"/>
+      <c r="AL3" s="263"/>
+      <c r="AM3" s="233" t="s">
+        <v>132</v>
       </c>
-      <c r="AN3" s="267"/>
-      <c r="AO3" s="267"/>
-      <c r="AP3" s="267"/>
-      <c r="AQ3" s="267"/>
-      <c r="AR3" s="267"/>
-      <c r="AS3" s="267"/>
-      <c r="AT3" s="267"/>
-      <c r="AU3" s="267"/>
-      <c r="AV3" s="267"/>
-      <c r="AW3" s="272"/>
+      <c r="AN3" s="234"/>
+      <c r="AO3" s="234"/>
+      <c r="AP3" s="234"/>
+      <c r="AQ3" s="234"/>
+      <c r="AR3" s="234"/>
+      <c r="AS3" s="234"/>
+      <c r="AT3" s="234"/>
+      <c r="AU3" s="234"/>
+      <c r="AV3" s="234"/>
+      <c r="AW3" s="264"/>
     </row>
     <row r="4" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="21"/>
@@ -18411,259 +18393,259 @@
     </row>
     <row r="13" spans="1:49" ht="13.5" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="343" t="s">
-        <v>158</v>
+      <c r="B13" s="279" t="s">
+        <v>136</v>
       </c>
-      <c r="C13" s="344"/>
-      <c r="D13" s="344"/>
-      <c r="E13" s="344"/>
-      <c r="F13" s="344"/>
-      <c r="G13" s="344"/>
-      <c r="H13" s="344"/>
-      <c r="I13" s="344"/>
-      <c r="J13" s="344"/>
-      <c r="K13" s="344"/>
-      <c r="L13" s="344"/>
-      <c r="M13" s="344"/>
-      <c r="N13" s="344"/>
-      <c r="O13" s="344"/>
-      <c r="P13" s="344"/>
-      <c r="Q13" s="344"/>
-      <c r="R13" s="344"/>
-      <c r="S13" s="344"/>
-      <c r="T13" s="344"/>
-      <c r="U13" s="344"/>
-      <c r="V13" s="344"/>
-      <c r="W13" s="344"/>
-      <c r="X13" s="344"/>
-      <c r="Y13" s="344"/>
-      <c r="Z13" s="344"/>
-      <c r="AA13" s="344"/>
-      <c r="AB13" s="344"/>
-      <c r="AC13" s="344"/>
-      <c r="AD13" s="344"/>
-      <c r="AE13" s="344"/>
-      <c r="AF13" s="344"/>
-      <c r="AG13" s="344"/>
-      <c r="AH13" s="344"/>
-      <c r="AI13" s="344"/>
-      <c r="AJ13" s="344"/>
-      <c r="AK13" s="344"/>
-      <c r="AL13" s="344"/>
-      <c r="AM13" s="344"/>
-      <c r="AN13" s="344"/>
-      <c r="AO13" s="344"/>
-      <c r="AP13" s="344"/>
-      <c r="AQ13" s="344"/>
-      <c r="AR13" s="344"/>
-      <c r="AS13" s="344"/>
-      <c r="AT13" s="344"/>
-      <c r="AU13" s="344"/>
-      <c r="AV13" s="344"/>
+      <c r="C13" s="280"/>
+      <c r="D13" s="280"/>
+      <c r="E13" s="280"/>
+      <c r="F13" s="280"/>
+      <c r="G13" s="280"/>
+      <c r="H13" s="280"/>
+      <c r="I13" s="280"/>
+      <c r="J13" s="280"/>
+      <c r="K13" s="280"/>
+      <c r="L13" s="280"/>
+      <c r="M13" s="280"/>
+      <c r="N13" s="280"/>
+      <c r="O13" s="280"/>
+      <c r="P13" s="280"/>
+      <c r="Q13" s="280"/>
+      <c r="R13" s="280"/>
+      <c r="S13" s="280"/>
+      <c r="T13" s="280"/>
+      <c r="U13" s="280"/>
+      <c r="V13" s="280"/>
+      <c r="W13" s="280"/>
+      <c r="X13" s="280"/>
+      <c r="Y13" s="280"/>
+      <c r="Z13" s="280"/>
+      <c r="AA13" s="280"/>
+      <c r="AB13" s="280"/>
+      <c r="AC13" s="280"/>
+      <c r="AD13" s="280"/>
+      <c r="AE13" s="280"/>
+      <c r="AF13" s="280"/>
+      <c r="AG13" s="280"/>
+      <c r="AH13" s="280"/>
+      <c r="AI13" s="280"/>
+      <c r="AJ13" s="280"/>
+      <c r="AK13" s="280"/>
+      <c r="AL13" s="280"/>
+      <c r="AM13" s="280"/>
+      <c r="AN13" s="280"/>
+      <c r="AO13" s="280"/>
+      <c r="AP13" s="280"/>
+      <c r="AQ13" s="280"/>
+      <c r="AR13" s="280"/>
+      <c r="AS13" s="280"/>
+      <c r="AT13" s="280"/>
+      <c r="AU13" s="280"/>
+      <c r="AV13" s="280"/>
       <c r="AW13" s="157"/>
     </row>
     <row r="14" spans="1:49" ht="13.5" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="344"/>
-      <c r="C14" s="344"/>
-      <c r="D14" s="344"/>
-      <c r="E14" s="344"/>
-      <c r="F14" s="344"/>
-      <c r="G14" s="344"/>
-      <c r="H14" s="344"/>
-      <c r="I14" s="344"/>
-      <c r="J14" s="344"/>
-      <c r="K14" s="344"/>
-      <c r="L14" s="344"/>
-      <c r="M14" s="344"/>
-      <c r="N14" s="344"/>
-      <c r="O14" s="344"/>
-      <c r="P14" s="344"/>
-      <c r="Q14" s="344"/>
-      <c r="R14" s="344"/>
-      <c r="S14" s="344"/>
-      <c r="T14" s="344"/>
-      <c r="U14" s="344"/>
-      <c r="V14" s="344"/>
-      <c r="W14" s="344"/>
-      <c r="X14" s="344"/>
-      <c r="Y14" s="344"/>
-      <c r="Z14" s="344"/>
-      <c r="AA14" s="344"/>
-      <c r="AB14" s="344"/>
-      <c r="AC14" s="344"/>
-      <c r="AD14" s="344"/>
-      <c r="AE14" s="344"/>
-      <c r="AF14" s="344"/>
-      <c r="AG14" s="344"/>
-      <c r="AH14" s="344"/>
-      <c r="AI14" s="344"/>
-      <c r="AJ14" s="344"/>
-      <c r="AK14" s="344"/>
-      <c r="AL14" s="344"/>
-      <c r="AM14" s="344"/>
-      <c r="AN14" s="344"/>
-      <c r="AO14" s="344"/>
-      <c r="AP14" s="344"/>
-      <c r="AQ14" s="344"/>
-      <c r="AR14" s="344"/>
-      <c r="AS14" s="344"/>
-      <c r="AT14" s="344"/>
-      <c r="AU14" s="344"/>
-      <c r="AV14" s="344"/>
+      <c r="B14" s="280"/>
+      <c r="C14" s="280"/>
+      <c r="D14" s="280"/>
+      <c r="E14" s="280"/>
+      <c r="F14" s="280"/>
+      <c r="G14" s="280"/>
+      <c r="H14" s="280"/>
+      <c r="I14" s="280"/>
+      <c r="J14" s="280"/>
+      <c r="K14" s="280"/>
+      <c r="L14" s="280"/>
+      <c r="M14" s="280"/>
+      <c r="N14" s="280"/>
+      <c r="O14" s="280"/>
+      <c r="P14" s="280"/>
+      <c r="Q14" s="280"/>
+      <c r="R14" s="280"/>
+      <c r="S14" s="280"/>
+      <c r="T14" s="280"/>
+      <c r="U14" s="280"/>
+      <c r="V14" s="280"/>
+      <c r="W14" s="280"/>
+      <c r="X14" s="280"/>
+      <c r="Y14" s="280"/>
+      <c r="Z14" s="280"/>
+      <c r="AA14" s="280"/>
+      <c r="AB14" s="280"/>
+      <c r="AC14" s="280"/>
+      <c r="AD14" s="280"/>
+      <c r="AE14" s="280"/>
+      <c r="AF14" s="280"/>
+      <c r="AG14" s="280"/>
+      <c r="AH14" s="280"/>
+      <c r="AI14" s="280"/>
+      <c r="AJ14" s="280"/>
+      <c r="AK14" s="280"/>
+      <c r="AL14" s="280"/>
+      <c r="AM14" s="280"/>
+      <c r="AN14" s="280"/>
+      <c r="AO14" s="280"/>
+      <c r="AP14" s="280"/>
+      <c r="AQ14" s="280"/>
+      <c r="AR14" s="280"/>
+      <c r="AS14" s="280"/>
+      <c r="AT14" s="280"/>
+      <c r="AU14" s="280"/>
+      <c r="AV14" s="280"/>
       <c r="AW14" s="157"/>
     </row>
     <row r="15" spans="1:49" ht="13.5" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="344"/>
-      <c r="C15" s="344"/>
-      <c r="D15" s="344"/>
-      <c r="E15" s="344"/>
-      <c r="F15" s="344"/>
-      <c r="G15" s="344"/>
-      <c r="H15" s="344"/>
-      <c r="I15" s="344"/>
-      <c r="J15" s="344"/>
-      <c r="K15" s="344"/>
-      <c r="L15" s="344"/>
-      <c r="M15" s="344"/>
-      <c r="N15" s="344"/>
-      <c r="O15" s="344"/>
-      <c r="P15" s="344"/>
-      <c r="Q15" s="344"/>
-      <c r="R15" s="344"/>
-      <c r="S15" s="344"/>
-      <c r="T15" s="344"/>
-      <c r="U15" s="344"/>
-      <c r="V15" s="344"/>
-      <c r="W15" s="344"/>
-      <c r="X15" s="344"/>
-      <c r="Y15" s="344"/>
-      <c r="Z15" s="344"/>
-      <c r="AA15" s="344"/>
-      <c r="AB15" s="344"/>
-      <c r="AC15" s="344"/>
-      <c r="AD15" s="344"/>
-      <c r="AE15" s="344"/>
-      <c r="AF15" s="344"/>
-      <c r="AG15" s="344"/>
-      <c r="AH15" s="344"/>
-      <c r="AI15" s="344"/>
-      <c r="AJ15" s="344"/>
-      <c r="AK15" s="344"/>
-      <c r="AL15" s="344"/>
-      <c r="AM15" s="344"/>
-      <c r="AN15" s="344"/>
-      <c r="AO15" s="344"/>
-      <c r="AP15" s="344"/>
-      <c r="AQ15" s="344"/>
-      <c r="AR15" s="344"/>
-      <c r="AS15" s="344"/>
-      <c r="AT15" s="344"/>
-      <c r="AU15" s="344"/>
-      <c r="AV15" s="344"/>
+      <c r="B15" s="280"/>
+      <c r="C15" s="280"/>
+      <c r="D15" s="280"/>
+      <c r="E15" s="280"/>
+      <c r="F15" s="280"/>
+      <c r="G15" s="280"/>
+      <c r="H15" s="280"/>
+      <c r="I15" s="280"/>
+      <c r="J15" s="280"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
+      <c r="M15" s="280"/>
+      <c r="N15" s="280"/>
+      <c r="O15" s="280"/>
+      <c r="P15" s="280"/>
+      <c r="Q15" s="280"/>
+      <c r="R15" s="280"/>
+      <c r="S15" s="280"/>
+      <c r="T15" s="280"/>
+      <c r="U15" s="280"/>
+      <c r="V15" s="280"/>
+      <c r="W15" s="280"/>
+      <c r="X15" s="280"/>
+      <c r="Y15" s="280"/>
+      <c r="Z15" s="280"/>
+      <c r="AA15" s="280"/>
+      <c r="AB15" s="280"/>
+      <c r="AC15" s="280"/>
+      <c r="AD15" s="280"/>
+      <c r="AE15" s="280"/>
+      <c r="AF15" s="280"/>
+      <c r="AG15" s="280"/>
+      <c r="AH15" s="280"/>
+      <c r="AI15" s="280"/>
+      <c r="AJ15" s="280"/>
+      <c r="AK15" s="280"/>
+      <c r="AL15" s="280"/>
+      <c r="AM15" s="280"/>
+      <c r="AN15" s="280"/>
+      <c r="AO15" s="280"/>
+      <c r="AP15" s="280"/>
+      <c r="AQ15" s="280"/>
+      <c r="AR15" s="280"/>
+      <c r="AS15" s="280"/>
+      <c r="AT15" s="280"/>
+      <c r="AU15" s="280"/>
+      <c r="AV15" s="280"/>
       <c r="AW15" s="157"/>
     </row>
     <row r="16" spans="1:49" ht="13.5" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="344"/>
-      <c r="C16" s="344"/>
-      <c r="D16" s="344"/>
-      <c r="E16" s="344"/>
-      <c r="F16" s="344"/>
-      <c r="G16" s="344"/>
-      <c r="H16" s="344"/>
-      <c r="I16" s="344"/>
-      <c r="J16" s="344"/>
-      <c r="K16" s="344"/>
-      <c r="L16" s="344"/>
-      <c r="M16" s="344"/>
-      <c r="N16" s="344"/>
-      <c r="O16" s="344"/>
-      <c r="P16" s="344"/>
-      <c r="Q16" s="344"/>
-      <c r="R16" s="344"/>
-      <c r="S16" s="344"/>
-      <c r="T16" s="344"/>
-      <c r="U16" s="344"/>
-      <c r="V16" s="344"/>
-      <c r="W16" s="344"/>
-      <c r="X16" s="344"/>
-      <c r="Y16" s="344"/>
-      <c r="Z16" s="344"/>
-      <c r="AA16" s="344"/>
-      <c r="AB16" s="344"/>
-      <c r="AC16" s="344"/>
-      <c r="AD16" s="344"/>
-      <c r="AE16" s="344"/>
-      <c r="AF16" s="344"/>
-      <c r="AG16" s="344"/>
-      <c r="AH16" s="344"/>
-      <c r="AI16" s="344"/>
-      <c r="AJ16" s="344"/>
-      <c r="AK16" s="344"/>
-      <c r="AL16" s="344"/>
-      <c r="AM16" s="344"/>
-      <c r="AN16" s="344"/>
-      <c r="AO16" s="344"/>
-      <c r="AP16" s="344"/>
-      <c r="AQ16" s="344"/>
-      <c r="AR16" s="344"/>
-      <c r="AS16" s="344"/>
-      <c r="AT16" s="344"/>
-      <c r="AU16" s="344"/>
-      <c r="AV16" s="344"/>
+      <c r="B16" s="280"/>
+      <c r="C16" s="280"/>
+      <c r="D16" s="280"/>
+      <c r="E16" s="280"/>
+      <c r="F16" s="280"/>
+      <c r="G16" s="280"/>
+      <c r="H16" s="280"/>
+      <c r="I16" s="280"/>
+      <c r="J16" s="280"/>
+      <c r="K16" s="280"/>
+      <c r="L16" s="280"/>
+      <c r="M16" s="280"/>
+      <c r="N16" s="280"/>
+      <c r="O16" s="280"/>
+      <c r="P16" s="280"/>
+      <c r="Q16" s="280"/>
+      <c r="R16" s="280"/>
+      <c r="S16" s="280"/>
+      <c r="T16" s="280"/>
+      <c r="U16" s="280"/>
+      <c r="V16" s="280"/>
+      <c r="W16" s="280"/>
+      <c r="X16" s="280"/>
+      <c r="Y16" s="280"/>
+      <c r="Z16" s="280"/>
+      <c r="AA16" s="280"/>
+      <c r="AB16" s="280"/>
+      <c r="AC16" s="280"/>
+      <c r="AD16" s="280"/>
+      <c r="AE16" s="280"/>
+      <c r="AF16" s="280"/>
+      <c r="AG16" s="280"/>
+      <c r="AH16" s="280"/>
+      <c r="AI16" s="280"/>
+      <c r="AJ16" s="280"/>
+      <c r="AK16" s="280"/>
+      <c r="AL16" s="280"/>
+      <c r="AM16" s="280"/>
+      <c r="AN16" s="280"/>
+      <c r="AO16" s="280"/>
+      <c r="AP16" s="280"/>
+      <c r="AQ16" s="280"/>
+      <c r="AR16" s="280"/>
+      <c r="AS16" s="280"/>
+      <c r="AT16" s="280"/>
+      <c r="AU16" s="280"/>
+      <c r="AV16" s="280"/>
       <c r="AW16" s="157"/>
     </row>
     <row r="17" spans="1:49" ht="13.5" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="344"/>
-      <c r="C17" s="344"/>
-      <c r="D17" s="344"/>
-      <c r="E17" s="344"/>
-      <c r="F17" s="344"/>
-      <c r="G17" s="344"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="344"/>
-      <c r="J17" s="344"/>
-      <c r="K17" s="344"/>
-      <c r="L17" s="344"/>
-      <c r="M17" s="344"/>
-      <c r="N17" s="344"/>
-      <c r="O17" s="344"/>
-      <c r="P17" s="344"/>
-      <c r="Q17" s="344"/>
-      <c r="R17" s="344"/>
-      <c r="S17" s="344"/>
-      <c r="T17" s="344"/>
-      <c r="U17" s="344"/>
-      <c r="V17" s="344"/>
-      <c r="W17" s="344"/>
-      <c r="X17" s="344"/>
-      <c r="Y17" s="344"/>
-      <c r="Z17" s="344"/>
-      <c r="AA17" s="344"/>
-      <c r="AB17" s="344"/>
-      <c r="AC17" s="344"/>
-      <c r="AD17" s="344"/>
-      <c r="AE17" s="344"/>
-      <c r="AF17" s="344"/>
-      <c r="AG17" s="344"/>
-      <c r="AH17" s="344"/>
-      <c r="AI17" s="344"/>
-      <c r="AJ17" s="344"/>
-      <c r="AK17" s="344"/>
-      <c r="AL17" s="344"/>
-      <c r="AM17" s="344"/>
-      <c r="AN17" s="344"/>
-      <c r="AO17" s="344"/>
-      <c r="AP17" s="344"/>
-      <c r="AQ17" s="344"/>
-      <c r="AR17" s="344"/>
-      <c r="AS17" s="344"/>
-      <c r="AT17" s="344"/>
-      <c r="AU17" s="344"/>
-      <c r="AV17" s="344"/>
+      <c r="B17" s="280"/>
+      <c r="C17" s="280"/>
+      <c r="D17" s="280"/>
+      <c r="E17" s="280"/>
+      <c r="F17" s="280"/>
+      <c r="G17" s="280"/>
+      <c r="H17" s="280"/>
+      <c r="I17" s="280"/>
+      <c r="J17" s="280"/>
+      <c r="K17" s="280"/>
+      <c r="L17" s="280"/>
+      <c r="M17" s="280"/>
+      <c r="N17" s="280"/>
+      <c r="O17" s="280"/>
+      <c r="P17" s="280"/>
+      <c r="Q17" s="280"/>
+      <c r="R17" s="280"/>
+      <c r="S17" s="280"/>
+      <c r="T17" s="280"/>
+      <c r="U17" s="280"/>
+      <c r="V17" s="280"/>
+      <c r="W17" s="280"/>
+      <c r="X17" s="280"/>
+      <c r="Y17" s="280"/>
+      <c r="Z17" s="280"/>
+      <c r="AA17" s="280"/>
+      <c r="AB17" s="280"/>
+      <c r="AC17" s="280"/>
+      <c r="AD17" s="280"/>
+      <c r="AE17" s="280"/>
+      <c r="AF17" s="280"/>
+      <c r="AG17" s="280"/>
+      <c r="AH17" s="280"/>
+      <c r="AI17" s="280"/>
+      <c r="AJ17" s="280"/>
+      <c r="AK17" s="280"/>
+      <c r="AL17" s="280"/>
+      <c r="AM17" s="280"/>
+      <c r="AN17" s="280"/>
+      <c r="AO17" s="280"/>
+      <c r="AP17" s="280"/>
+      <c r="AQ17" s="280"/>
+      <c r="AR17" s="280"/>
+      <c r="AS17" s="280"/>
+      <c r="AT17" s="280"/>
+      <c r="AU17" s="280"/>
+      <c r="AV17" s="280"/>
       <c r="AW17" s="157"/>
     </row>
     <row r="18" spans="1:49" ht="13.5" customHeight="1">
@@ -18735,208 +18717,208 @@
     </row>
     <row r="23" spans="1:49" ht="13.5" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="345" t="s">
+      <c r="B23" s="281" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="345"/>
-      <c r="D23" s="345"/>
-      <c r="E23" s="345"/>
-      <c r="F23" s="345"/>
-      <c r="G23" s="345"/>
-      <c r="H23" s="345"/>
-      <c r="I23" s="345"/>
-      <c r="J23" s="345"/>
-      <c r="K23" s="345"/>
-      <c r="L23" s="345"/>
-      <c r="M23" s="345"/>
-      <c r="N23" s="345"/>
-      <c r="O23" s="345"/>
-      <c r="P23" s="345"/>
-      <c r="Q23" s="345"/>
-      <c r="R23" s="345"/>
-      <c r="S23" s="345"/>
-      <c r="T23" s="345"/>
-      <c r="U23" s="345"/>
-      <c r="V23" s="345"/>
-      <c r="W23" s="345"/>
-      <c r="X23" s="345"/>
-      <c r="Y23" s="345"/>
-      <c r="Z23" s="345"/>
-      <c r="AA23" s="345"/>
-      <c r="AB23" s="345"/>
-      <c r="AC23" s="345"/>
-      <c r="AD23" s="345"/>
-      <c r="AE23" s="345"/>
-      <c r="AF23" s="345"/>
-      <c r="AG23" s="345"/>
-      <c r="AH23" s="345"/>
-      <c r="AI23" s="345"/>
-      <c r="AJ23" s="345"/>
-      <c r="AK23" s="345"/>
-      <c r="AL23" s="345"/>
-      <c r="AM23" s="345"/>
-      <c r="AN23" s="345"/>
-      <c r="AO23" s="345"/>
-      <c r="AP23" s="345"/>
-      <c r="AQ23" s="345"/>
-      <c r="AR23" s="345"/>
-      <c r="AS23" s="345"/>
-      <c r="AT23" s="345"/>
-      <c r="AU23" s="345"/>
-      <c r="AV23" s="345"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="281"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="281"/>
+      <c r="G23" s="281"/>
+      <c r="H23" s="281"/>
+      <c r="I23" s="281"/>
+      <c r="J23" s="281"/>
+      <c r="K23" s="281"/>
+      <c r="L23" s="281"/>
+      <c r="M23" s="281"/>
+      <c r="N23" s="281"/>
+      <c r="O23" s="281"/>
+      <c r="P23" s="281"/>
+      <c r="Q23" s="281"/>
+      <c r="R23" s="281"/>
+      <c r="S23" s="281"/>
+      <c r="T23" s="281"/>
+      <c r="U23" s="281"/>
+      <c r="V23" s="281"/>
+      <c r="W23" s="281"/>
+      <c r="X23" s="281"/>
+      <c r="Y23" s="281"/>
+      <c r="Z23" s="281"/>
+      <c r="AA23" s="281"/>
+      <c r="AB23" s="281"/>
+      <c r="AC23" s="281"/>
+      <c r="AD23" s="281"/>
+      <c r="AE23" s="281"/>
+      <c r="AF23" s="281"/>
+      <c r="AG23" s="281"/>
+      <c r="AH23" s="281"/>
+      <c r="AI23" s="281"/>
+      <c r="AJ23" s="281"/>
+      <c r="AK23" s="281"/>
+      <c r="AL23" s="281"/>
+      <c r="AM23" s="281"/>
+      <c r="AN23" s="281"/>
+      <c r="AO23" s="281"/>
+      <c r="AP23" s="281"/>
+      <c r="AQ23" s="281"/>
+      <c r="AR23" s="281"/>
+      <c r="AS23" s="281"/>
+      <c r="AT23" s="281"/>
+      <c r="AU23" s="281"/>
+      <c r="AV23" s="281"/>
       <c r="AW23" s="157"/>
     </row>
     <row r="24" spans="1:49" ht="13.5" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="345"/>
-      <c r="C24" s="345"/>
-      <c r="D24" s="345"/>
-      <c r="E24" s="345"/>
-      <c r="F24" s="345"/>
-      <c r="G24" s="345"/>
-      <c r="H24" s="345"/>
-      <c r="I24" s="345"/>
-      <c r="J24" s="345"/>
-      <c r="K24" s="345"/>
-      <c r="L24" s="345"/>
-      <c r="M24" s="345"/>
-      <c r="N24" s="345"/>
-      <c r="O24" s="345"/>
-      <c r="P24" s="345"/>
-      <c r="Q24" s="345"/>
-      <c r="R24" s="345"/>
-      <c r="S24" s="345"/>
-      <c r="T24" s="345"/>
-      <c r="U24" s="345"/>
-      <c r="V24" s="345"/>
-      <c r="W24" s="345"/>
-      <c r="X24" s="345"/>
-      <c r="Y24" s="345"/>
-      <c r="Z24" s="345"/>
-      <c r="AA24" s="345"/>
-      <c r="AB24" s="345"/>
-      <c r="AC24" s="345"/>
-      <c r="AD24" s="345"/>
-      <c r="AE24" s="345"/>
-      <c r="AF24" s="345"/>
-      <c r="AG24" s="345"/>
-      <c r="AH24" s="345"/>
-      <c r="AI24" s="345"/>
-      <c r="AJ24" s="345"/>
-      <c r="AK24" s="345"/>
-      <c r="AL24" s="345"/>
-      <c r="AM24" s="345"/>
-      <c r="AN24" s="345"/>
-      <c r="AO24" s="345"/>
-      <c r="AP24" s="345"/>
-      <c r="AQ24" s="345"/>
-      <c r="AR24" s="345"/>
-      <c r="AS24" s="345"/>
-      <c r="AT24" s="345"/>
-      <c r="AU24" s="345"/>
-      <c r="AV24" s="345"/>
+      <c r="B24" s="281"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="281"/>
+      <c r="E24" s="281"/>
+      <c r="F24" s="281"/>
+      <c r="G24" s="281"/>
+      <c r="H24" s="281"/>
+      <c r="I24" s="281"/>
+      <c r="J24" s="281"/>
+      <c r="K24" s="281"/>
+      <c r="L24" s="281"/>
+      <c r="M24" s="281"/>
+      <c r="N24" s="281"/>
+      <c r="O24" s="281"/>
+      <c r="P24" s="281"/>
+      <c r="Q24" s="281"/>
+      <c r="R24" s="281"/>
+      <c r="S24" s="281"/>
+      <c r="T24" s="281"/>
+      <c r="U24" s="281"/>
+      <c r="V24" s="281"/>
+      <c r="W24" s="281"/>
+      <c r="X24" s="281"/>
+      <c r="Y24" s="281"/>
+      <c r="Z24" s="281"/>
+      <c r="AA24" s="281"/>
+      <c r="AB24" s="281"/>
+      <c r="AC24" s="281"/>
+      <c r="AD24" s="281"/>
+      <c r="AE24" s="281"/>
+      <c r="AF24" s="281"/>
+      <c r="AG24" s="281"/>
+      <c r="AH24" s="281"/>
+      <c r="AI24" s="281"/>
+      <c r="AJ24" s="281"/>
+      <c r="AK24" s="281"/>
+      <c r="AL24" s="281"/>
+      <c r="AM24" s="281"/>
+      <c r="AN24" s="281"/>
+      <c r="AO24" s="281"/>
+      <c r="AP24" s="281"/>
+      <c r="AQ24" s="281"/>
+      <c r="AR24" s="281"/>
+      <c r="AS24" s="281"/>
+      <c r="AT24" s="281"/>
+      <c r="AU24" s="281"/>
+      <c r="AV24" s="281"/>
       <c r="AW24" s="157"/>
     </row>
     <row r="25" spans="1:49" ht="13.5" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="345"/>
-      <c r="C25" s="345"/>
-      <c r="D25" s="345"/>
-      <c r="E25" s="345"/>
-      <c r="F25" s="345"/>
-      <c r="G25" s="345"/>
-      <c r="H25" s="345"/>
-      <c r="I25" s="345"/>
-      <c r="J25" s="345"/>
-      <c r="K25" s="345"/>
-      <c r="L25" s="345"/>
-      <c r="M25" s="345"/>
-      <c r="N25" s="345"/>
-      <c r="O25" s="345"/>
-      <c r="P25" s="345"/>
-      <c r="Q25" s="345"/>
-      <c r="R25" s="345"/>
-      <c r="S25" s="345"/>
-      <c r="T25" s="345"/>
-      <c r="U25" s="345"/>
-      <c r="V25" s="345"/>
-      <c r="W25" s="345"/>
-      <c r="X25" s="345"/>
-      <c r="Y25" s="345"/>
-      <c r="Z25" s="345"/>
-      <c r="AA25" s="345"/>
-      <c r="AB25" s="345"/>
-      <c r="AC25" s="345"/>
-      <c r="AD25" s="345"/>
-      <c r="AE25" s="345"/>
-      <c r="AF25" s="345"/>
-      <c r="AG25" s="345"/>
-      <c r="AH25" s="345"/>
-      <c r="AI25" s="345"/>
-      <c r="AJ25" s="345"/>
-      <c r="AK25" s="345"/>
-      <c r="AL25" s="345"/>
-      <c r="AM25" s="345"/>
-      <c r="AN25" s="345"/>
-      <c r="AO25" s="345"/>
-      <c r="AP25" s="345"/>
-      <c r="AQ25" s="345"/>
-      <c r="AR25" s="345"/>
-      <c r="AS25" s="345"/>
-      <c r="AT25" s="345"/>
-      <c r="AU25" s="345"/>
-      <c r="AV25" s="345"/>
+      <c r="B25" s="281"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="281"/>
+      <c r="G25" s="281"/>
+      <c r="H25" s="281"/>
+      <c r="I25" s="281"/>
+      <c r="J25" s="281"/>
+      <c r="K25" s="281"/>
+      <c r="L25" s="281"/>
+      <c r="M25" s="281"/>
+      <c r="N25" s="281"/>
+      <c r="O25" s="281"/>
+      <c r="P25" s="281"/>
+      <c r="Q25" s="281"/>
+      <c r="R25" s="281"/>
+      <c r="S25" s="281"/>
+      <c r="T25" s="281"/>
+      <c r="U25" s="281"/>
+      <c r="V25" s="281"/>
+      <c r="W25" s="281"/>
+      <c r="X25" s="281"/>
+      <c r="Y25" s="281"/>
+      <c r="Z25" s="281"/>
+      <c r="AA25" s="281"/>
+      <c r="AB25" s="281"/>
+      <c r="AC25" s="281"/>
+      <c r="AD25" s="281"/>
+      <c r="AE25" s="281"/>
+      <c r="AF25" s="281"/>
+      <c r="AG25" s="281"/>
+      <c r="AH25" s="281"/>
+      <c r="AI25" s="281"/>
+      <c r="AJ25" s="281"/>
+      <c r="AK25" s="281"/>
+      <c r="AL25" s="281"/>
+      <c r="AM25" s="281"/>
+      <c r="AN25" s="281"/>
+      <c r="AO25" s="281"/>
+      <c r="AP25" s="281"/>
+      <c r="AQ25" s="281"/>
+      <c r="AR25" s="281"/>
+      <c r="AS25" s="281"/>
+      <c r="AT25" s="281"/>
+      <c r="AU25" s="281"/>
+      <c r="AV25" s="281"/>
       <c r="AW25" s="157"/>
     </row>
     <row r="26" spans="1:49" ht="13.5" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="345"/>
-      <c r="C26" s="345"/>
-      <c r="D26" s="345"/>
-      <c r="E26" s="345"/>
-      <c r="F26" s="345"/>
-      <c r="G26" s="345"/>
-      <c r="H26" s="345"/>
-      <c r="I26" s="345"/>
-      <c r="J26" s="345"/>
-      <c r="K26" s="345"/>
-      <c r="L26" s="345"/>
-      <c r="M26" s="345"/>
-      <c r="N26" s="345"/>
-      <c r="O26" s="345"/>
-      <c r="P26" s="345"/>
-      <c r="Q26" s="345"/>
-      <c r="R26" s="345"/>
-      <c r="S26" s="345"/>
-      <c r="T26" s="345"/>
-      <c r="U26" s="345"/>
-      <c r="V26" s="345"/>
-      <c r="W26" s="345"/>
-      <c r="X26" s="345"/>
-      <c r="Y26" s="345"/>
-      <c r="Z26" s="345"/>
-      <c r="AA26" s="345"/>
-      <c r="AB26" s="345"/>
-      <c r="AC26" s="345"/>
-      <c r="AD26" s="345"/>
-      <c r="AE26" s="345"/>
-      <c r="AF26" s="345"/>
-      <c r="AG26" s="345"/>
-      <c r="AH26" s="345"/>
-      <c r="AI26" s="345"/>
-      <c r="AJ26" s="345"/>
-      <c r="AK26" s="345"/>
-      <c r="AL26" s="345"/>
-      <c r="AM26" s="345"/>
-      <c r="AN26" s="345"/>
-      <c r="AO26" s="345"/>
-      <c r="AP26" s="345"/>
-      <c r="AQ26" s="345"/>
-      <c r="AR26" s="345"/>
-      <c r="AS26" s="345"/>
-      <c r="AT26" s="345"/>
-      <c r="AU26" s="345"/>
-      <c r="AV26" s="345"/>
+      <c r="B26" s="281"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="281"/>
+      <c r="E26" s="281"/>
+      <c r="F26" s="281"/>
+      <c r="G26" s="281"/>
+      <c r="H26" s="281"/>
+      <c r="I26" s="281"/>
+      <c r="J26" s="281"/>
+      <c r="K26" s="281"/>
+      <c r="L26" s="281"/>
+      <c r="M26" s="281"/>
+      <c r="N26" s="281"/>
+      <c r="O26" s="281"/>
+      <c r="P26" s="281"/>
+      <c r="Q26" s="281"/>
+      <c r="R26" s="281"/>
+      <c r="S26" s="281"/>
+      <c r="T26" s="281"/>
+      <c r="U26" s="281"/>
+      <c r="V26" s="281"/>
+      <c r="W26" s="281"/>
+      <c r="X26" s="281"/>
+      <c r="Y26" s="281"/>
+      <c r="Z26" s="281"/>
+      <c r="AA26" s="281"/>
+      <c r="AB26" s="281"/>
+      <c r="AC26" s="281"/>
+      <c r="AD26" s="281"/>
+      <c r="AE26" s="281"/>
+      <c r="AF26" s="281"/>
+      <c r="AG26" s="281"/>
+      <c r="AH26" s="281"/>
+      <c r="AI26" s="281"/>
+      <c r="AJ26" s="281"/>
+      <c r="AK26" s="281"/>
+      <c r="AL26" s="281"/>
+      <c r="AM26" s="281"/>
+      <c r="AN26" s="281"/>
+      <c r="AO26" s="281"/>
+      <c r="AP26" s="281"/>
+      <c r="AQ26" s="281"/>
+      <c r="AR26" s="281"/>
+      <c r="AS26" s="281"/>
+      <c r="AT26" s="281"/>
+      <c r="AU26" s="281"/>
+      <c r="AV26" s="281"/>
       <c r="AW26" s="157"/>
     </row>
     <row r="27" spans="1:49" ht="13.5" customHeight="1">
@@ -19452,184 +19434,184 @@
       <c r="AV40" s="26"/>
       <c r="AW40" s="162"/>
     </row>
-    <row r="41" spans="1:49" s="19" customFormat="1" ht="17" customHeight="1" thickTop="1">
-      <c r="A41" s="237" t="s">
-        <v>89</v>
+    <row r="41" spans="1:49" s="19" customFormat="1" ht="16.95" customHeight="1" thickTop="1">
+      <c r="A41" s="223" t="s">
+        <v>88</v>
       </c>
-      <c r="B41" s="238"/>
-      <c r="C41" s="238"/>
-      <c r="D41" s="238"/>
-      <c r="E41" s="238"/>
-      <c r="F41" s="238"/>
-      <c r="G41" s="238"/>
-      <c r="H41" s="238"/>
-      <c r="I41" s="239"/>
-      <c r="J41" s="246" t="s">
+      <c r="B41" s="224"/>
+      <c r="C41" s="224"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="225"/>
+      <c r="J41" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="238"/>
-      <c r="L41" s="238"/>
-      <c r="M41" s="238"/>
-      <c r="N41" s="238"/>
-      <c r="O41" s="239"/>
-      <c r="P41" s="246" t="s">
+      <c r="K41" s="224"/>
+      <c r="L41" s="224"/>
+      <c r="M41" s="224"/>
+      <c r="N41" s="224"/>
+      <c r="O41" s="225"/>
+      <c r="P41" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="238"/>
-      <c r="R41" s="238"/>
-      <c r="S41" s="238"/>
-      <c r="T41" s="238"/>
-      <c r="U41" s="239"/>
-      <c r="V41" s="252" t="s">
+      <c r="Q41" s="224"/>
+      <c r="R41" s="224"/>
+      <c r="S41" s="224"/>
+      <c r="T41" s="224"/>
+      <c r="U41" s="225"/>
+      <c r="V41" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="W41" s="253"/>
-      <c r="X41" s="253"/>
-      <c r="Y41" s="253"/>
-      <c r="Z41" s="254"/>
-      <c r="AA41" s="258" t="s">
-        <v>124</v>
+      <c r="W41" s="240"/>
+      <c r="X41" s="240"/>
+      <c r="Y41" s="240"/>
+      <c r="Z41" s="241"/>
+      <c r="AA41" s="245" t="s">
+        <v>106</v>
       </c>
-      <c r="AB41" s="238"/>
-      <c r="AC41" s="238"/>
-      <c r="AD41" s="238"/>
-      <c r="AE41" s="238"/>
-      <c r="AF41" s="238"/>
-      <c r="AG41" s="238"/>
-      <c r="AH41" s="238"/>
-      <c r="AI41" s="238"/>
-      <c r="AJ41" s="238"/>
-      <c r="AK41" s="238"/>
-      <c r="AL41" s="239"/>
-      <c r="AM41" s="247" t="s">
+      <c r="AB41" s="224"/>
+      <c r="AC41" s="224"/>
+      <c r="AD41" s="224"/>
+      <c r="AE41" s="224"/>
+      <c r="AF41" s="224"/>
+      <c r="AG41" s="224"/>
+      <c r="AH41" s="224"/>
+      <c r="AI41" s="224"/>
+      <c r="AJ41" s="224"/>
+      <c r="AK41" s="224"/>
+      <c r="AL41" s="225"/>
+      <c r="AM41" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="AN41" s="248"/>
-      <c r="AO41" s="260"/>
-      <c r="AP41" s="261"/>
-      <c r="AQ41" s="262"/>
-      <c r="AR41" s="247" t="s">
+      <c r="AN41" s="260"/>
+      <c r="AO41" s="265"/>
+      <c r="AP41" s="266"/>
+      <c r="AQ41" s="267"/>
+      <c r="AR41" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="AS41" s="248"/>
-      <c r="AT41" s="249"/>
-      <c r="AU41" s="250"/>
-      <c r="AV41" s="250"/>
-      <c r="AW41" s="251"/>
-    </row>
-    <row r="42" spans="1:49" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A42" s="240"/>
-      <c r="B42" s="241"/>
-      <c r="C42" s="241"/>
-      <c r="D42" s="241"/>
-      <c r="E42" s="241"/>
-      <c r="F42" s="241"/>
-      <c r="G42" s="241"/>
-      <c r="H42" s="241"/>
-      <c r="I42" s="242"/>
-      <c r="J42" s="240"/>
-      <c r="K42" s="241"/>
-      <c r="L42" s="241"/>
-      <c r="M42" s="241"/>
-      <c r="N42" s="241"/>
-      <c r="O42" s="242"/>
-      <c r="P42" s="240"/>
-      <c r="Q42" s="241"/>
-      <c r="R42" s="241"/>
-      <c r="S42" s="241"/>
-      <c r="T42" s="241"/>
-      <c r="U42" s="242"/>
-      <c r="V42" s="255"/>
-      <c r="W42" s="256"/>
-      <c r="X42" s="256"/>
-      <c r="Y42" s="256"/>
-      <c r="Z42" s="257"/>
-      <c r="AA42" s="259"/>
-      <c r="AB42" s="241"/>
-      <c r="AC42" s="241"/>
-      <c r="AD42" s="241"/>
-      <c r="AE42" s="241"/>
-      <c r="AF42" s="241"/>
-      <c r="AG42" s="241"/>
-      <c r="AH42" s="241"/>
-      <c r="AI42" s="241"/>
-      <c r="AJ42" s="241"/>
-      <c r="AK42" s="241"/>
-      <c r="AL42" s="242"/>
-      <c r="AM42" s="273" t="s">
+      <c r="AS41" s="260"/>
+      <c r="AT41" s="276"/>
+      <c r="AU41" s="277"/>
+      <c r="AV41" s="277"/>
+      <c r="AW41" s="278"/>
+    </row>
+    <row r="42" spans="1:49" s="19" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A42" s="226"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="227"/>
+      <c r="D42" s="227"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="227"/>
+      <c r="G42" s="227"/>
+      <c r="H42" s="227"/>
+      <c r="I42" s="228"/>
+      <c r="J42" s="226"/>
+      <c r="K42" s="227"/>
+      <c r="L42" s="227"/>
+      <c r="M42" s="227"/>
+      <c r="N42" s="227"/>
+      <c r="O42" s="228"/>
+      <c r="P42" s="226"/>
+      <c r="Q42" s="227"/>
+      <c r="R42" s="227"/>
+      <c r="S42" s="227"/>
+      <c r="T42" s="227"/>
+      <c r="U42" s="228"/>
+      <c r="V42" s="242"/>
+      <c r="W42" s="243"/>
+      <c r="X42" s="243"/>
+      <c r="Y42" s="243"/>
+      <c r="Z42" s="244"/>
+      <c r="AA42" s="246"/>
+      <c r="AB42" s="227"/>
+      <c r="AC42" s="227"/>
+      <c r="AD42" s="227"/>
+      <c r="AE42" s="227"/>
+      <c r="AF42" s="227"/>
+      <c r="AG42" s="227"/>
+      <c r="AH42" s="227"/>
+      <c r="AI42" s="227"/>
+      <c r="AJ42" s="227"/>
+      <c r="AK42" s="227"/>
+      <c r="AL42" s="228"/>
+      <c r="AM42" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="AN42" s="274"/>
-      <c r="AO42" s="275"/>
-      <c r="AP42" s="276"/>
-      <c r="AQ42" s="277"/>
-      <c r="AR42" s="273" t="s">
+      <c r="AN42" s="269"/>
+      <c r="AO42" s="270"/>
+      <c r="AP42" s="271"/>
+      <c r="AQ42" s="272"/>
+      <c r="AR42" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="AS42" s="274"/>
-      <c r="AT42" s="278"/>
-      <c r="AU42" s="279"/>
-      <c r="AV42" s="279"/>
-      <c r="AW42" s="280"/>
-    </row>
-    <row r="43" spans="1:49" ht="17" customHeight="1" thickBot="1">
-      <c r="A43" s="243"/>
-      <c r="B43" s="244"/>
-      <c r="C43" s="244"/>
-      <c r="D43" s="244"/>
-      <c r="E43" s="244"/>
-      <c r="F43" s="244"/>
-      <c r="G43" s="244"/>
-      <c r="H43" s="244"/>
-      <c r="I43" s="245"/>
-      <c r="J43" s="243"/>
-      <c r="K43" s="244"/>
-      <c r="L43" s="244"/>
-      <c r="M43" s="244"/>
-      <c r="N43" s="244"/>
-      <c r="O43" s="245"/>
-      <c r="P43" s="243"/>
-      <c r="Q43" s="244"/>
-      <c r="R43" s="244"/>
-      <c r="S43" s="244"/>
-      <c r="T43" s="244"/>
-      <c r="U43" s="245"/>
-      <c r="V43" s="263" t="s">
+      <c r="AS42" s="269"/>
+      <c r="AT42" s="273"/>
+      <c r="AU42" s="274"/>
+      <c r="AV42" s="274"/>
+      <c r="AW42" s="275"/>
+    </row>
+    <row r="43" spans="1:49" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A43" s="229"/>
+      <c r="B43" s="230"/>
+      <c r="C43" s="230"/>
+      <c r="D43" s="230"/>
+      <c r="E43" s="230"/>
+      <c r="F43" s="230"/>
+      <c r="G43" s="230"/>
+      <c r="H43" s="230"/>
+      <c r="I43" s="231"/>
+      <c r="J43" s="229"/>
+      <c r="K43" s="230"/>
+      <c r="L43" s="230"/>
+      <c r="M43" s="230"/>
+      <c r="N43" s="230"/>
+      <c r="O43" s="231"/>
+      <c r="P43" s="229"/>
+      <c r="Q43" s="230"/>
+      <c r="R43" s="230"/>
+      <c r="S43" s="230"/>
+      <c r="T43" s="230"/>
+      <c r="U43" s="231"/>
+      <c r="V43" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="W43" s="264"/>
-      <c r="X43" s="264"/>
-      <c r="Y43" s="264"/>
-      <c r="Z43" s="265"/>
-      <c r="AA43" s="266" t="s">
-        <v>122</v>
+      <c r="W43" s="237"/>
+      <c r="X43" s="237"/>
+      <c r="Y43" s="237"/>
+      <c r="Z43" s="238"/>
+      <c r="AA43" s="233" t="s">
+        <v>104</v>
       </c>
-      <c r="AB43" s="267"/>
-      <c r="AC43" s="267"/>
-      <c r="AD43" s="267"/>
-      <c r="AE43" s="267"/>
-      <c r="AF43" s="267"/>
-      <c r="AG43" s="268"/>
-      <c r="AH43" s="269" t="s">
+      <c r="AB43" s="234"/>
+      <c r="AC43" s="234"/>
+      <c r="AD43" s="234"/>
+      <c r="AE43" s="234"/>
+      <c r="AF43" s="234"/>
+      <c r="AG43" s="235"/>
+      <c r="AH43" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="AI43" s="270"/>
-      <c r="AJ43" s="270"/>
-      <c r="AK43" s="270"/>
-      <c r="AL43" s="271"/>
-      <c r="AM43" s="266" t="s">
-        <v>154</v>
+      <c r="AI43" s="262"/>
+      <c r="AJ43" s="262"/>
+      <c r="AK43" s="262"/>
+      <c r="AL43" s="263"/>
+      <c r="AM43" s="233" t="s">
+        <v>132</v>
       </c>
-      <c r="AN43" s="267"/>
-      <c r="AO43" s="267"/>
-      <c r="AP43" s="267"/>
-      <c r="AQ43" s="267"/>
-      <c r="AR43" s="267"/>
-      <c r="AS43" s="267"/>
-      <c r="AT43" s="267"/>
-      <c r="AU43" s="267"/>
-      <c r="AV43" s="267"/>
-      <c r="AW43" s="272"/>
+      <c r="AN43" s="234"/>
+      <c r="AO43" s="234"/>
+      <c r="AP43" s="234"/>
+      <c r="AQ43" s="234"/>
+      <c r="AR43" s="234"/>
+      <c r="AS43" s="234"/>
+      <c r="AT43" s="234"/>
+      <c r="AU43" s="234"/>
+      <c r="AV43" s="234"/>
+      <c r="AW43" s="264"/>
     </row>
     <row r="44" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="21"/>
@@ -19743,1650 +19725,1650 @@
     </row>
     <row r="47" spans="1:49" ht="13.5" customHeight="1">
       <c r="A47" s="21"/>
-      <c r="B47" s="346" t="s">
+      <c r="B47" s="282" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="347"/>
-      <c r="D47" s="304" t="s">
+      <c r="C47" s="283"/>
+      <c r="D47" s="286" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="305"/>
-      <c r="F47" s="305"/>
-      <c r="G47" s="305"/>
-      <c r="H47" s="306"/>
-      <c r="I47" s="346" t="s">
+      <c r="E47" s="287"/>
+      <c r="F47" s="287"/>
+      <c r="G47" s="287"/>
+      <c r="H47" s="288"/>
+      <c r="I47" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="347"/>
-      <c r="K47" s="347"/>
-      <c r="L47" s="347"/>
-      <c r="M47" s="347"/>
-      <c r="N47" s="347"/>
-      <c r="O47" s="347"/>
-      <c r="P47" s="347"/>
-      <c r="Q47" s="347"/>
-      <c r="R47" s="347"/>
-      <c r="S47" s="347"/>
-      <c r="T47" s="347"/>
-      <c r="U47" s="347"/>
-      <c r="V47" s="347"/>
-      <c r="W47" s="347"/>
-      <c r="X47" s="347"/>
-      <c r="Y47" s="347"/>
-      <c r="Z47" s="350"/>
-      <c r="AA47" s="304" t="s">
+      <c r="J47" s="283"/>
+      <c r="K47" s="283"/>
+      <c r="L47" s="283"/>
+      <c r="M47" s="283"/>
+      <c r="N47" s="283"/>
+      <c r="O47" s="283"/>
+      <c r="P47" s="283"/>
+      <c r="Q47" s="283"/>
+      <c r="R47" s="283"/>
+      <c r="S47" s="283"/>
+      <c r="T47" s="283"/>
+      <c r="U47" s="283"/>
+      <c r="V47" s="283"/>
+      <c r="W47" s="283"/>
+      <c r="X47" s="283"/>
+      <c r="Y47" s="283"/>
+      <c r="Z47" s="292"/>
+      <c r="AA47" s="286" t="s">
         <v>24</v>
       </c>
-      <c r="AB47" s="305"/>
-      <c r="AC47" s="305"/>
-      <c r="AD47" s="306"/>
-      <c r="AE47" s="310"/>
-      <c r="AF47" s="311"/>
-      <c r="AG47" s="311"/>
-      <c r="AH47" s="311"/>
-      <c r="AI47" s="311"/>
-      <c r="AJ47" s="311"/>
-      <c r="AK47" s="311"/>
-      <c r="AL47" s="311"/>
-      <c r="AM47" s="312"/>
-      <c r="AN47" s="313"/>
-      <c r="AO47" s="314"/>
-      <c r="AP47" s="314"/>
-      <c r="AQ47" s="314"/>
-      <c r="AR47" s="314"/>
-      <c r="AS47" s="314"/>
-      <c r="AT47" s="314"/>
-      <c r="AU47" s="314"/>
-      <c r="AV47" s="315"/>
+      <c r="AB47" s="287"/>
+      <c r="AC47" s="287"/>
+      <c r="AD47" s="288"/>
+      <c r="AE47" s="319"/>
+      <c r="AF47" s="320"/>
+      <c r="AG47" s="320"/>
+      <c r="AH47" s="320"/>
+      <c r="AI47" s="320"/>
+      <c r="AJ47" s="320"/>
+      <c r="AK47" s="320"/>
+      <c r="AL47" s="320"/>
+      <c r="AM47" s="321"/>
+      <c r="AN47" s="322"/>
+      <c r="AO47" s="323"/>
+      <c r="AP47" s="323"/>
+      <c r="AQ47" s="323"/>
+      <c r="AR47" s="323"/>
+      <c r="AS47" s="323"/>
+      <c r="AT47" s="323"/>
+      <c r="AU47" s="323"/>
+      <c r="AV47" s="324"/>
       <c r="AW47" s="157"/>
     </row>
     <row r="48" spans="1:49" ht="13.5" customHeight="1">
       <c r="A48" s="21"/>
-      <c r="B48" s="348"/>
-      <c r="C48" s="349"/>
-      <c r="D48" s="307"/>
-      <c r="E48" s="308"/>
-      <c r="F48" s="308"/>
-      <c r="G48" s="308"/>
-      <c r="H48" s="309"/>
-      <c r="I48" s="348"/>
-      <c r="J48" s="349"/>
-      <c r="K48" s="349"/>
-      <c r="L48" s="349"/>
-      <c r="M48" s="349"/>
-      <c r="N48" s="349"/>
-      <c r="O48" s="349"/>
-      <c r="P48" s="349"/>
-      <c r="Q48" s="349"/>
-      <c r="R48" s="349"/>
-      <c r="S48" s="349"/>
-      <c r="T48" s="349"/>
-      <c r="U48" s="349"/>
-      <c r="V48" s="349"/>
-      <c r="W48" s="349"/>
-      <c r="X48" s="349"/>
-      <c r="Y48" s="349"/>
-      <c r="Z48" s="351"/>
-      <c r="AA48" s="307"/>
-      <c r="AB48" s="308"/>
-      <c r="AC48" s="308"/>
-      <c r="AD48" s="309"/>
-      <c r="AE48" s="310" t="s">
+      <c r="B48" s="284"/>
+      <c r="C48" s="285"/>
+      <c r="D48" s="289"/>
+      <c r="E48" s="290"/>
+      <c r="F48" s="290"/>
+      <c r="G48" s="290"/>
+      <c r="H48" s="291"/>
+      <c r="I48" s="284"/>
+      <c r="J48" s="285"/>
+      <c r="K48" s="285"/>
+      <c r="L48" s="285"/>
+      <c r="M48" s="285"/>
+      <c r="N48" s="285"/>
+      <c r="O48" s="285"/>
+      <c r="P48" s="285"/>
+      <c r="Q48" s="285"/>
+      <c r="R48" s="285"/>
+      <c r="S48" s="285"/>
+      <c r="T48" s="285"/>
+      <c r="U48" s="285"/>
+      <c r="V48" s="285"/>
+      <c r="W48" s="285"/>
+      <c r="X48" s="285"/>
+      <c r="Y48" s="285"/>
+      <c r="Z48" s="293"/>
+      <c r="AA48" s="289"/>
+      <c r="AB48" s="290"/>
+      <c r="AC48" s="290"/>
+      <c r="AD48" s="291"/>
+      <c r="AE48" s="319" t="s">
         <v>38</v>
       </c>
-      <c r="AF48" s="311"/>
-      <c r="AG48" s="311"/>
-      <c r="AH48" s="311"/>
-      <c r="AI48" s="312"/>
-      <c r="AJ48" s="310" t="s">
+      <c r="AF48" s="320"/>
+      <c r="AG48" s="320"/>
+      <c r="AH48" s="320"/>
+      <c r="AI48" s="321"/>
+      <c r="AJ48" s="319" t="s">
         <v>39</v>
       </c>
-      <c r="AK48" s="311"/>
-      <c r="AL48" s="311"/>
-      <c r="AM48" s="312"/>
-      <c r="AN48" s="310" t="s">
+      <c r="AK48" s="320"/>
+      <c r="AL48" s="320"/>
+      <c r="AM48" s="321"/>
+      <c r="AN48" s="319" t="s">
         <v>38</v>
       </c>
-      <c r="AO48" s="311"/>
-      <c r="AP48" s="311"/>
-      <c r="AQ48" s="311"/>
-      <c r="AR48" s="312"/>
-      <c r="AS48" s="310" t="s">
+      <c r="AO48" s="320"/>
+      <c r="AP48" s="320"/>
+      <c r="AQ48" s="320"/>
+      <c r="AR48" s="321"/>
+      <c r="AS48" s="319" t="s">
         <v>39</v>
       </c>
-      <c r="AT48" s="311"/>
-      <c r="AU48" s="311"/>
-      <c r="AV48" s="312"/>
+      <c r="AT48" s="320"/>
+      <c r="AU48" s="320"/>
+      <c r="AV48" s="321"/>
       <c r="AW48" s="157"/>
     </row>
     <row r="49" spans="1:49" ht="13.5" customHeight="1">
       <c r="A49" s="21"/>
-      <c r="B49" s="324"/>
-      <c r="C49" s="325"/>
-      <c r="D49" s="328"/>
-      <c r="E49" s="329"/>
-      <c r="F49" s="329"/>
-      <c r="G49" s="329"/>
-      <c r="H49" s="330"/>
-      <c r="I49" s="334"/>
-      <c r="J49" s="335"/>
-      <c r="K49" s="335"/>
-      <c r="L49" s="335"/>
-      <c r="M49" s="335"/>
-      <c r="N49" s="335"/>
-      <c r="O49" s="335"/>
-      <c r="P49" s="335"/>
-      <c r="Q49" s="335"/>
-      <c r="R49" s="335"/>
-      <c r="S49" s="335"/>
-      <c r="T49" s="335"/>
-      <c r="U49" s="335"/>
-      <c r="V49" s="335"/>
-      <c r="W49" s="335"/>
-      <c r="X49" s="335"/>
-      <c r="Y49" s="335"/>
-      <c r="Z49" s="336"/>
-      <c r="AA49" s="316"/>
-      <c r="AB49" s="317"/>
-      <c r="AC49" s="317"/>
-      <c r="AD49" s="318"/>
-      <c r="AE49" s="328"/>
-      <c r="AF49" s="329"/>
-      <c r="AG49" s="329"/>
-      <c r="AH49" s="329"/>
-      <c r="AI49" s="330"/>
-      <c r="AJ49" s="316"/>
-      <c r="AK49" s="317"/>
-      <c r="AL49" s="317"/>
-      <c r="AM49" s="318"/>
-      <c r="AN49" s="328"/>
-      <c r="AO49" s="329"/>
-      <c r="AP49" s="329"/>
-      <c r="AQ49" s="329"/>
-      <c r="AR49" s="330"/>
-      <c r="AS49" s="316"/>
-      <c r="AT49" s="317"/>
-      <c r="AU49" s="317"/>
-      <c r="AV49" s="318"/>
+      <c r="B49" s="328"/>
+      <c r="C49" s="329"/>
+      <c r="D49" s="253"/>
+      <c r="E49" s="254"/>
+      <c r="F49" s="254"/>
+      <c r="G49" s="254"/>
+      <c r="H49" s="255"/>
+      <c r="I49" s="332"/>
+      <c r="J49" s="333"/>
+      <c r="K49" s="333"/>
+      <c r="L49" s="333"/>
+      <c r="M49" s="333"/>
+      <c r="N49" s="333"/>
+      <c r="O49" s="333"/>
+      <c r="P49" s="333"/>
+      <c r="Q49" s="333"/>
+      <c r="R49" s="333"/>
+      <c r="S49" s="333"/>
+      <c r="T49" s="333"/>
+      <c r="U49" s="333"/>
+      <c r="V49" s="333"/>
+      <c r="W49" s="333"/>
+      <c r="X49" s="333"/>
+      <c r="Y49" s="333"/>
+      <c r="Z49" s="334"/>
+      <c r="AA49" s="247"/>
+      <c r="AB49" s="248"/>
+      <c r="AC49" s="248"/>
+      <c r="AD49" s="249"/>
+      <c r="AE49" s="253"/>
+      <c r="AF49" s="254"/>
+      <c r="AG49" s="254"/>
+      <c r="AH49" s="254"/>
+      <c r="AI49" s="255"/>
+      <c r="AJ49" s="247"/>
+      <c r="AK49" s="248"/>
+      <c r="AL49" s="248"/>
+      <c r="AM49" s="249"/>
+      <c r="AN49" s="253"/>
+      <c r="AO49" s="254"/>
+      <c r="AP49" s="254"/>
+      <c r="AQ49" s="254"/>
+      <c r="AR49" s="255"/>
+      <c r="AS49" s="247"/>
+      <c r="AT49" s="248"/>
+      <c r="AU49" s="248"/>
+      <c r="AV49" s="249"/>
       <c r="AW49" s="157"/>
     </row>
     <row r="50" spans="1:49" ht="13.5" customHeight="1">
       <c r="A50" s="21"/>
-      <c r="B50" s="326"/>
-      <c r="C50" s="327"/>
-      <c r="D50" s="331"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="332"/>
-      <c r="G50" s="332"/>
-      <c r="H50" s="333"/>
-      <c r="I50" s="337"/>
-      <c r="J50" s="338"/>
-      <c r="K50" s="338"/>
-      <c r="L50" s="338"/>
-      <c r="M50" s="338"/>
-      <c r="N50" s="338"/>
-      <c r="O50" s="338"/>
-      <c r="P50" s="338"/>
-      <c r="Q50" s="338"/>
-      <c r="R50" s="338"/>
-      <c r="S50" s="338"/>
-      <c r="T50" s="338"/>
-      <c r="U50" s="338"/>
-      <c r="V50" s="338"/>
-      <c r="W50" s="338"/>
-      <c r="X50" s="338"/>
-      <c r="Y50" s="338"/>
-      <c r="Z50" s="339"/>
-      <c r="AA50" s="319"/>
-      <c r="AB50" s="320"/>
-      <c r="AC50" s="320"/>
-      <c r="AD50" s="321"/>
-      <c r="AE50" s="331"/>
-      <c r="AF50" s="332"/>
-      <c r="AG50" s="332"/>
-      <c r="AH50" s="332"/>
-      <c r="AI50" s="333"/>
-      <c r="AJ50" s="319"/>
-      <c r="AK50" s="320"/>
-      <c r="AL50" s="320"/>
-      <c r="AM50" s="321"/>
-      <c r="AN50" s="331"/>
-      <c r="AO50" s="332"/>
-      <c r="AP50" s="332"/>
-      <c r="AQ50" s="332"/>
-      <c r="AR50" s="333"/>
-      <c r="AS50" s="319"/>
-      <c r="AT50" s="320"/>
-      <c r="AU50" s="320"/>
-      <c r="AV50" s="321"/>
+      <c r="B50" s="330"/>
+      <c r="C50" s="331"/>
+      <c r="D50" s="256"/>
+      <c r="E50" s="257"/>
+      <c r="F50" s="257"/>
+      <c r="G50" s="257"/>
+      <c r="H50" s="258"/>
+      <c r="I50" s="335"/>
+      <c r="J50" s="336"/>
+      <c r="K50" s="336"/>
+      <c r="L50" s="336"/>
+      <c r="M50" s="336"/>
+      <c r="N50" s="336"/>
+      <c r="O50" s="336"/>
+      <c r="P50" s="336"/>
+      <c r="Q50" s="336"/>
+      <c r="R50" s="336"/>
+      <c r="S50" s="336"/>
+      <c r="T50" s="336"/>
+      <c r="U50" s="336"/>
+      <c r="V50" s="336"/>
+      <c r="W50" s="336"/>
+      <c r="X50" s="336"/>
+      <c r="Y50" s="336"/>
+      <c r="Z50" s="337"/>
+      <c r="AA50" s="250"/>
+      <c r="AB50" s="251"/>
+      <c r="AC50" s="251"/>
+      <c r="AD50" s="252"/>
+      <c r="AE50" s="256"/>
+      <c r="AF50" s="257"/>
+      <c r="AG50" s="257"/>
+      <c r="AH50" s="257"/>
+      <c r="AI50" s="258"/>
+      <c r="AJ50" s="250"/>
+      <c r="AK50" s="251"/>
+      <c r="AL50" s="251"/>
+      <c r="AM50" s="252"/>
+      <c r="AN50" s="256"/>
+      <c r="AO50" s="257"/>
+      <c r="AP50" s="257"/>
+      <c r="AQ50" s="257"/>
+      <c r="AR50" s="258"/>
+      <c r="AS50" s="250"/>
+      <c r="AT50" s="251"/>
+      <c r="AU50" s="251"/>
+      <c r="AV50" s="252"/>
       <c r="AW50" s="157"/>
     </row>
     <row r="51" spans="1:49" ht="13.5" customHeight="1">
       <c r="A51" s="21"/>
-      <c r="B51" s="281"/>
-      <c r="C51" s="282"/>
-      <c r="D51" s="283"/>
-      <c r="E51" s="284"/>
-      <c r="F51" s="284"/>
-      <c r="G51" s="284"/>
-      <c r="H51" s="285"/>
-      <c r="I51" s="289"/>
-      <c r="J51" s="290"/>
-      <c r="K51" s="290"/>
-      <c r="L51" s="290"/>
-      <c r="M51" s="290"/>
-      <c r="N51" s="290"/>
-      <c r="O51" s="290"/>
-      <c r="P51" s="290"/>
-      <c r="Q51" s="290"/>
-      <c r="R51" s="290"/>
-      <c r="S51" s="290"/>
-      <c r="T51" s="290"/>
-      <c r="U51" s="290"/>
-      <c r="V51" s="290"/>
-      <c r="W51" s="290"/>
-      <c r="X51" s="290"/>
-      <c r="Y51" s="290"/>
-      <c r="Z51" s="291"/>
-      <c r="AA51" s="292"/>
-      <c r="AB51" s="293"/>
-      <c r="AC51" s="293"/>
-      <c r="AD51" s="294"/>
-      <c r="AE51" s="295"/>
-      <c r="AF51" s="296"/>
-      <c r="AG51" s="296"/>
-      <c r="AH51" s="296"/>
-      <c r="AI51" s="297"/>
-      <c r="AJ51" s="292"/>
-      <c r="AK51" s="293"/>
-      <c r="AL51" s="293"/>
-      <c r="AM51" s="294"/>
-      <c r="AN51" s="295"/>
-      <c r="AO51" s="296"/>
-      <c r="AP51" s="296"/>
-      <c r="AQ51" s="296"/>
-      <c r="AR51" s="297"/>
-      <c r="AS51" s="292"/>
-      <c r="AT51" s="293"/>
-      <c r="AU51" s="293"/>
-      <c r="AV51" s="294"/>
+      <c r="B51" s="338"/>
+      <c r="C51" s="339"/>
+      <c r="D51" s="340"/>
+      <c r="E51" s="341"/>
+      <c r="F51" s="341"/>
+      <c r="G51" s="341"/>
+      <c r="H51" s="342"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="347"/>
+      <c r="K51" s="347"/>
+      <c r="L51" s="347"/>
+      <c r="M51" s="347"/>
+      <c r="N51" s="347"/>
+      <c r="O51" s="347"/>
+      <c r="P51" s="347"/>
+      <c r="Q51" s="347"/>
+      <c r="R51" s="347"/>
+      <c r="S51" s="347"/>
+      <c r="T51" s="347"/>
+      <c r="U51" s="347"/>
+      <c r="V51" s="347"/>
+      <c r="W51" s="347"/>
+      <c r="X51" s="347"/>
+      <c r="Y51" s="347"/>
+      <c r="Z51" s="348"/>
+      <c r="AA51" s="316"/>
+      <c r="AB51" s="317"/>
+      <c r="AC51" s="317"/>
+      <c r="AD51" s="318"/>
+      <c r="AE51" s="313"/>
+      <c r="AF51" s="314"/>
+      <c r="AG51" s="314"/>
+      <c r="AH51" s="314"/>
+      <c r="AI51" s="315"/>
+      <c r="AJ51" s="316"/>
+      <c r="AK51" s="317"/>
+      <c r="AL51" s="317"/>
+      <c r="AM51" s="318"/>
+      <c r="AN51" s="313"/>
+      <c r="AO51" s="314"/>
+      <c r="AP51" s="314"/>
+      <c r="AQ51" s="314"/>
+      <c r="AR51" s="315"/>
+      <c r="AS51" s="316"/>
+      <c r="AT51" s="317"/>
+      <c r="AU51" s="317"/>
+      <c r="AV51" s="318"/>
       <c r="AW51" s="157"/>
     </row>
     <row r="52" spans="1:49" ht="13.5" customHeight="1">
       <c r="A52" s="21"/>
-      <c r="B52" s="227"/>
-      <c r="C52" s="228"/>
-      <c r="D52" s="286"/>
-      <c r="E52" s="287"/>
-      <c r="F52" s="287"/>
-      <c r="G52" s="287"/>
-      <c r="H52" s="288"/>
-      <c r="I52" s="229"/>
-      <c r="J52" s="230"/>
-      <c r="K52" s="230"/>
-      <c r="L52" s="230"/>
-      <c r="M52" s="230"/>
-      <c r="N52" s="230"/>
-      <c r="O52" s="230"/>
-      <c r="P52" s="230"/>
-      <c r="Q52" s="230"/>
-      <c r="R52" s="230"/>
-      <c r="S52" s="230"/>
-      <c r="T52" s="230"/>
-      <c r="U52" s="230"/>
-      <c r="V52" s="230"/>
-      <c r="W52" s="230"/>
-      <c r="X52" s="230"/>
-      <c r="Y52" s="230"/>
-      <c r="Z52" s="231"/>
-      <c r="AA52" s="221"/>
-      <c r="AB52" s="222"/>
-      <c r="AC52" s="222"/>
-      <c r="AD52" s="223"/>
-      <c r="AE52" s="215"/>
-      <c r="AF52" s="216"/>
-      <c r="AG52" s="216"/>
-      <c r="AH52" s="216"/>
-      <c r="AI52" s="217"/>
-      <c r="AJ52" s="221"/>
-      <c r="AK52" s="222"/>
-      <c r="AL52" s="222"/>
-      <c r="AM52" s="223"/>
-      <c r="AN52" s="215"/>
-      <c r="AO52" s="216"/>
-      <c r="AP52" s="216"/>
-      <c r="AQ52" s="216"/>
-      <c r="AR52" s="217"/>
-      <c r="AS52" s="221"/>
-      <c r="AT52" s="222"/>
-      <c r="AU52" s="222"/>
-      <c r="AV52" s="223"/>
+      <c r="B52" s="306"/>
+      <c r="C52" s="307"/>
+      <c r="D52" s="343"/>
+      <c r="E52" s="344"/>
+      <c r="F52" s="344"/>
+      <c r="G52" s="344"/>
+      <c r="H52" s="345"/>
+      <c r="I52" s="325"/>
+      <c r="J52" s="326"/>
+      <c r="K52" s="326"/>
+      <c r="L52" s="326"/>
+      <c r="M52" s="326"/>
+      <c r="N52" s="326"/>
+      <c r="O52" s="326"/>
+      <c r="P52" s="326"/>
+      <c r="Q52" s="326"/>
+      <c r="R52" s="326"/>
+      <c r="S52" s="326"/>
+      <c r="T52" s="326"/>
+      <c r="U52" s="326"/>
+      <c r="V52" s="326"/>
+      <c r="W52" s="326"/>
+      <c r="X52" s="326"/>
+      <c r="Y52" s="326"/>
+      <c r="Z52" s="327"/>
+      <c r="AA52" s="310"/>
+      <c r="AB52" s="311"/>
+      <c r="AC52" s="311"/>
+      <c r="AD52" s="312"/>
+      <c r="AE52" s="294"/>
+      <c r="AF52" s="295"/>
+      <c r="AG52" s="295"/>
+      <c r="AH52" s="295"/>
+      <c r="AI52" s="296"/>
+      <c r="AJ52" s="310"/>
+      <c r="AK52" s="311"/>
+      <c r="AL52" s="311"/>
+      <c r="AM52" s="312"/>
+      <c r="AN52" s="294"/>
+      <c r="AO52" s="295"/>
+      <c r="AP52" s="295"/>
+      <c r="AQ52" s="295"/>
+      <c r="AR52" s="296"/>
+      <c r="AS52" s="310"/>
+      <c r="AT52" s="311"/>
+      <c r="AU52" s="311"/>
+      <c r="AV52" s="312"/>
       <c r="AW52" s="157"/>
     </row>
     <row r="53" spans="1:49" ht="13.5" customHeight="1">
       <c r="A53" s="21"/>
-      <c r="B53" s="227"/>
-      <c r="C53" s="228"/>
-      <c r="D53" s="215"/>
-      <c r="E53" s="216"/>
-      <c r="F53" s="216"/>
-      <c r="G53" s="216"/>
-      <c r="H53" s="217"/>
-      <c r="I53" s="229"/>
-      <c r="J53" s="230"/>
-      <c r="K53" s="230"/>
-      <c r="L53" s="230"/>
-      <c r="M53" s="230"/>
-      <c r="N53" s="230"/>
-      <c r="O53" s="230"/>
-      <c r="P53" s="230"/>
-      <c r="Q53" s="230"/>
-      <c r="R53" s="230"/>
-      <c r="S53" s="230"/>
-      <c r="T53" s="230"/>
-      <c r="U53" s="230"/>
-      <c r="V53" s="230"/>
-      <c r="W53" s="230"/>
-      <c r="X53" s="230"/>
-      <c r="Y53" s="230"/>
-      <c r="Z53" s="231"/>
-      <c r="AA53" s="221"/>
-      <c r="AB53" s="222"/>
-      <c r="AC53" s="222"/>
-      <c r="AD53" s="223"/>
-      <c r="AE53" s="215"/>
-      <c r="AF53" s="216"/>
-      <c r="AG53" s="216"/>
-      <c r="AH53" s="216"/>
-      <c r="AI53" s="217"/>
-      <c r="AJ53" s="221"/>
-      <c r="AK53" s="222"/>
-      <c r="AL53" s="222"/>
-      <c r="AM53" s="223"/>
-      <c r="AN53" s="215"/>
-      <c r="AO53" s="216"/>
-      <c r="AP53" s="216"/>
-      <c r="AQ53" s="216"/>
-      <c r="AR53" s="217"/>
-      <c r="AS53" s="221"/>
-      <c r="AT53" s="222"/>
-      <c r="AU53" s="222"/>
-      <c r="AV53" s="223"/>
+      <c r="B53" s="306"/>
+      <c r="C53" s="307"/>
+      <c r="D53" s="294"/>
+      <c r="E53" s="295"/>
+      <c r="F53" s="295"/>
+      <c r="G53" s="295"/>
+      <c r="H53" s="296"/>
+      <c r="I53" s="325"/>
+      <c r="J53" s="326"/>
+      <c r="K53" s="326"/>
+      <c r="L53" s="326"/>
+      <c r="M53" s="326"/>
+      <c r="N53" s="326"/>
+      <c r="O53" s="326"/>
+      <c r="P53" s="326"/>
+      <c r="Q53" s="326"/>
+      <c r="R53" s="326"/>
+      <c r="S53" s="326"/>
+      <c r="T53" s="326"/>
+      <c r="U53" s="326"/>
+      <c r="V53" s="326"/>
+      <c r="W53" s="326"/>
+      <c r="X53" s="326"/>
+      <c r="Y53" s="326"/>
+      <c r="Z53" s="327"/>
+      <c r="AA53" s="310"/>
+      <c r="AB53" s="311"/>
+      <c r="AC53" s="311"/>
+      <c r="AD53" s="312"/>
+      <c r="AE53" s="294"/>
+      <c r="AF53" s="295"/>
+      <c r="AG53" s="295"/>
+      <c r="AH53" s="295"/>
+      <c r="AI53" s="296"/>
+      <c r="AJ53" s="310"/>
+      <c r="AK53" s="311"/>
+      <c r="AL53" s="311"/>
+      <c r="AM53" s="312"/>
+      <c r="AN53" s="294"/>
+      <c r="AO53" s="295"/>
+      <c r="AP53" s="295"/>
+      <c r="AQ53" s="295"/>
+      <c r="AR53" s="296"/>
+      <c r="AS53" s="310"/>
+      <c r="AT53" s="311"/>
+      <c r="AU53" s="311"/>
+      <c r="AV53" s="312"/>
       <c r="AW53" s="157"/>
     </row>
     <row r="54" spans="1:49" ht="13.5" customHeight="1">
       <c r="A54" s="21"/>
-      <c r="B54" s="227"/>
-      <c r="C54" s="228"/>
-      <c r="D54" s="215"/>
-      <c r="E54" s="216"/>
-      <c r="F54" s="216"/>
-      <c r="G54" s="216"/>
-      <c r="H54" s="217"/>
-      <c r="I54" s="229"/>
-      <c r="J54" s="230"/>
-      <c r="K54" s="230"/>
-      <c r="L54" s="230"/>
-      <c r="M54" s="230"/>
-      <c r="N54" s="230"/>
-      <c r="O54" s="230"/>
-      <c r="P54" s="230"/>
-      <c r="Q54" s="230"/>
-      <c r="R54" s="230"/>
-      <c r="S54" s="230"/>
-      <c r="T54" s="230"/>
-      <c r="U54" s="230"/>
-      <c r="V54" s="230"/>
-      <c r="W54" s="230"/>
-      <c r="X54" s="230"/>
-      <c r="Y54" s="230"/>
-      <c r="Z54" s="231"/>
-      <c r="AA54" s="221"/>
-      <c r="AB54" s="222"/>
-      <c r="AC54" s="222"/>
-      <c r="AD54" s="223"/>
-      <c r="AE54" s="215"/>
-      <c r="AF54" s="216"/>
-      <c r="AG54" s="216"/>
-      <c r="AH54" s="216"/>
-      <c r="AI54" s="217"/>
-      <c r="AJ54" s="221"/>
-      <c r="AK54" s="222"/>
-      <c r="AL54" s="222"/>
-      <c r="AM54" s="223"/>
-      <c r="AN54" s="215"/>
-      <c r="AO54" s="216"/>
-      <c r="AP54" s="216"/>
-      <c r="AQ54" s="216"/>
-      <c r="AR54" s="217"/>
-      <c r="AS54" s="221"/>
-      <c r="AT54" s="222"/>
-      <c r="AU54" s="222"/>
-      <c r="AV54" s="223"/>
+      <c r="B54" s="306"/>
+      <c r="C54" s="307"/>
+      <c r="D54" s="294"/>
+      <c r="E54" s="295"/>
+      <c r="F54" s="295"/>
+      <c r="G54" s="295"/>
+      <c r="H54" s="296"/>
+      <c r="I54" s="325"/>
+      <c r="J54" s="326"/>
+      <c r="K54" s="326"/>
+      <c r="L54" s="326"/>
+      <c r="M54" s="326"/>
+      <c r="N54" s="326"/>
+      <c r="O54" s="326"/>
+      <c r="P54" s="326"/>
+      <c r="Q54" s="326"/>
+      <c r="R54" s="326"/>
+      <c r="S54" s="326"/>
+      <c r="T54" s="326"/>
+      <c r="U54" s="326"/>
+      <c r="V54" s="326"/>
+      <c r="W54" s="326"/>
+      <c r="X54" s="326"/>
+      <c r="Y54" s="326"/>
+      <c r="Z54" s="327"/>
+      <c r="AA54" s="310"/>
+      <c r="AB54" s="311"/>
+      <c r="AC54" s="311"/>
+      <c r="AD54" s="312"/>
+      <c r="AE54" s="294"/>
+      <c r="AF54" s="295"/>
+      <c r="AG54" s="295"/>
+      <c r="AH54" s="295"/>
+      <c r="AI54" s="296"/>
+      <c r="AJ54" s="310"/>
+      <c r="AK54" s="311"/>
+      <c r="AL54" s="311"/>
+      <c r="AM54" s="312"/>
+      <c r="AN54" s="294"/>
+      <c r="AO54" s="295"/>
+      <c r="AP54" s="295"/>
+      <c r="AQ54" s="295"/>
+      <c r="AR54" s="296"/>
+      <c r="AS54" s="310"/>
+      <c r="AT54" s="311"/>
+      <c r="AU54" s="311"/>
+      <c r="AV54" s="312"/>
       <c r="AW54" s="157"/>
     </row>
     <row r="55" spans="1:49" ht="13.5" customHeight="1">
       <c r="A55" s="21"/>
-      <c r="B55" s="322"/>
-      <c r="C55" s="323"/>
-      <c r="D55" s="301"/>
-      <c r="E55" s="302"/>
-      <c r="F55" s="302"/>
-      <c r="G55" s="302"/>
-      <c r="H55" s="303"/>
-      <c r="I55" s="340"/>
-      <c r="J55" s="341"/>
-      <c r="K55" s="341"/>
-      <c r="L55" s="341"/>
-      <c r="M55" s="341"/>
-      <c r="N55" s="341"/>
-      <c r="O55" s="341"/>
-      <c r="P55" s="341"/>
-      <c r="Q55" s="341"/>
-      <c r="R55" s="341"/>
-      <c r="S55" s="341"/>
-      <c r="T55" s="341"/>
-      <c r="U55" s="341"/>
-      <c r="V55" s="341"/>
-      <c r="W55" s="341"/>
-      <c r="X55" s="341"/>
-      <c r="Y55" s="341"/>
-      <c r="Z55" s="342"/>
-      <c r="AA55" s="298"/>
-      <c r="AB55" s="299"/>
-      <c r="AC55" s="299"/>
-      <c r="AD55" s="300"/>
-      <c r="AE55" s="301"/>
-      <c r="AF55" s="302"/>
-      <c r="AG55" s="302"/>
-      <c r="AH55" s="302"/>
-      <c r="AI55" s="303"/>
-      <c r="AJ55" s="298"/>
-      <c r="AK55" s="299"/>
-      <c r="AL55" s="299"/>
-      <c r="AM55" s="300"/>
-      <c r="AN55" s="301"/>
-      <c r="AO55" s="302"/>
-      <c r="AP55" s="302"/>
-      <c r="AQ55" s="302"/>
-      <c r="AR55" s="303"/>
-      <c r="AS55" s="298"/>
-      <c r="AT55" s="299"/>
-      <c r="AU55" s="299"/>
-      <c r="AV55" s="300"/>
+      <c r="B55" s="308"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="297"/>
+      <c r="E55" s="298"/>
+      <c r="F55" s="298"/>
+      <c r="G55" s="298"/>
+      <c r="H55" s="299"/>
+      <c r="I55" s="303"/>
+      <c r="J55" s="304"/>
+      <c r="K55" s="304"/>
+      <c r="L55" s="304"/>
+      <c r="M55" s="304"/>
+      <c r="N55" s="304"/>
+      <c r="O55" s="304"/>
+      <c r="P55" s="304"/>
+      <c r="Q55" s="304"/>
+      <c r="R55" s="304"/>
+      <c r="S55" s="304"/>
+      <c r="T55" s="304"/>
+      <c r="U55" s="304"/>
+      <c r="V55" s="304"/>
+      <c r="W55" s="304"/>
+      <c r="X55" s="304"/>
+      <c r="Y55" s="304"/>
+      <c r="Z55" s="305"/>
+      <c r="AA55" s="300"/>
+      <c r="AB55" s="301"/>
+      <c r="AC55" s="301"/>
+      <c r="AD55" s="302"/>
+      <c r="AE55" s="297"/>
+      <c r="AF55" s="298"/>
+      <c r="AG55" s="298"/>
+      <c r="AH55" s="298"/>
+      <c r="AI55" s="299"/>
+      <c r="AJ55" s="300"/>
+      <c r="AK55" s="301"/>
+      <c r="AL55" s="301"/>
+      <c r="AM55" s="302"/>
+      <c r="AN55" s="297"/>
+      <c r="AO55" s="298"/>
+      <c r="AP55" s="298"/>
+      <c r="AQ55" s="298"/>
+      <c r="AR55" s="299"/>
+      <c r="AS55" s="300"/>
+      <c r="AT55" s="301"/>
+      <c r="AU55" s="301"/>
+      <c r="AV55" s="302"/>
       <c r="AW55" s="157"/>
     </row>
     <row r="56" spans="1:49" ht="13.5" customHeight="1">
       <c r="A56" s="21"/>
-      <c r="B56" s="322"/>
-      <c r="C56" s="323"/>
-      <c r="D56" s="301"/>
-      <c r="E56" s="302"/>
-      <c r="F56" s="302"/>
-      <c r="G56" s="302"/>
-      <c r="H56" s="303"/>
-      <c r="I56" s="340"/>
-      <c r="J56" s="341"/>
-      <c r="K56" s="341"/>
-      <c r="L56" s="341"/>
-      <c r="M56" s="341"/>
-      <c r="N56" s="341"/>
-      <c r="O56" s="341"/>
-      <c r="P56" s="341"/>
-      <c r="Q56" s="341"/>
-      <c r="R56" s="341"/>
-      <c r="S56" s="341"/>
-      <c r="T56" s="341"/>
-      <c r="U56" s="341"/>
-      <c r="V56" s="341"/>
-      <c r="W56" s="341"/>
-      <c r="X56" s="341"/>
-      <c r="Y56" s="341"/>
-      <c r="Z56" s="342"/>
-      <c r="AA56" s="298"/>
-      <c r="AB56" s="299"/>
-      <c r="AC56" s="299"/>
-      <c r="AD56" s="300"/>
-      <c r="AE56" s="301"/>
-      <c r="AF56" s="302"/>
-      <c r="AG56" s="302"/>
-      <c r="AH56" s="302"/>
-      <c r="AI56" s="303"/>
-      <c r="AJ56" s="298"/>
-      <c r="AK56" s="299"/>
-      <c r="AL56" s="299"/>
-      <c r="AM56" s="300"/>
-      <c r="AN56" s="301"/>
-      <c r="AO56" s="302"/>
-      <c r="AP56" s="302"/>
-      <c r="AQ56" s="302"/>
-      <c r="AR56" s="303"/>
-      <c r="AS56" s="298"/>
-      <c r="AT56" s="299"/>
-      <c r="AU56" s="299"/>
-      <c r="AV56" s="300"/>
+      <c r="B56" s="308"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="297"/>
+      <c r="E56" s="298"/>
+      <c r="F56" s="298"/>
+      <c r="G56" s="298"/>
+      <c r="H56" s="299"/>
+      <c r="I56" s="303"/>
+      <c r="J56" s="304"/>
+      <c r="K56" s="304"/>
+      <c r="L56" s="304"/>
+      <c r="M56" s="304"/>
+      <c r="N56" s="304"/>
+      <c r="O56" s="304"/>
+      <c r="P56" s="304"/>
+      <c r="Q56" s="304"/>
+      <c r="R56" s="304"/>
+      <c r="S56" s="304"/>
+      <c r="T56" s="304"/>
+      <c r="U56" s="304"/>
+      <c r="V56" s="304"/>
+      <c r="W56" s="304"/>
+      <c r="X56" s="304"/>
+      <c r="Y56" s="304"/>
+      <c r="Z56" s="305"/>
+      <c r="AA56" s="300"/>
+      <c r="AB56" s="301"/>
+      <c r="AC56" s="301"/>
+      <c r="AD56" s="302"/>
+      <c r="AE56" s="297"/>
+      <c r="AF56" s="298"/>
+      <c r="AG56" s="298"/>
+      <c r="AH56" s="298"/>
+      <c r="AI56" s="299"/>
+      <c r="AJ56" s="300"/>
+      <c r="AK56" s="301"/>
+      <c r="AL56" s="301"/>
+      <c r="AM56" s="302"/>
+      <c r="AN56" s="297"/>
+      <c r="AO56" s="298"/>
+      <c r="AP56" s="298"/>
+      <c r="AQ56" s="298"/>
+      <c r="AR56" s="299"/>
+      <c r="AS56" s="300"/>
+      <c r="AT56" s="301"/>
+      <c r="AU56" s="301"/>
+      <c r="AV56" s="302"/>
       <c r="AW56" s="157"/>
     </row>
     <row r="57" spans="1:49" ht="13.5" customHeight="1">
       <c r="A57" s="21"/>
-      <c r="B57" s="322"/>
-      <c r="C57" s="323"/>
-      <c r="D57" s="301"/>
-      <c r="E57" s="302"/>
-      <c r="F57" s="302"/>
-      <c r="G57" s="302"/>
-      <c r="H57" s="303"/>
-      <c r="I57" s="340"/>
-      <c r="J57" s="341"/>
-      <c r="K57" s="341"/>
-      <c r="L57" s="341"/>
-      <c r="M57" s="341"/>
-      <c r="N57" s="341"/>
-      <c r="O57" s="341"/>
-      <c r="P57" s="341"/>
-      <c r="Q57" s="341"/>
-      <c r="R57" s="341"/>
-      <c r="S57" s="341"/>
-      <c r="T57" s="341"/>
-      <c r="U57" s="341"/>
-      <c r="V57" s="341"/>
-      <c r="W57" s="341"/>
-      <c r="X57" s="341"/>
-      <c r="Y57" s="341"/>
-      <c r="Z57" s="342"/>
-      <c r="AA57" s="298"/>
-      <c r="AB57" s="299"/>
-      <c r="AC57" s="299"/>
-      <c r="AD57" s="300"/>
-      <c r="AE57" s="301"/>
-      <c r="AF57" s="302"/>
-      <c r="AG57" s="302"/>
-      <c r="AH57" s="302"/>
-      <c r="AI57" s="303"/>
-      <c r="AJ57" s="298"/>
-      <c r="AK57" s="299"/>
-      <c r="AL57" s="299"/>
-      <c r="AM57" s="300"/>
-      <c r="AN57" s="301"/>
-      <c r="AO57" s="302"/>
-      <c r="AP57" s="302"/>
-      <c r="AQ57" s="302"/>
-      <c r="AR57" s="303"/>
-      <c r="AS57" s="298"/>
-      <c r="AT57" s="299"/>
-      <c r="AU57" s="299"/>
-      <c r="AV57" s="300"/>
+      <c r="B57" s="308"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="297"/>
+      <c r="E57" s="298"/>
+      <c r="F57" s="298"/>
+      <c r="G57" s="298"/>
+      <c r="H57" s="299"/>
+      <c r="I57" s="303"/>
+      <c r="J57" s="304"/>
+      <c r="K57" s="304"/>
+      <c r="L57" s="304"/>
+      <c r="M57" s="304"/>
+      <c r="N57" s="304"/>
+      <c r="O57" s="304"/>
+      <c r="P57" s="304"/>
+      <c r="Q57" s="304"/>
+      <c r="R57" s="304"/>
+      <c r="S57" s="304"/>
+      <c r="T57" s="304"/>
+      <c r="U57" s="304"/>
+      <c r="V57" s="304"/>
+      <c r="W57" s="304"/>
+      <c r="X57" s="304"/>
+      <c r="Y57" s="304"/>
+      <c r="Z57" s="305"/>
+      <c r="AA57" s="300"/>
+      <c r="AB57" s="301"/>
+      <c r="AC57" s="301"/>
+      <c r="AD57" s="302"/>
+      <c r="AE57" s="297"/>
+      <c r="AF57" s="298"/>
+      <c r="AG57" s="298"/>
+      <c r="AH57" s="298"/>
+      <c r="AI57" s="299"/>
+      <c r="AJ57" s="300"/>
+      <c r="AK57" s="301"/>
+      <c r="AL57" s="301"/>
+      <c r="AM57" s="302"/>
+      <c r="AN57" s="297"/>
+      <c r="AO57" s="298"/>
+      <c r="AP57" s="298"/>
+      <c r="AQ57" s="298"/>
+      <c r="AR57" s="299"/>
+      <c r="AS57" s="300"/>
+      <c r="AT57" s="301"/>
+      <c r="AU57" s="301"/>
+      <c r="AV57" s="302"/>
       <c r="AW57" s="157"/>
     </row>
     <row r="58" spans="1:49" ht="13.5" customHeight="1">
       <c r="A58" s="21"/>
-      <c r="B58" s="322"/>
-      <c r="C58" s="323"/>
-      <c r="D58" s="301"/>
-      <c r="E58" s="302"/>
-      <c r="F58" s="302"/>
-      <c r="G58" s="302"/>
-      <c r="H58" s="303"/>
-      <c r="I58" s="340"/>
-      <c r="J58" s="341"/>
-      <c r="K58" s="341"/>
-      <c r="L58" s="341"/>
-      <c r="M58" s="341"/>
-      <c r="N58" s="341"/>
-      <c r="O58" s="341"/>
-      <c r="P58" s="341"/>
-      <c r="Q58" s="341"/>
-      <c r="R58" s="341"/>
-      <c r="S58" s="341"/>
-      <c r="T58" s="341"/>
-      <c r="U58" s="341"/>
-      <c r="V58" s="341"/>
-      <c r="W58" s="341"/>
-      <c r="X58" s="341"/>
-      <c r="Y58" s="341"/>
-      <c r="Z58" s="342"/>
-      <c r="AA58" s="298"/>
-      <c r="AB58" s="299"/>
-      <c r="AC58" s="299"/>
-      <c r="AD58" s="300"/>
-      <c r="AE58" s="301"/>
-      <c r="AF58" s="302"/>
-      <c r="AG58" s="302"/>
-      <c r="AH58" s="302"/>
-      <c r="AI58" s="303"/>
-      <c r="AJ58" s="298"/>
-      <c r="AK58" s="299"/>
-      <c r="AL58" s="299"/>
-      <c r="AM58" s="300"/>
-      <c r="AN58" s="301"/>
-      <c r="AO58" s="302"/>
-      <c r="AP58" s="302"/>
-      <c r="AQ58" s="302"/>
-      <c r="AR58" s="303"/>
-      <c r="AS58" s="298"/>
-      <c r="AT58" s="299"/>
-      <c r="AU58" s="299"/>
-      <c r="AV58" s="300"/>
+      <c r="B58" s="308"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="297"/>
+      <c r="E58" s="298"/>
+      <c r="F58" s="298"/>
+      <c r="G58" s="298"/>
+      <c r="H58" s="299"/>
+      <c r="I58" s="303"/>
+      <c r="J58" s="304"/>
+      <c r="K58" s="304"/>
+      <c r="L58" s="304"/>
+      <c r="M58" s="304"/>
+      <c r="N58" s="304"/>
+      <c r="O58" s="304"/>
+      <c r="P58" s="304"/>
+      <c r="Q58" s="304"/>
+      <c r="R58" s="304"/>
+      <c r="S58" s="304"/>
+      <c r="T58" s="304"/>
+      <c r="U58" s="304"/>
+      <c r="V58" s="304"/>
+      <c r="W58" s="304"/>
+      <c r="X58" s="304"/>
+      <c r="Y58" s="304"/>
+      <c r="Z58" s="305"/>
+      <c r="AA58" s="300"/>
+      <c r="AB58" s="301"/>
+      <c r="AC58" s="301"/>
+      <c r="AD58" s="302"/>
+      <c r="AE58" s="297"/>
+      <c r="AF58" s="298"/>
+      <c r="AG58" s="298"/>
+      <c r="AH58" s="298"/>
+      <c r="AI58" s="299"/>
+      <c r="AJ58" s="300"/>
+      <c r="AK58" s="301"/>
+      <c r="AL58" s="301"/>
+      <c r="AM58" s="302"/>
+      <c r="AN58" s="297"/>
+      <c r="AO58" s="298"/>
+      <c r="AP58" s="298"/>
+      <c r="AQ58" s="298"/>
+      <c r="AR58" s="299"/>
+      <c r="AS58" s="300"/>
+      <c r="AT58" s="301"/>
+      <c r="AU58" s="301"/>
+      <c r="AV58" s="302"/>
       <c r="AW58" s="157"/>
     </row>
     <row r="59" spans="1:49" ht="13.5" customHeight="1">
       <c r="A59" s="21"/>
-      <c r="B59" s="227"/>
-      <c r="C59" s="228"/>
-      <c r="D59" s="215"/>
-      <c r="E59" s="216"/>
-      <c r="F59" s="216"/>
-      <c r="G59" s="216"/>
-      <c r="H59" s="217"/>
-      <c r="I59" s="229"/>
-      <c r="J59" s="230"/>
-      <c r="K59" s="230"/>
-      <c r="L59" s="230"/>
-      <c r="M59" s="230"/>
-      <c r="N59" s="230"/>
-      <c r="O59" s="230"/>
-      <c r="P59" s="230"/>
-      <c r="Q59" s="230"/>
-      <c r="R59" s="230"/>
-      <c r="S59" s="230"/>
-      <c r="T59" s="230"/>
-      <c r="U59" s="230"/>
-      <c r="V59" s="230"/>
-      <c r="W59" s="230"/>
-      <c r="X59" s="230"/>
-      <c r="Y59" s="230"/>
-      <c r="Z59" s="231"/>
-      <c r="AA59" s="221"/>
-      <c r="AB59" s="222"/>
-      <c r="AC59" s="222"/>
-      <c r="AD59" s="223"/>
-      <c r="AE59" s="215"/>
-      <c r="AF59" s="216"/>
-      <c r="AG59" s="216"/>
-      <c r="AH59" s="216"/>
-      <c r="AI59" s="217"/>
-      <c r="AJ59" s="221"/>
-      <c r="AK59" s="222"/>
-      <c r="AL59" s="222"/>
-      <c r="AM59" s="223"/>
-      <c r="AN59" s="215"/>
-      <c r="AO59" s="216"/>
-      <c r="AP59" s="216"/>
-      <c r="AQ59" s="216"/>
-      <c r="AR59" s="217"/>
-      <c r="AS59" s="221"/>
-      <c r="AT59" s="222"/>
-      <c r="AU59" s="222"/>
-      <c r="AV59" s="223"/>
+      <c r="B59" s="306"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="294"/>
+      <c r="E59" s="295"/>
+      <c r="F59" s="295"/>
+      <c r="G59" s="295"/>
+      <c r="H59" s="296"/>
+      <c r="I59" s="325"/>
+      <c r="J59" s="326"/>
+      <c r="K59" s="326"/>
+      <c r="L59" s="326"/>
+      <c r="M59" s="326"/>
+      <c r="N59" s="326"/>
+      <c r="O59" s="326"/>
+      <c r="P59" s="326"/>
+      <c r="Q59" s="326"/>
+      <c r="R59" s="326"/>
+      <c r="S59" s="326"/>
+      <c r="T59" s="326"/>
+      <c r="U59" s="326"/>
+      <c r="V59" s="326"/>
+      <c r="W59" s="326"/>
+      <c r="X59" s="326"/>
+      <c r="Y59" s="326"/>
+      <c r="Z59" s="327"/>
+      <c r="AA59" s="310"/>
+      <c r="AB59" s="311"/>
+      <c r="AC59" s="311"/>
+      <c r="AD59" s="312"/>
+      <c r="AE59" s="294"/>
+      <c r="AF59" s="295"/>
+      <c r="AG59" s="295"/>
+      <c r="AH59" s="295"/>
+      <c r="AI59" s="296"/>
+      <c r="AJ59" s="310"/>
+      <c r="AK59" s="311"/>
+      <c r="AL59" s="311"/>
+      <c r="AM59" s="312"/>
+      <c r="AN59" s="294"/>
+      <c r="AO59" s="295"/>
+      <c r="AP59" s="295"/>
+      <c r="AQ59" s="295"/>
+      <c r="AR59" s="296"/>
+      <c r="AS59" s="310"/>
+      <c r="AT59" s="311"/>
+      <c r="AU59" s="311"/>
+      <c r="AV59" s="312"/>
       <c r="AW59" s="157"/>
     </row>
     <row r="60" spans="1:49" ht="13.5" customHeight="1">
       <c r="A60" s="21"/>
-      <c r="B60" s="227"/>
-      <c r="C60" s="228"/>
-      <c r="D60" s="215"/>
-      <c r="E60" s="216"/>
-      <c r="F60" s="216"/>
-      <c r="G60" s="216"/>
-      <c r="H60" s="217"/>
-      <c r="I60" s="229"/>
-      <c r="J60" s="230"/>
-      <c r="K60" s="230"/>
-      <c r="L60" s="230"/>
-      <c r="M60" s="230"/>
-      <c r="N60" s="230"/>
-      <c r="O60" s="230"/>
-      <c r="P60" s="230"/>
-      <c r="Q60" s="230"/>
-      <c r="R60" s="230"/>
-      <c r="S60" s="230"/>
-      <c r="T60" s="230"/>
-      <c r="U60" s="230"/>
-      <c r="V60" s="230"/>
-      <c r="W60" s="230"/>
-      <c r="X60" s="230"/>
-      <c r="Y60" s="230"/>
-      <c r="Z60" s="231"/>
-      <c r="AA60" s="221"/>
-      <c r="AB60" s="222"/>
-      <c r="AC60" s="222"/>
-      <c r="AD60" s="223"/>
-      <c r="AE60" s="215"/>
-      <c r="AF60" s="216"/>
-      <c r="AG60" s="216"/>
-      <c r="AH60" s="216"/>
-      <c r="AI60" s="217"/>
-      <c r="AJ60" s="221"/>
-      <c r="AK60" s="222"/>
-      <c r="AL60" s="222"/>
-      <c r="AM60" s="223"/>
-      <c r="AN60" s="215"/>
-      <c r="AO60" s="216"/>
-      <c r="AP60" s="216"/>
-      <c r="AQ60" s="216"/>
-      <c r="AR60" s="217"/>
-      <c r="AS60" s="221"/>
-      <c r="AT60" s="222"/>
-      <c r="AU60" s="222"/>
-      <c r="AV60" s="223"/>
+      <c r="B60" s="306"/>
+      <c r="C60" s="307"/>
+      <c r="D60" s="294"/>
+      <c r="E60" s="295"/>
+      <c r="F60" s="295"/>
+      <c r="G60" s="295"/>
+      <c r="H60" s="296"/>
+      <c r="I60" s="325"/>
+      <c r="J60" s="326"/>
+      <c r="K60" s="326"/>
+      <c r="L60" s="326"/>
+      <c r="M60" s="326"/>
+      <c r="N60" s="326"/>
+      <c r="O60" s="326"/>
+      <c r="P60" s="326"/>
+      <c r="Q60" s="326"/>
+      <c r="R60" s="326"/>
+      <c r="S60" s="326"/>
+      <c r="T60" s="326"/>
+      <c r="U60" s="326"/>
+      <c r="V60" s="326"/>
+      <c r="W60" s="326"/>
+      <c r="X60" s="326"/>
+      <c r="Y60" s="326"/>
+      <c r="Z60" s="327"/>
+      <c r="AA60" s="310"/>
+      <c r="AB60" s="311"/>
+      <c r="AC60" s="311"/>
+      <c r="AD60" s="312"/>
+      <c r="AE60" s="294"/>
+      <c r="AF60" s="295"/>
+      <c r="AG60" s="295"/>
+      <c r="AH60" s="295"/>
+      <c r="AI60" s="296"/>
+      <c r="AJ60" s="310"/>
+      <c r="AK60" s="311"/>
+      <c r="AL60" s="311"/>
+      <c r="AM60" s="312"/>
+      <c r="AN60" s="294"/>
+      <c r="AO60" s="295"/>
+      <c r="AP60" s="295"/>
+      <c r="AQ60" s="295"/>
+      <c r="AR60" s="296"/>
+      <c r="AS60" s="310"/>
+      <c r="AT60" s="311"/>
+      <c r="AU60" s="311"/>
+      <c r="AV60" s="312"/>
       <c r="AW60" s="157"/>
     </row>
     <row r="61" spans="1:49" ht="13.5" customHeight="1">
       <c r="A61" s="21"/>
-      <c r="B61" s="227"/>
-      <c r="C61" s="228"/>
-      <c r="D61" s="215"/>
-      <c r="E61" s="216"/>
-      <c r="F61" s="216"/>
-      <c r="G61" s="216"/>
-      <c r="H61" s="217"/>
-      <c r="I61" s="229"/>
-      <c r="J61" s="230"/>
-      <c r="K61" s="230"/>
-      <c r="L61" s="230"/>
-      <c r="M61" s="230"/>
-      <c r="N61" s="230"/>
-      <c r="O61" s="230"/>
-      <c r="P61" s="230"/>
-      <c r="Q61" s="230"/>
-      <c r="R61" s="230"/>
-      <c r="S61" s="230"/>
-      <c r="T61" s="230"/>
-      <c r="U61" s="230"/>
-      <c r="V61" s="230"/>
-      <c r="W61" s="230"/>
-      <c r="X61" s="230"/>
-      <c r="Y61" s="230"/>
-      <c r="Z61" s="231"/>
-      <c r="AA61" s="221"/>
-      <c r="AB61" s="222"/>
-      <c r="AC61" s="222"/>
-      <c r="AD61" s="223"/>
-      <c r="AE61" s="215"/>
-      <c r="AF61" s="216"/>
-      <c r="AG61" s="216"/>
-      <c r="AH61" s="216"/>
-      <c r="AI61" s="217"/>
-      <c r="AJ61" s="221"/>
-      <c r="AK61" s="222"/>
-      <c r="AL61" s="222"/>
-      <c r="AM61" s="223"/>
-      <c r="AN61" s="215"/>
-      <c r="AO61" s="216"/>
-      <c r="AP61" s="216"/>
-      <c r="AQ61" s="216"/>
-      <c r="AR61" s="217"/>
-      <c r="AS61" s="221"/>
-      <c r="AT61" s="222"/>
-      <c r="AU61" s="222"/>
-      <c r="AV61" s="223"/>
+      <c r="B61" s="306"/>
+      <c r="C61" s="307"/>
+      <c r="D61" s="294"/>
+      <c r="E61" s="295"/>
+      <c r="F61" s="295"/>
+      <c r="G61" s="295"/>
+      <c r="H61" s="296"/>
+      <c r="I61" s="325"/>
+      <c r="J61" s="326"/>
+      <c r="K61" s="326"/>
+      <c r="L61" s="326"/>
+      <c r="M61" s="326"/>
+      <c r="N61" s="326"/>
+      <c r="O61" s="326"/>
+      <c r="P61" s="326"/>
+      <c r="Q61" s="326"/>
+      <c r="R61" s="326"/>
+      <c r="S61" s="326"/>
+      <c r="T61" s="326"/>
+      <c r="U61" s="326"/>
+      <c r="V61" s="326"/>
+      <c r="W61" s="326"/>
+      <c r="X61" s="326"/>
+      <c r="Y61" s="326"/>
+      <c r="Z61" s="327"/>
+      <c r="AA61" s="310"/>
+      <c r="AB61" s="311"/>
+      <c r="AC61" s="311"/>
+      <c r="AD61" s="312"/>
+      <c r="AE61" s="294"/>
+      <c r="AF61" s="295"/>
+      <c r="AG61" s="295"/>
+      <c r="AH61" s="295"/>
+      <c r="AI61" s="296"/>
+      <c r="AJ61" s="310"/>
+      <c r="AK61" s="311"/>
+      <c r="AL61" s="311"/>
+      <c r="AM61" s="312"/>
+      <c r="AN61" s="294"/>
+      <c r="AO61" s="295"/>
+      <c r="AP61" s="295"/>
+      <c r="AQ61" s="295"/>
+      <c r="AR61" s="296"/>
+      <c r="AS61" s="310"/>
+      <c r="AT61" s="311"/>
+      <c r="AU61" s="311"/>
+      <c r="AV61" s="312"/>
       <c r="AW61" s="157"/>
     </row>
     <row r="62" spans="1:49" ht="13.5" customHeight="1">
       <c r="A62" s="21"/>
-      <c r="B62" s="227"/>
-      <c r="C62" s="228"/>
-      <c r="D62" s="215"/>
-      <c r="E62" s="216"/>
-      <c r="F62" s="216"/>
-      <c r="G62" s="216"/>
-      <c r="H62" s="217"/>
-      <c r="I62" s="229"/>
-      <c r="J62" s="230"/>
-      <c r="K62" s="230"/>
-      <c r="L62" s="230"/>
-      <c r="M62" s="230"/>
-      <c r="N62" s="230"/>
-      <c r="O62" s="230"/>
-      <c r="P62" s="230"/>
-      <c r="Q62" s="230"/>
-      <c r="R62" s="230"/>
-      <c r="S62" s="230"/>
-      <c r="T62" s="230"/>
-      <c r="U62" s="230"/>
-      <c r="V62" s="230"/>
-      <c r="W62" s="230"/>
-      <c r="X62" s="230"/>
-      <c r="Y62" s="230"/>
-      <c r="Z62" s="231"/>
-      <c r="AA62" s="221"/>
-      <c r="AB62" s="222"/>
-      <c r="AC62" s="222"/>
-      <c r="AD62" s="223"/>
-      <c r="AE62" s="215"/>
-      <c r="AF62" s="216"/>
-      <c r="AG62" s="216"/>
-      <c r="AH62" s="216"/>
-      <c r="AI62" s="217"/>
-      <c r="AJ62" s="221"/>
-      <c r="AK62" s="222"/>
-      <c r="AL62" s="222"/>
-      <c r="AM62" s="223"/>
-      <c r="AN62" s="215"/>
-      <c r="AO62" s="216"/>
-      <c r="AP62" s="216"/>
-      <c r="AQ62" s="216"/>
-      <c r="AR62" s="217"/>
-      <c r="AS62" s="221"/>
-      <c r="AT62" s="222"/>
-      <c r="AU62" s="222"/>
-      <c r="AV62" s="223"/>
+      <c r="B62" s="306"/>
+      <c r="C62" s="307"/>
+      <c r="D62" s="294"/>
+      <c r="E62" s="295"/>
+      <c r="F62" s="295"/>
+      <c r="G62" s="295"/>
+      <c r="H62" s="296"/>
+      <c r="I62" s="325"/>
+      <c r="J62" s="326"/>
+      <c r="K62" s="326"/>
+      <c r="L62" s="326"/>
+      <c r="M62" s="326"/>
+      <c r="N62" s="326"/>
+      <c r="O62" s="326"/>
+      <c r="P62" s="326"/>
+      <c r="Q62" s="326"/>
+      <c r="R62" s="326"/>
+      <c r="S62" s="326"/>
+      <c r="T62" s="326"/>
+      <c r="U62" s="326"/>
+      <c r="V62" s="326"/>
+      <c r="W62" s="326"/>
+      <c r="X62" s="326"/>
+      <c r="Y62" s="326"/>
+      <c r="Z62" s="327"/>
+      <c r="AA62" s="310"/>
+      <c r="AB62" s="311"/>
+      <c r="AC62" s="311"/>
+      <c r="AD62" s="312"/>
+      <c r="AE62" s="294"/>
+      <c r="AF62" s="295"/>
+      <c r="AG62" s="295"/>
+      <c r="AH62" s="295"/>
+      <c r="AI62" s="296"/>
+      <c r="AJ62" s="310"/>
+      <c r="AK62" s="311"/>
+      <c r="AL62" s="311"/>
+      <c r="AM62" s="312"/>
+      <c r="AN62" s="294"/>
+      <c r="AO62" s="295"/>
+      <c r="AP62" s="295"/>
+      <c r="AQ62" s="295"/>
+      <c r="AR62" s="296"/>
+      <c r="AS62" s="310"/>
+      <c r="AT62" s="311"/>
+      <c r="AU62" s="311"/>
+      <c r="AV62" s="312"/>
       <c r="AW62" s="157"/>
     </row>
     <row r="63" spans="1:49" ht="13.5" customHeight="1">
       <c r="A63" s="21"/>
-      <c r="B63" s="227"/>
-      <c r="C63" s="228"/>
-      <c r="D63" s="215"/>
-      <c r="E63" s="216"/>
-      <c r="F63" s="216"/>
-      <c r="G63" s="216"/>
-      <c r="H63" s="217"/>
-      <c r="I63" s="229"/>
-      <c r="J63" s="230"/>
-      <c r="K63" s="230"/>
-      <c r="L63" s="230"/>
-      <c r="M63" s="230"/>
-      <c r="N63" s="230"/>
-      <c r="O63" s="230"/>
-      <c r="P63" s="230"/>
-      <c r="Q63" s="230"/>
-      <c r="R63" s="230"/>
-      <c r="S63" s="230"/>
-      <c r="T63" s="230"/>
-      <c r="U63" s="230"/>
-      <c r="V63" s="230"/>
-      <c r="W63" s="230"/>
-      <c r="X63" s="230"/>
-      <c r="Y63" s="230"/>
-      <c r="Z63" s="231"/>
-      <c r="AA63" s="221"/>
-      <c r="AB63" s="222"/>
-      <c r="AC63" s="222"/>
-      <c r="AD63" s="223"/>
-      <c r="AE63" s="215"/>
-      <c r="AF63" s="216"/>
-      <c r="AG63" s="216"/>
-      <c r="AH63" s="216"/>
-      <c r="AI63" s="217"/>
-      <c r="AJ63" s="221"/>
-      <c r="AK63" s="222"/>
-      <c r="AL63" s="222"/>
-      <c r="AM63" s="223"/>
-      <c r="AN63" s="215"/>
-      <c r="AO63" s="216"/>
-      <c r="AP63" s="216"/>
-      <c r="AQ63" s="216"/>
-      <c r="AR63" s="217"/>
-      <c r="AS63" s="221"/>
-      <c r="AT63" s="222"/>
-      <c r="AU63" s="222"/>
-      <c r="AV63" s="223"/>
+      <c r="B63" s="306"/>
+      <c r="C63" s="307"/>
+      <c r="D63" s="294"/>
+      <c r="E63" s="295"/>
+      <c r="F63" s="295"/>
+      <c r="G63" s="295"/>
+      <c r="H63" s="296"/>
+      <c r="I63" s="325"/>
+      <c r="J63" s="326"/>
+      <c r="K63" s="326"/>
+      <c r="L63" s="326"/>
+      <c r="M63" s="326"/>
+      <c r="N63" s="326"/>
+      <c r="O63" s="326"/>
+      <c r="P63" s="326"/>
+      <c r="Q63" s="326"/>
+      <c r="R63" s="326"/>
+      <c r="S63" s="326"/>
+      <c r="T63" s="326"/>
+      <c r="U63" s="326"/>
+      <c r="V63" s="326"/>
+      <c r="W63" s="326"/>
+      <c r="X63" s="326"/>
+      <c r="Y63" s="326"/>
+      <c r="Z63" s="327"/>
+      <c r="AA63" s="310"/>
+      <c r="AB63" s="311"/>
+      <c r="AC63" s="311"/>
+      <c r="AD63" s="312"/>
+      <c r="AE63" s="294"/>
+      <c r="AF63" s="295"/>
+      <c r="AG63" s="295"/>
+      <c r="AH63" s="295"/>
+      <c r="AI63" s="296"/>
+      <c r="AJ63" s="310"/>
+      <c r="AK63" s="311"/>
+      <c r="AL63" s="311"/>
+      <c r="AM63" s="312"/>
+      <c r="AN63" s="294"/>
+      <c r="AO63" s="295"/>
+      <c r="AP63" s="295"/>
+      <c r="AQ63" s="295"/>
+      <c r="AR63" s="296"/>
+      <c r="AS63" s="310"/>
+      <c r="AT63" s="311"/>
+      <c r="AU63" s="311"/>
+      <c r="AV63" s="312"/>
       <c r="AW63" s="157"/>
     </row>
     <row r="64" spans="1:49" ht="13.5" customHeight="1">
       <c r="A64" s="21"/>
-      <c r="B64" s="227"/>
-      <c r="C64" s="228"/>
-      <c r="D64" s="215"/>
-      <c r="E64" s="216"/>
-      <c r="F64" s="216"/>
-      <c r="G64" s="216"/>
-      <c r="H64" s="217"/>
-      <c r="I64" s="229"/>
-      <c r="J64" s="230"/>
-      <c r="K64" s="230"/>
-      <c r="L64" s="230"/>
-      <c r="M64" s="230"/>
-      <c r="N64" s="230"/>
-      <c r="O64" s="230"/>
-      <c r="P64" s="230"/>
-      <c r="Q64" s="230"/>
-      <c r="R64" s="230"/>
-      <c r="S64" s="230"/>
-      <c r="T64" s="230"/>
-      <c r="U64" s="230"/>
-      <c r="V64" s="230"/>
-      <c r="W64" s="230"/>
-      <c r="X64" s="230"/>
-      <c r="Y64" s="230"/>
-      <c r="Z64" s="231"/>
-      <c r="AA64" s="221"/>
-      <c r="AB64" s="222"/>
-      <c r="AC64" s="222"/>
-      <c r="AD64" s="223"/>
-      <c r="AE64" s="215"/>
-      <c r="AF64" s="216"/>
-      <c r="AG64" s="216"/>
-      <c r="AH64" s="216"/>
-      <c r="AI64" s="217"/>
-      <c r="AJ64" s="221"/>
-      <c r="AK64" s="222"/>
-      <c r="AL64" s="222"/>
-      <c r="AM64" s="223"/>
-      <c r="AN64" s="215"/>
-      <c r="AO64" s="216"/>
-      <c r="AP64" s="216"/>
-      <c r="AQ64" s="216"/>
-      <c r="AR64" s="217"/>
-      <c r="AS64" s="221"/>
-      <c r="AT64" s="222"/>
-      <c r="AU64" s="222"/>
-      <c r="AV64" s="223"/>
+      <c r="B64" s="306"/>
+      <c r="C64" s="307"/>
+      <c r="D64" s="294"/>
+      <c r="E64" s="295"/>
+      <c r="F64" s="295"/>
+      <c r="G64" s="295"/>
+      <c r="H64" s="296"/>
+      <c r="I64" s="325"/>
+      <c r="J64" s="326"/>
+      <c r="K64" s="326"/>
+      <c r="L64" s="326"/>
+      <c r="M64" s="326"/>
+      <c r="N64" s="326"/>
+      <c r="O64" s="326"/>
+      <c r="P64" s="326"/>
+      <c r="Q64" s="326"/>
+      <c r="R64" s="326"/>
+      <c r="S64" s="326"/>
+      <c r="T64" s="326"/>
+      <c r="U64" s="326"/>
+      <c r="V64" s="326"/>
+      <c r="W64" s="326"/>
+      <c r="X64" s="326"/>
+      <c r="Y64" s="326"/>
+      <c r="Z64" s="327"/>
+      <c r="AA64" s="310"/>
+      <c r="AB64" s="311"/>
+      <c r="AC64" s="311"/>
+      <c r="AD64" s="312"/>
+      <c r="AE64" s="294"/>
+      <c r="AF64" s="295"/>
+      <c r="AG64" s="295"/>
+      <c r="AH64" s="295"/>
+      <c r="AI64" s="296"/>
+      <c r="AJ64" s="310"/>
+      <c r="AK64" s="311"/>
+      <c r="AL64" s="311"/>
+      <c r="AM64" s="312"/>
+      <c r="AN64" s="294"/>
+      <c r="AO64" s="295"/>
+      <c r="AP64" s="295"/>
+      <c r="AQ64" s="295"/>
+      <c r="AR64" s="296"/>
+      <c r="AS64" s="310"/>
+      <c r="AT64" s="311"/>
+      <c r="AU64" s="311"/>
+      <c r="AV64" s="312"/>
       <c r="AW64" s="157"/>
     </row>
     <row r="65" spans="1:49" ht="13.5" customHeight="1">
       <c r="A65" s="21"/>
-      <c r="B65" s="227"/>
-      <c r="C65" s="228"/>
-      <c r="D65" s="215"/>
-      <c r="E65" s="216"/>
-      <c r="F65" s="216"/>
-      <c r="G65" s="216"/>
-      <c r="H65" s="217"/>
-      <c r="I65" s="229"/>
-      <c r="J65" s="230"/>
-      <c r="K65" s="230"/>
-      <c r="L65" s="230"/>
-      <c r="M65" s="230"/>
-      <c r="N65" s="230"/>
-      <c r="O65" s="230"/>
-      <c r="P65" s="230"/>
-      <c r="Q65" s="230"/>
-      <c r="R65" s="230"/>
-      <c r="S65" s="230"/>
-      <c r="T65" s="230"/>
-      <c r="U65" s="230"/>
-      <c r="V65" s="230"/>
-      <c r="W65" s="230"/>
-      <c r="X65" s="230"/>
-      <c r="Y65" s="230"/>
-      <c r="Z65" s="231"/>
-      <c r="AA65" s="221"/>
-      <c r="AB65" s="222"/>
-      <c r="AC65" s="222"/>
-      <c r="AD65" s="223"/>
-      <c r="AE65" s="215"/>
-      <c r="AF65" s="216"/>
-      <c r="AG65" s="216"/>
-      <c r="AH65" s="216"/>
-      <c r="AI65" s="217"/>
-      <c r="AJ65" s="221"/>
-      <c r="AK65" s="222"/>
-      <c r="AL65" s="222"/>
-      <c r="AM65" s="223"/>
-      <c r="AN65" s="215"/>
-      <c r="AO65" s="216"/>
-      <c r="AP65" s="216"/>
-      <c r="AQ65" s="216"/>
-      <c r="AR65" s="217"/>
-      <c r="AS65" s="221"/>
-      <c r="AT65" s="222"/>
-      <c r="AU65" s="222"/>
-      <c r="AV65" s="223"/>
+      <c r="B65" s="306"/>
+      <c r="C65" s="307"/>
+      <c r="D65" s="294"/>
+      <c r="E65" s="295"/>
+      <c r="F65" s="295"/>
+      <c r="G65" s="295"/>
+      <c r="H65" s="296"/>
+      <c r="I65" s="325"/>
+      <c r="J65" s="326"/>
+      <c r="K65" s="326"/>
+      <c r="L65" s="326"/>
+      <c r="M65" s="326"/>
+      <c r="N65" s="326"/>
+      <c r="O65" s="326"/>
+      <c r="P65" s="326"/>
+      <c r="Q65" s="326"/>
+      <c r="R65" s="326"/>
+      <c r="S65" s="326"/>
+      <c r="T65" s="326"/>
+      <c r="U65" s="326"/>
+      <c r="V65" s="326"/>
+      <c r="W65" s="326"/>
+      <c r="X65" s="326"/>
+      <c r="Y65" s="326"/>
+      <c r="Z65" s="327"/>
+      <c r="AA65" s="310"/>
+      <c r="AB65" s="311"/>
+      <c r="AC65" s="311"/>
+      <c r="AD65" s="312"/>
+      <c r="AE65" s="294"/>
+      <c r="AF65" s="295"/>
+      <c r="AG65" s="295"/>
+      <c r="AH65" s="295"/>
+      <c r="AI65" s="296"/>
+      <c r="AJ65" s="310"/>
+      <c r="AK65" s="311"/>
+      <c r="AL65" s="311"/>
+      <c r="AM65" s="312"/>
+      <c r="AN65" s="294"/>
+      <c r="AO65" s="295"/>
+      <c r="AP65" s="295"/>
+      <c r="AQ65" s="295"/>
+      <c r="AR65" s="296"/>
+      <c r="AS65" s="310"/>
+      <c r="AT65" s="311"/>
+      <c r="AU65" s="311"/>
+      <c r="AV65" s="312"/>
       <c r="AW65" s="157"/>
     </row>
     <row r="66" spans="1:49" ht="13.5" customHeight="1">
       <c r="A66" s="21"/>
-      <c r="B66" s="227"/>
-      <c r="C66" s="228"/>
-      <c r="D66" s="215"/>
-      <c r="E66" s="216"/>
-      <c r="F66" s="216"/>
-      <c r="G66" s="216"/>
-      <c r="H66" s="217"/>
-      <c r="I66" s="229"/>
-      <c r="J66" s="230"/>
-      <c r="K66" s="230"/>
-      <c r="L66" s="230"/>
-      <c r="M66" s="230"/>
-      <c r="N66" s="230"/>
-      <c r="O66" s="230"/>
-      <c r="P66" s="230"/>
-      <c r="Q66" s="230"/>
-      <c r="R66" s="230"/>
-      <c r="S66" s="230"/>
-      <c r="T66" s="230"/>
-      <c r="U66" s="230"/>
-      <c r="V66" s="230"/>
-      <c r="W66" s="230"/>
-      <c r="X66" s="230"/>
-      <c r="Y66" s="230"/>
-      <c r="Z66" s="231"/>
-      <c r="AA66" s="221"/>
-      <c r="AB66" s="222"/>
-      <c r="AC66" s="222"/>
-      <c r="AD66" s="223"/>
-      <c r="AE66" s="215"/>
-      <c r="AF66" s="216"/>
-      <c r="AG66" s="216"/>
-      <c r="AH66" s="216"/>
-      <c r="AI66" s="217"/>
-      <c r="AJ66" s="221"/>
-      <c r="AK66" s="222"/>
-      <c r="AL66" s="222"/>
-      <c r="AM66" s="223"/>
-      <c r="AN66" s="215"/>
-      <c r="AO66" s="216"/>
-      <c r="AP66" s="216"/>
-      <c r="AQ66" s="216"/>
-      <c r="AR66" s="217"/>
-      <c r="AS66" s="221"/>
-      <c r="AT66" s="222"/>
-      <c r="AU66" s="222"/>
-      <c r="AV66" s="223"/>
+      <c r="B66" s="306"/>
+      <c r="C66" s="307"/>
+      <c r="D66" s="294"/>
+      <c r="E66" s="295"/>
+      <c r="F66" s="295"/>
+      <c r="G66" s="295"/>
+      <c r="H66" s="296"/>
+      <c r="I66" s="325"/>
+      <c r="J66" s="326"/>
+      <c r="K66" s="326"/>
+      <c r="L66" s="326"/>
+      <c r="M66" s="326"/>
+      <c r="N66" s="326"/>
+      <c r="O66" s="326"/>
+      <c r="P66" s="326"/>
+      <c r="Q66" s="326"/>
+      <c r="R66" s="326"/>
+      <c r="S66" s="326"/>
+      <c r="T66" s="326"/>
+      <c r="U66" s="326"/>
+      <c r="V66" s="326"/>
+      <c r="W66" s="326"/>
+      <c r="X66" s="326"/>
+      <c r="Y66" s="326"/>
+      <c r="Z66" s="327"/>
+      <c r="AA66" s="310"/>
+      <c r="AB66" s="311"/>
+      <c r="AC66" s="311"/>
+      <c r="AD66" s="312"/>
+      <c r="AE66" s="294"/>
+      <c r="AF66" s="295"/>
+      <c r="AG66" s="295"/>
+      <c r="AH66" s="295"/>
+      <c r="AI66" s="296"/>
+      <c r="AJ66" s="310"/>
+      <c r="AK66" s="311"/>
+      <c r="AL66" s="311"/>
+      <c r="AM66" s="312"/>
+      <c r="AN66" s="294"/>
+      <c r="AO66" s="295"/>
+      <c r="AP66" s="295"/>
+      <c r="AQ66" s="295"/>
+      <c r="AR66" s="296"/>
+      <c r="AS66" s="310"/>
+      <c r="AT66" s="311"/>
+      <c r="AU66" s="311"/>
+      <c r="AV66" s="312"/>
       <c r="AW66" s="157"/>
     </row>
     <row r="67" spans="1:49" ht="13.5" customHeight="1">
       <c r="A67" s="21"/>
-      <c r="B67" s="227"/>
-      <c r="C67" s="228"/>
-      <c r="D67" s="215"/>
-      <c r="E67" s="216"/>
-      <c r="F67" s="216"/>
-      <c r="G67" s="216"/>
-      <c r="H67" s="217"/>
-      <c r="I67" s="229"/>
-      <c r="J67" s="230"/>
-      <c r="K67" s="230"/>
-      <c r="L67" s="230"/>
-      <c r="M67" s="230"/>
-      <c r="N67" s="230"/>
-      <c r="O67" s="230"/>
-      <c r="P67" s="230"/>
-      <c r="Q67" s="230"/>
-      <c r="R67" s="230"/>
-      <c r="S67" s="230"/>
-      <c r="T67" s="230"/>
-      <c r="U67" s="230"/>
-      <c r="V67" s="230"/>
-      <c r="W67" s="230"/>
-      <c r="X67" s="230"/>
-      <c r="Y67" s="230"/>
-      <c r="Z67" s="231"/>
-      <c r="AA67" s="221"/>
-      <c r="AB67" s="222"/>
-      <c r="AC67" s="222"/>
-      <c r="AD67" s="223"/>
-      <c r="AE67" s="215"/>
-      <c r="AF67" s="216"/>
-      <c r="AG67" s="216"/>
-      <c r="AH67" s="216"/>
-      <c r="AI67" s="217"/>
-      <c r="AJ67" s="221"/>
-      <c r="AK67" s="222"/>
-      <c r="AL67" s="222"/>
-      <c r="AM67" s="223"/>
-      <c r="AN67" s="215"/>
-      <c r="AO67" s="216"/>
-      <c r="AP67" s="216"/>
-      <c r="AQ67" s="216"/>
-      <c r="AR67" s="217"/>
-      <c r="AS67" s="221"/>
-      <c r="AT67" s="222"/>
-      <c r="AU67" s="222"/>
-      <c r="AV67" s="223"/>
+      <c r="B67" s="306"/>
+      <c r="C67" s="307"/>
+      <c r="D67" s="294"/>
+      <c r="E67" s="295"/>
+      <c r="F67" s="295"/>
+      <c r="G67" s="295"/>
+      <c r="H67" s="296"/>
+      <c r="I67" s="325"/>
+      <c r="J67" s="326"/>
+      <c r="K67" s="326"/>
+      <c r="L67" s="326"/>
+      <c r="M67" s="326"/>
+      <c r="N67" s="326"/>
+      <c r="O67" s="326"/>
+      <c r="P67" s="326"/>
+      <c r="Q67" s="326"/>
+      <c r="R67" s="326"/>
+      <c r="S67" s="326"/>
+      <c r="T67" s="326"/>
+      <c r="U67" s="326"/>
+      <c r="V67" s="326"/>
+      <c r="W67" s="326"/>
+      <c r="X67" s="326"/>
+      <c r="Y67" s="326"/>
+      <c r="Z67" s="327"/>
+      <c r="AA67" s="310"/>
+      <c r="AB67" s="311"/>
+      <c r="AC67" s="311"/>
+      <c r="AD67" s="312"/>
+      <c r="AE67" s="294"/>
+      <c r="AF67" s="295"/>
+      <c r="AG67" s="295"/>
+      <c r="AH67" s="295"/>
+      <c r="AI67" s="296"/>
+      <c r="AJ67" s="310"/>
+      <c r="AK67" s="311"/>
+      <c r="AL67" s="311"/>
+      <c r="AM67" s="312"/>
+      <c r="AN67" s="294"/>
+      <c r="AO67" s="295"/>
+      <c r="AP67" s="295"/>
+      <c r="AQ67" s="295"/>
+      <c r="AR67" s="296"/>
+      <c r="AS67" s="310"/>
+      <c r="AT67" s="311"/>
+      <c r="AU67" s="311"/>
+      <c r="AV67" s="312"/>
       <c r="AW67" s="157"/>
     </row>
     <row r="68" spans="1:49" ht="13.5" customHeight="1">
       <c r="A68" s="21"/>
-      <c r="B68" s="227"/>
-      <c r="C68" s="228"/>
-      <c r="D68" s="215"/>
-      <c r="E68" s="216"/>
-      <c r="F68" s="216"/>
-      <c r="G68" s="216"/>
-      <c r="H68" s="217"/>
-      <c r="I68" s="229"/>
-      <c r="J68" s="230"/>
-      <c r="K68" s="230"/>
-      <c r="L68" s="230"/>
-      <c r="M68" s="230"/>
-      <c r="N68" s="230"/>
-      <c r="O68" s="230"/>
-      <c r="P68" s="230"/>
-      <c r="Q68" s="230"/>
-      <c r="R68" s="230"/>
-      <c r="S68" s="230"/>
-      <c r="T68" s="230"/>
-      <c r="U68" s="230"/>
-      <c r="V68" s="230"/>
-      <c r="W68" s="230"/>
-      <c r="X68" s="230"/>
-      <c r="Y68" s="230"/>
-      <c r="Z68" s="231"/>
-      <c r="AA68" s="221"/>
-      <c r="AB68" s="222"/>
-      <c r="AC68" s="222"/>
-      <c r="AD68" s="223"/>
-      <c r="AE68" s="215"/>
-      <c r="AF68" s="216"/>
-      <c r="AG68" s="216"/>
-      <c r="AH68" s="216"/>
-      <c r="AI68" s="217"/>
-      <c r="AJ68" s="221"/>
-      <c r="AK68" s="222"/>
-      <c r="AL68" s="222"/>
-      <c r="AM68" s="223"/>
-      <c r="AN68" s="215"/>
-      <c r="AO68" s="216"/>
-      <c r="AP68" s="216"/>
-      <c r="AQ68" s="216"/>
-      <c r="AR68" s="217"/>
-      <c r="AS68" s="221"/>
-      <c r="AT68" s="222"/>
-      <c r="AU68" s="222"/>
-      <c r="AV68" s="223"/>
+      <c r="B68" s="306"/>
+      <c r="C68" s="307"/>
+      <c r="D68" s="294"/>
+      <c r="E68" s="295"/>
+      <c r="F68" s="295"/>
+      <c r="G68" s="295"/>
+      <c r="H68" s="296"/>
+      <c r="I68" s="325"/>
+      <c r="J68" s="326"/>
+      <c r="K68" s="326"/>
+      <c r="L68" s="326"/>
+      <c r="M68" s="326"/>
+      <c r="N68" s="326"/>
+      <c r="O68" s="326"/>
+      <c r="P68" s="326"/>
+      <c r="Q68" s="326"/>
+      <c r="R68" s="326"/>
+      <c r="S68" s="326"/>
+      <c r="T68" s="326"/>
+      <c r="U68" s="326"/>
+      <c r="V68" s="326"/>
+      <c r="W68" s="326"/>
+      <c r="X68" s="326"/>
+      <c r="Y68" s="326"/>
+      <c r="Z68" s="327"/>
+      <c r="AA68" s="310"/>
+      <c r="AB68" s="311"/>
+      <c r="AC68" s="311"/>
+      <c r="AD68" s="312"/>
+      <c r="AE68" s="294"/>
+      <c r="AF68" s="295"/>
+      <c r="AG68" s="295"/>
+      <c r="AH68" s="295"/>
+      <c r="AI68" s="296"/>
+      <c r="AJ68" s="310"/>
+      <c r="AK68" s="311"/>
+      <c r="AL68" s="311"/>
+      <c r="AM68" s="312"/>
+      <c r="AN68" s="294"/>
+      <c r="AO68" s="295"/>
+      <c r="AP68" s="295"/>
+      <c r="AQ68" s="295"/>
+      <c r="AR68" s="296"/>
+      <c r="AS68" s="310"/>
+      <c r="AT68" s="311"/>
+      <c r="AU68" s="311"/>
+      <c r="AV68" s="312"/>
       <c r="AW68" s="157"/>
     </row>
     <row r="69" spans="1:49" ht="13.5" customHeight="1">
       <c r="A69" s="21"/>
-      <c r="B69" s="227"/>
-      <c r="C69" s="228"/>
-      <c r="D69" s="215"/>
-      <c r="E69" s="216"/>
-      <c r="F69" s="216"/>
-      <c r="G69" s="216"/>
-      <c r="H69" s="217"/>
-      <c r="I69" s="229"/>
-      <c r="J69" s="230"/>
-      <c r="K69" s="230"/>
-      <c r="L69" s="230"/>
-      <c r="M69" s="230"/>
-      <c r="N69" s="230"/>
-      <c r="O69" s="230"/>
-      <c r="P69" s="230"/>
-      <c r="Q69" s="230"/>
-      <c r="R69" s="230"/>
-      <c r="S69" s="230"/>
-      <c r="T69" s="230"/>
-      <c r="U69" s="230"/>
-      <c r="V69" s="230"/>
-      <c r="W69" s="230"/>
-      <c r="X69" s="230"/>
-      <c r="Y69" s="230"/>
-      <c r="Z69" s="231"/>
-      <c r="AA69" s="221"/>
-      <c r="AB69" s="222"/>
-      <c r="AC69" s="222"/>
-      <c r="AD69" s="223"/>
-      <c r="AE69" s="215"/>
-      <c r="AF69" s="216"/>
-      <c r="AG69" s="216"/>
-      <c r="AH69" s="216"/>
-      <c r="AI69" s="217"/>
-      <c r="AJ69" s="221"/>
-      <c r="AK69" s="222"/>
-      <c r="AL69" s="222"/>
-      <c r="AM69" s="223"/>
-      <c r="AN69" s="215"/>
-      <c r="AO69" s="216"/>
-      <c r="AP69" s="216"/>
-      <c r="AQ69" s="216"/>
-      <c r="AR69" s="217"/>
-      <c r="AS69" s="221"/>
-      <c r="AT69" s="222"/>
-      <c r="AU69" s="222"/>
-      <c r="AV69" s="223"/>
+      <c r="B69" s="306"/>
+      <c r="C69" s="307"/>
+      <c r="D69" s="294"/>
+      <c r="E69" s="295"/>
+      <c r="F69" s="295"/>
+      <c r="G69" s="295"/>
+      <c r="H69" s="296"/>
+      <c r="I69" s="325"/>
+      <c r="J69" s="326"/>
+      <c r="K69" s="326"/>
+      <c r="L69" s="326"/>
+      <c r="M69" s="326"/>
+      <c r="N69" s="326"/>
+      <c r="O69" s="326"/>
+      <c r="P69" s="326"/>
+      <c r="Q69" s="326"/>
+      <c r="R69" s="326"/>
+      <c r="S69" s="326"/>
+      <c r="T69" s="326"/>
+      <c r="U69" s="326"/>
+      <c r="V69" s="326"/>
+      <c r="W69" s="326"/>
+      <c r="X69" s="326"/>
+      <c r="Y69" s="326"/>
+      <c r="Z69" s="327"/>
+      <c r="AA69" s="310"/>
+      <c r="AB69" s="311"/>
+      <c r="AC69" s="311"/>
+      <c r="AD69" s="312"/>
+      <c r="AE69" s="294"/>
+      <c r="AF69" s="295"/>
+      <c r="AG69" s="295"/>
+      <c r="AH69" s="295"/>
+      <c r="AI69" s="296"/>
+      <c r="AJ69" s="310"/>
+      <c r="AK69" s="311"/>
+      <c r="AL69" s="311"/>
+      <c r="AM69" s="312"/>
+      <c r="AN69" s="294"/>
+      <c r="AO69" s="295"/>
+      <c r="AP69" s="295"/>
+      <c r="AQ69" s="295"/>
+      <c r="AR69" s="296"/>
+      <c r="AS69" s="310"/>
+      <c r="AT69" s="311"/>
+      <c r="AU69" s="311"/>
+      <c r="AV69" s="312"/>
       <c r="AW69" s="157"/>
     </row>
     <row r="70" spans="1:49" ht="13.5" customHeight="1">
       <c r="A70" s="21"/>
-      <c r="B70" s="227"/>
-      <c r="C70" s="228"/>
-      <c r="D70" s="215"/>
-      <c r="E70" s="216"/>
-      <c r="F70" s="216"/>
-      <c r="G70" s="216"/>
-      <c r="H70" s="217"/>
-      <c r="I70" s="229"/>
-      <c r="J70" s="230"/>
-      <c r="K70" s="230"/>
-      <c r="L70" s="230"/>
-      <c r="M70" s="230"/>
-      <c r="N70" s="230"/>
-      <c r="O70" s="230"/>
-      <c r="P70" s="230"/>
-      <c r="Q70" s="230"/>
-      <c r="R70" s="230"/>
-      <c r="S70" s="230"/>
-      <c r="T70" s="230"/>
-      <c r="U70" s="230"/>
-      <c r="V70" s="230"/>
-      <c r="W70" s="230"/>
-      <c r="X70" s="230"/>
-      <c r="Y70" s="230"/>
-      <c r="Z70" s="231"/>
-      <c r="AA70" s="221"/>
-      <c r="AB70" s="222"/>
-      <c r="AC70" s="222"/>
-      <c r="AD70" s="223"/>
-      <c r="AE70" s="215"/>
-      <c r="AF70" s="216"/>
-      <c r="AG70" s="216"/>
-      <c r="AH70" s="216"/>
-      <c r="AI70" s="217"/>
-      <c r="AJ70" s="221"/>
-      <c r="AK70" s="222"/>
-      <c r="AL70" s="222"/>
-      <c r="AM70" s="223"/>
-      <c r="AN70" s="215"/>
-      <c r="AO70" s="216"/>
-      <c r="AP70" s="216"/>
-      <c r="AQ70" s="216"/>
-      <c r="AR70" s="217"/>
-      <c r="AS70" s="221"/>
-      <c r="AT70" s="222"/>
-      <c r="AU70" s="222"/>
-      <c r="AV70" s="223"/>
+      <c r="B70" s="306"/>
+      <c r="C70" s="307"/>
+      <c r="D70" s="294"/>
+      <c r="E70" s="295"/>
+      <c r="F70" s="295"/>
+      <c r="G70" s="295"/>
+      <c r="H70" s="296"/>
+      <c r="I70" s="325"/>
+      <c r="J70" s="326"/>
+      <c r="K70" s="326"/>
+      <c r="L70" s="326"/>
+      <c r="M70" s="326"/>
+      <c r="N70" s="326"/>
+      <c r="O70" s="326"/>
+      <c r="P70" s="326"/>
+      <c r="Q70" s="326"/>
+      <c r="R70" s="326"/>
+      <c r="S70" s="326"/>
+      <c r="T70" s="326"/>
+      <c r="U70" s="326"/>
+      <c r="V70" s="326"/>
+      <c r="W70" s="326"/>
+      <c r="X70" s="326"/>
+      <c r="Y70" s="326"/>
+      <c r="Z70" s="327"/>
+      <c r="AA70" s="310"/>
+      <c r="AB70" s="311"/>
+      <c r="AC70" s="311"/>
+      <c r="AD70" s="312"/>
+      <c r="AE70" s="294"/>
+      <c r="AF70" s="295"/>
+      <c r="AG70" s="295"/>
+      <c r="AH70" s="295"/>
+      <c r="AI70" s="296"/>
+      <c r="AJ70" s="310"/>
+      <c r="AK70" s="311"/>
+      <c r="AL70" s="311"/>
+      <c r="AM70" s="312"/>
+      <c r="AN70" s="294"/>
+      <c r="AO70" s="295"/>
+      <c r="AP70" s="295"/>
+      <c r="AQ70" s="295"/>
+      <c r="AR70" s="296"/>
+      <c r="AS70" s="310"/>
+      <c r="AT70" s="311"/>
+      <c r="AU70" s="311"/>
+      <c r="AV70" s="312"/>
       <c r="AW70" s="157"/>
     </row>
     <row r="71" spans="1:49" ht="13.5" customHeight="1">
       <c r="A71" s="21"/>
-      <c r="B71" s="227"/>
-      <c r="C71" s="228"/>
-      <c r="D71" s="215"/>
-      <c r="E71" s="216"/>
-      <c r="F71" s="216"/>
-      <c r="G71" s="216"/>
-      <c r="H71" s="217"/>
-      <c r="I71" s="229"/>
-      <c r="J71" s="230"/>
-      <c r="K71" s="230"/>
-      <c r="L71" s="230"/>
-      <c r="M71" s="230"/>
-      <c r="N71" s="230"/>
-      <c r="O71" s="230"/>
-      <c r="P71" s="230"/>
-      <c r="Q71" s="230"/>
-      <c r="R71" s="230"/>
-      <c r="S71" s="230"/>
-      <c r="T71" s="230"/>
-      <c r="U71" s="230"/>
-      <c r="V71" s="230"/>
-      <c r="W71" s="230"/>
-      <c r="X71" s="230"/>
-      <c r="Y71" s="230"/>
-      <c r="Z71" s="231"/>
-      <c r="AA71" s="221"/>
-      <c r="AB71" s="222"/>
-      <c r="AC71" s="222"/>
-      <c r="AD71" s="223"/>
-      <c r="AE71" s="215"/>
-      <c r="AF71" s="216"/>
-      <c r="AG71" s="216"/>
-      <c r="AH71" s="216"/>
-      <c r="AI71" s="217"/>
-      <c r="AJ71" s="221"/>
-      <c r="AK71" s="222"/>
-      <c r="AL71" s="222"/>
-      <c r="AM71" s="223"/>
-      <c r="AN71" s="215"/>
-      <c r="AO71" s="216"/>
-      <c r="AP71" s="216"/>
-      <c r="AQ71" s="216"/>
-      <c r="AR71" s="217"/>
-      <c r="AS71" s="221"/>
-      <c r="AT71" s="222"/>
-      <c r="AU71" s="222"/>
-      <c r="AV71" s="223"/>
+      <c r="B71" s="306"/>
+      <c r="C71" s="307"/>
+      <c r="D71" s="294"/>
+      <c r="E71" s="295"/>
+      <c r="F71" s="295"/>
+      <c r="G71" s="295"/>
+      <c r="H71" s="296"/>
+      <c r="I71" s="325"/>
+      <c r="J71" s="326"/>
+      <c r="K71" s="326"/>
+      <c r="L71" s="326"/>
+      <c r="M71" s="326"/>
+      <c r="N71" s="326"/>
+      <c r="O71" s="326"/>
+      <c r="P71" s="326"/>
+      <c r="Q71" s="326"/>
+      <c r="R71" s="326"/>
+      <c r="S71" s="326"/>
+      <c r="T71" s="326"/>
+      <c r="U71" s="326"/>
+      <c r="V71" s="326"/>
+      <c r="W71" s="326"/>
+      <c r="X71" s="326"/>
+      <c r="Y71" s="326"/>
+      <c r="Z71" s="327"/>
+      <c r="AA71" s="310"/>
+      <c r="AB71" s="311"/>
+      <c r="AC71" s="311"/>
+      <c r="AD71" s="312"/>
+      <c r="AE71" s="294"/>
+      <c r="AF71" s="295"/>
+      <c r="AG71" s="295"/>
+      <c r="AH71" s="295"/>
+      <c r="AI71" s="296"/>
+      <c r="AJ71" s="310"/>
+      <c r="AK71" s="311"/>
+      <c r="AL71" s="311"/>
+      <c r="AM71" s="312"/>
+      <c r="AN71" s="294"/>
+      <c r="AO71" s="295"/>
+      <c r="AP71" s="295"/>
+      <c r="AQ71" s="295"/>
+      <c r="AR71" s="296"/>
+      <c r="AS71" s="310"/>
+      <c r="AT71" s="311"/>
+      <c r="AU71" s="311"/>
+      <c r="AV71" s="312"/>
       <c r="AW71" s="157"/>
     </row>
     <row r="72" spans="1:49" ht="13.5" customHeight="1">
       <c r="A72" s="21"/>
-      <c r="B72" s="227"/>
-      <c r="C72" s="228"/>
-      <c r="D72" s="215"/>
-      <c r="E72" s="216"/>
-      <c r="F72" s="216"/>
-      <c r="G72" s="216"/>
-      <c r="H72" s="217"/>
-      <c r="I72" s="229"/>
-      <c r="J72" s="230"/>
-      <c r="K72" s="230"/>
-      <c r="L72" s="230"/>
-      <c r="M72" s="230"/>
-      <c r="N72" s="230"/>
-      <c r="O72" s="230"/>
-      <c r="P72" s="230"/>
-      <c r="Q72" s="230"/>
-      <c r="R72" s="230"/>
-      <c r="S72" s="230"/>
-      <c r="T72" s="230"/>
-      <c r="U72" s="230"/>
-      <c r="V72" s="230"/>
-      <c r="W72" s="230"/>
-      <c r="X72" s="230"/>
-      <c r="Y72" s="230"/>
-      <c r="Z72" s="231"/>
-      <c r="AA72" s="221"/>
-      <c r="AB72" s="222"/>
-      <c r="AC72" s="222"/>
-      <c r="AD72" s="223"/>
-      <c r="AE72" s="215"/>
-      <c r="AF72" s="216"/>
-      <c r="AG72" s="216"/>
-      <c r="AH72" s="216"/>
-      <c r="AI72" s="217"/>
-      <c r="AJ72" s="221"/>
-      <c r="AK72" s="222"/>
-      <c r="AL72" s="222"/>
-      <c r="AM72" s="223"/>
-      <c r="AN72" s="215"/>
-      <c r="AO72" s="216"/>
-      <c r="AP72" s="216"/>
-      <c r="AQ72" s="216"/>
-      <c r="AR72" s="217"/>
-      <c r="AS72" s="221"/>
-      <c r="AT72" s="222"/>
-      <c r="AU72" s="222"/>
-      <c r="AV72" s="223"/>
+      <c r="B72" s="306"/>
+      <c r="C72" s="307"/>
+      <c r="D72" s="294"/>
+      <c r="E72" s="295"/>
+      <c r="F72" s="295"/>
+      <c r="G72" s="295"/>
+      <c r="H72" s="296"/>
+      <c r="I72" s="325"/>
+      <c r="J72" s="326"/>
+      <c r="K72" s="326"/>
+      <c r="L72" s="326"/>
+      <c r="M72" s="326"/>
+      <c r="N72" s="326"/>
+      <c r="O72" s="326"/>
+      <c r="P72" s="326"/>
+      <c r="Q72" s="326"/>
+      <c r="R72" s="326"/>
+      <c r="S72" s="326"/>
+      <c r="T72" s="326"/>
+      <c r="U72" s="326"/>
+      <c r="V72" s="326"/>
+      <c r="W72" s="326"/>
+      <c r="X72" s="326"/>
+      <c r="Y72" s="326"/>
+      <c r="Z72" s="327"/>
+      <c r="AA72" s="310"/>
+      <c r="AB72" s="311"/>
+      <c r="AC72" s="311"/>
+      <c r="AD72" s="312"/>
+      <c r="AE72" s="294"/>
+      <c r="AF72" s="295"/>
+      <c r="AG72" s="295"/>
+      <c r="AH72" s="295"/>
+      <c r="AI72" s="296"/>
+      <c r="AJ72" s="310"/>
+      <c r="AK72" s="311"/>
+      <c r="AL72" s="311"/>
+      <c r="AM72" s="312"/>
+      <c r="AN72" s="294"/>
+      <c r="AO72" s="295"/>
+      <c r="AP72" s="295"/>
+      <c r="AQ72" s="295"/>
+      <c r="AR72" s="296"/>
+      <c r="AS72" s="310"/>
+      <c r="AT72" s="311"/>
+      <c r="AU72" s="311"/>
+      <c r="AV72" s="312"/>
       <c r="AW72" s="157"/>
     </row>
     <row r="73" spans="1:49" ht="13.5" customHeight="1">
       <c r="A73" s="21"/>
-      <c r="B73" s="227"/>
-      <c r="C73" s="228"/>
-      <c r="D73" s="215"/>
-      <c r="E73" s="216"/>
-      <c r="F73" s="216"/>
-      <c r="G73" s="216"/>
-      <c r="H73" s="217"/>
-      <c r="I73" s="229"/>
-      <c r="J73" s="230"/>
-      <c r="K73" s="230"/>
-      <c r="L73" s="230"/>
-      <c r="M73" s="230"/>
-      <c r="N73" s="230"/>
-      <c r="O73" s="230"/>
-      <c r="P73" s="230"/>
-      <c r="Q73" s="230"/>
-      <c r="R73" s="230"/>
-      <c r="S73" s="230"/>
-      <c r="T73" s="230"/>
-      <c r="U73" s="230"/>
-      <c r="V73" s="230"/>
-      <c r="W73" s="230"/>
-      <c r="X73" s="230"/>
-      <c r="Y73" s="230"/>
-      <c r="Z73" s="231"/>
-      <c r="AA73" s="221"/>
-      <c r="AB73" s="222"/>
-      <c r="AC73" s="222"/>
-      <c r="AD73" s="223"/>
-      <c r="AE73" s="215"/>
-      <c r="AF73" s="216"/>
-      <c r="AG73" s="216"/>
-      <c r="AH73" s="216"/>
-      <c r="AI73" s="217"/>
-      <c r="AJ73" s="221"/>
-      <c r="AK73" s="222"/>
-      <c r="AL73" s="222"/>
-      <c r="AM73" s="223"/>
-      <c r="AN73" s="215"/>
-      <c r="AO73" s="216"/>
-      <c r="AP73" s="216"/>
-      <c r="AQ73" s="216"/>
-      <c r="AR73" s="217"/>
-      <c r="AS73" s="221"/>
-      <c r="AT73" s="222"/>
-      <c r="AU73" s="222"/>
-      <c r="AV73" s="223"/>
+      <c r="B73" s="306"/>
+      <c r="C73" s="307"/>
+      <c r="D73" s="294"/>
+      <c r="E73" s="295"/>
+      <c r="F73" s="295"/>
+      <c r="G73" s="295"/>
+      <c r="H73" s="296"/>
+      <c r="I73" s="325"/>
+      <c r="J73" s="326"/>
+      <c r="K73" s="326"/>
+      <c r="L73" s="326"/>
+      <c r="M73" s="326"/>
+      <c r="N73" s="326"/>
+      <c r="O73" s="326"/>
+      <c r="P73" s="326"/>
+      <c r="Q73" s="326"/>
+      <c r="R73" s="326"/>
+      <c r="S73" s="326"/>
+      <c r="T73" s="326"/>
+      <c r="U73" s="326"/>
+      <c r="V73" s="326"/>
+      <c r="W73" s="326"/>
+      <c r="X73" s="326"/>
+      <c r="Y73" s="326"/>
+      <c r="Z73" s="327"/>
+      <c r="AA73" s="310"/>
+      <c r="AB73" s="311"/>
+      <c r="AC73" s="311"/>
+      <c r="AD73" s="312"/>
+      <c r="AE73" s="294"/>
+      <c r="AF73" s="295"/>
+      <c r="AG73" s="295"/>
+      <c r="AH73" s="295"/>
+      <c r="AI73" s="296"/>
+      <c r="AJ73" s="310"/>
+      <c r="AK73" s="311"/>
+      <c r="AL73" s="311"/>
+      <c r="AM73" s="312"/>
+      <c r="AN73" s="294"/>
+      <c r="AO73" s="295"/>
+      <c r="AP73" s="295"/>
+      <c r="AQ73" s="295"/>
+      <c r="AR73" s="296"/>
+      <c r="AS73" s="310"/>
+      <c r="AT73" s="311"/>
+      <c r="AU73" s="311"/>
+      <c r="AV73" s="312"/>
       <c r="AW73" s="157"/>
     </row>
     <row r="74" spans="1:49" ht="13.5" customHeight="1">
       <c r="A74" s="21"/>
-      <c r="B74" s="227"/>
-      <c r="C74" s="228"/>
-      <c r="D74" s="215"/>
-      <c r="E74" s="216"/>
-      <c r="F74" s="216"/>
-      <c r="G74" s="216"/>
-      <c r="H74" s="217"/>
-      <c r="I74" s="229"/>
-      <c r="J74" s="230"/>
-      <c r="K74" s="230"/>
-      <c r="L74" s="230"/>
-      <c r="M74" s="230"/>
-      <c r="N74" s="230"/>
-      <c r="O74" s="230"/>
-      <c r="P74" s="230"/>
-      <c r="Q74" s="230"/>
-      <c r="R74" s="230"/>
-      <c r="S74" s="230"/>
-      <c r="T74" s="230"/>
-      <c r="U74" s="230"/>
-      <c r="V74" s="230"/>
-      <c r="W74" s="230"/>
-      <c r="X74" s="230"/>
-      <c r="Y74" s="230"/>
-      <c r="Z74" s="231"/>
-      <c r="AA74" s="221"/>
-      <c r="AB74" s="222"/>
-      <c r="AC74" s="222"/>
-      <c r="AD74" s="223"/>
-      <c r="AE74" s="215"/>
-      <c r="AF74" s="216"/>
-      <c r="AG74" s="216"/>
-      <c r="AH74" s="216"/>
-      <c r="AI74" s="217"/>
-      <c r="AJ74" s="221"/>
-      <c r="AK74" s="222"/>
-      <c r="AL74" s="222"/>
-      <c r="AM74" s="223"/>
-      <c r="AN74" s="215"/>
-      <c r="AO74" s="216"/>
-      <c r="AP74" s="216"/>
-      <c r="AQ74" s="216"/>
-      <c r="AR74" s="217"/>
-      <c r="AS74" s="221"/>
-      <c r="AT74" s="222"/>
-      <c r="AU74" s="222"/>
-      <c r="AV74" s="223"/>
+      <c r="B74" s="306"/>
+      <c r="C74" s="307"/>
+      <c r="D74" s="294"/>
+      <c r="E74" s="295"/>
+      <c r="F74" s="295"/>
+      <c r="G74" s="295"/>
+      <c r="H74" s="296"/>
+      <c r="I74" s="325"/>
+      <c r="J74" s="326"/>
+      <c r="K74" s="326"/>
+      <c r="L74" s="326"/>
+      <c r="M74" s="326"/>
+      <c r="N74" s="326"/>
+      <c r="O74" s="326"/>
+      <c r="P74" s="326"/>
+      <c r="Q74" s="326"/>
+      <c r="R74" s="326"/>
+      <c r="S74" s="326"/>
+      <c r="T74" s="326"/>
+      <c r="U74" s="326"/>
+      <c r="V74" s="326"/>
+      <c r="W74" s="326"/>
+      <c r="X74" s="326"/>
+      <c r="Y74" s="326"/>
+      <c r="Z74" s="327"/>
+      <c r="AA74" s="310"/>
+      <c r="AB74" s="311"/>
+      <c r="AC74" s="311"/>
+      <c r="AD74" s="312"/>
+      <c r="AE74" s="294"/>
+      <c r="AF74" s="295"/>
+      <c r="AG74" s="295"/>
+      <c r="AH74" s="295"/>
+      <c r="AI74" s="296"/>
+      <c r="AJ74" s="310"/>
+      <c r="AK74" s="311"/>
+      <c r="AL74" s="311"/>
+      <c r="AM74" s="312"/>
+      <c r="AN74" s="294"/>
+      <c r="AO74" s="295"/>
+      <c r="AP74" s="295"/>
+      <c r="AQ74" s="295"/>
+      <c r="AR74" s="296"/>
+      <c r="AS74" s="310"/>
+      <c r="AT74" s="311"/>
+      <c r="AU74" s="311"/>
+      <c r="AV74" s="312"/>
       <c r="AW74" s="157"/>
     </row>
     <row r="75" spans="1:49" ht="13.5" customHeight="1">
       <c r="A75" s="21"/>
-      <c r="B75" s="227"/>
-      <c r="C75" s="228"/>
-      <c r="D75" s="215"/>
-      <c r="E75" s="216"/>
-      <c r="F75" s="216"/>
-      <c r="G75" s="216"/>
-      <c r="H75" s="217"/>
-      <c r="I75" s="229"/>
-      <c r="J75" s="230"/>
-      <c r="K75" s="230"/>
-      <c r="L75" s="230"/>
-      <c r="M75" s="230"/>
-      <c r="N75" s="230"/>
-      <c r="O75" s="230"/>
-      <c r="P75" s="230"/>
-      <c r="Q75" s="230"/>
-      <c r="R75" s="230"/>
-      <c r="S75" s="230"/>
-      <c r="T75" s="230"/>
-      <c r="U75" s="230"/>
-      <c r="V75" s="230"/>
-      <c r="W75" s="230"/>
-      <c r="X75" s="230"/>
-      <c r="Y75" s="230"/>
-      <c r="Z75" s="231"/>
-      <c r="AA75" s="221"/>
-      <c r="AB75" s="222"/>
-      <c r="AC75" s="222"/>
-      <c r="AD75" s="223"/>
-      <c r="AE75" s="215"/>
-      <c r="AF75" s="216"/>
-      <c r="AG75" s="216"/>
-      <c r="AH75" s="216"/>
-      <c r="AI75" s="217"/>
-      <c r="AJ75" s="221"/>
-      <c r="AK75" s="222"/>
-      <c r="AL75" s="222"/>
-      <c r="AM75" s="223"/>
-      <c r="AN75" s="215"/>
-      <c r="AO75" s="216"/>
-      <c r="AP75" s="216"/>
-      <c r="AQ75" s="216"/>
-      <c r="AR75" s="217"/>
-      <c r="AS75" s="221"/>
-      <c r="AT75" s="222"/>
-      <c r="AU75" s="222"/>
-      <c r="AV75" s="223"/>
+      <c r="B75" s="306"/>
+      <c r="C75" s="307"/>
+      <c r="D75" s="294"/>
+      <c r="E75" s="295"/>
+      <c r="F75" s="295"/>
+      <c r="G75" s="295"/>
+      <c r="H75" s="296"/>
+      <c r="I75" s="325"/>
+      <c r="J75" s="326"/>
+      <c r="K75" s="326"/>
+      <c r="L75" s="326"/>
+      <c r="M75" s="326"/>
+      <c r="N75" s="326"/>
+      <c r="O75" s="326"/>
+      <c r="P75" s="326"/>
+      <c r="Q75" s="326"/>
+      <c r="R75" s="326"/>
+      <c r="S75" s="326"/>
+      <c r="T75" s="326"/>
+      <c r="U75" s="326"/>
+      <c r="V75" s="326"/>
+      <c r="W75" s="326"/>
+      <c r="X75" s="326"/>
+      <c r="Y75" s="326"/>
+      <c r="Z75" s="327"/>
+      <c r="AA75" s="310"/>
+      <c r="AB75" s="311"/>
+      <c r="AC75" s="311"/>
+      <c r="AD75" s="312"/>
+      <c r="AE75" s="294"/>
+      <c r="AF75" s="295"/>
+      <c r="AG75" s="295"/>
+      <c r="AH75" s="295"/>
+      <c r="AI75" s="296"/>
+      <c r="AJ75" s="310"/>
+      <c r="AK75" s="311"/>
+      <c r="AL75" s="311"/>
+      <c r="AM75" s="312"/>
+      <c r="AN75" s="294"/>
+      <c r="AO75" s="295"/>
+      <c r="AP75" s="295"/>
+      <c r="AQ75" s="295"/>
+      <c r="AR75" s="296"/>
+      <c r="AS75" s="310"/>
+      <c r="AT75" s="311"/>
+      <c r="AU75" s="311"/>
+      <c r="AV75" s="312"/>
       <c r="AW75" s="157"/>
     </row>
     <row r="76" spans="1:49" ht="13.5" customHeight="1">
       <c r="A76" s="21"/>
-      <c r="B76" s="227"/>
-      <c r="C76" s="228"/>
-      <c r="D76" s="215"/>
-      <c r="E76" s="216"/>
-      <c r="F76" s="216"/>
-      <c r="G76" s="216"/>
-      <c r="H76" s="217"/>
-      <c r="I76" s="229"/>
-      <c r="J76" s="230"/>
-      <c r="K76" s="230"/>
-      <c r="L76" s="230"/>
-      <c r="M76" s="230"/>
-      <c r="N76" s="230"/>
-      <c r="O76" s="230"/>
-      <c r="P76" s="230"/>
-      <c r="Q76" s="230"/>
-      <c r="R76" s="230"/>
-      <c r="S76" s="230"/>
-      <c r="T76" s="230"/>
-      <c r="U76" s="230"/>
-      <c r="V76" s="230"/>
-      <c r="W76" s="230"/>
-      <c r="X76" s="230"/>
-      <c r="Y76" s="230"/>
-      <c r="Z76" s="231"/>
-      <c r="AA76" s="221"/>
-      <c r="AB76" s="222"/>
-      <c r="AC76" s="222"/>
-      <c r="AD76" s="223"/>
-      <c r="AE76" s="215"/>
-      <c r="AF76" s="216"/>
-      <c r="AG76" s="216"/>
-      <c r="AH76" s="216"/>
-      <c r="AI76" s="217"/>
-      <c r="AJ76" s="221"/>
-      <c r="AK76" s="222"/>
-      <c r="AL76" s="222"/>
-      <c r="AM76" s="223"/>
-      <c r="AN76" s="215"/>
-      <c r="AO76" s="216"/>
-      <c r="AP76" s="216"/>
-      <c r="AQ76" s="216"/>
-      <c r="AR76" s="217"/>
-      <c r="AS76" s="221"/>
-      <c r="AT76" s="222"/>
-      <c r="AU76" s="222"/>
-      <c r="AV76" s="223"/>
+      <c r="B76" s="306"/>
+      <c r="C76" s="307"/>
+      <c r="D76" s="294"/>
+      <c r="E76" s="295"/>
+      <c r="F76" s="295"/>
+      <c r="G76" s="295"/>
+      <c r="H76" s="296"/>
+      <c r="I76" s="325"/>
+      <c r="J76" s="326"/>
+      <c r="K76" s="326"/>
+      <c r="L76" s="326"/>
+      <c r="M76" s="326"/>
+      <c r="N76" s="326"/>
+      <c r="O76" s="326"/>
+      <c r="P76" s="326"/>
+      <c r="Q76" s="326"/>
+      <c r="R76" s="326"/>
+      <c r="S76" s="326"/>
+      <c r="T76" s="326"/>
+      <c r="U76" s="326"/>
+      <c r="V76" s="326"/>
+      <c r="W76" s="326"/>
+      <c r="X76" s="326"/>
+      <c r="Y76" s="326"/>
+      <c r="Z76" s="327"/>
+      <c r="AA76" s="310"/>
+      <c r="AB76" s="311"/>
+      <c r="AC76" s="311"/>
+      <c r="AD76" s="312"/>
+      <c r="AE76" s="294"/>
+      <c r="AF76" s="295"/>
+      <c r="AG76" s="295"/>
+      <c r="AH76" s="295"/>
+      <c r="AI76" s="296"/>
+      <c r="AJ76" s="310"/>
+      <c r="AK76" s="311"/>
+      <c r="AL76" s="311"/>
+      <c r="AM76" s="312"/>
+      <c r="AN76" s="294"/>
+      <c r="AO76" s="295"/>
+      <c r="AP76" s="295"/>
+      <c r="AQ76" s="295"/>
+      <c r="AR76" s="296"/>
+      <c r="AS76" s="310"/>
+      <c r="AT76" s="311"/>
+      <c r="AU76" s="311"/>
+      <c r="AV76" s="312"/>
       <c r="AW76" s="157"/>
     </row>
     <row r="77" spans="1:49" ht="13.5" customHeight="1">
       <c r="A77" s="21"/>
-      <c r="B77" s="227"/>
-      <c r="C77" s="228"/>
-      <c r="D77" s="215"/>
-      <c r="E77" s="216"/>
-      <c r="F77" s="216"/>
-      <c r="G77" s="216"/>
-      <c r="H77" s="217"/>
-      <c r="I77" s="229"/>
-      <c r="J77" s="230"/>
-      <c r="K77" s="230"/>
-      <c r="L77" s="230"/>
-      <c r="M77" s="230"/>
-      <c r="N77" s="230"/>
-      <c r="O77" s="230"/>
-      <c r="P77" s="230"/>
-      <c r="Q77" s="230"/>
-      <c r="R77" s="230"/>
-      <c r="S77" s="230"/>
-      <c r="T77" s="230"/>
-      <c r="U77" s="230"/>
-      <c r="V77" s="230"/>
-      <c r="W77" s="230"/>
-      <c r="X77" s="230"/>
-      <c r="Y77" s="230"/>
-      <c r="Z77" s="231"/>
-      <c r="AA77" s="221"/>
-      <c r="AB77" s="222"/>
-      <c r="AC77" s="222"/>
-      <c r="AD77" s="223"/>
-      <c r="AE77" s="215"/>
-      <c r="AF77" s="216"/>
-      <c r="AG77" s="216"/>
-      <c r="AH77" s="216"/>
-      <c r="AI77" s="217"/>
-      <c r="AJ77" s="221"/>
-      <c r="AK77" s="222"/>
-      <c r="AL77" s="222"/>
-      <c r="AM77" s="223"/>
-      <c r="AN77" s="215"/>
-      <c r="AO77" s="216"/>
-      <c r="AP77" s="216"/>
-      <c r="AQ77" s="216"/>
-      <c r="AR77" s="217"/>
-      <c r="AS77" s="221"/>
-      <c r="AT77" s="222"/>
-      <c r="AU77" s="222"/>
-      <c r="AV77" s="223"/>
+      <c r="B77" s="306"/>
+      <c r="C77" s="307"/>
+      <c r="D77" s="294"/>
+      <c r="E77" s="295"/>
+      <c r="F77" s="295"/>
+      <c r="G77" s="295"/>
+      <c r="H77" s="296"/>
+      <c r="I77" s="325"/>
+      <c r="J77" s="326"/>
+      <c r="K77" s="326"/>
+      <c r="L77" s="326"/>
+      <c r="M77" s="326"/>
+      <c r="N77" s="326"/>
+      <c r="O77" s="326"/>
+      <c r="P77" s="326"/>
+      <c r="Q77" s="326"/>
+      <c r="R77" s="326"/>
+      <c r="S77" s="326"/>
+      <c r="T77" s="326"/>
+      <c r="U77" s="326"/>
+      <c r="V77" s="326"/>
+      <c r="W77" s="326"/>
+      <c r="X77" s="326"/>
+      <c r="Y77" s="326"/>
+      <c r="Z77" s="327"/>
+      <c r="AA77" s="310"/>
+      <c r="AB77" s="311"/>
+      <c r="AC77" s="311"/>
+      <c r="AD77" s="312"/>
+      <c r="AE77" s="294"/>
+      <c r="AF77" s="295"/>
+      <c r="AG77" s="295"/>
+      <c r="AH77" s="295"/>
+      <c r="AI77" s="296"/>
+      <c r="AJ77" s="310"/>
+      <c r="AK77" s="311"/>
+      <c r="AL77" s="311"/>
+      <c r="AM77" s="312"/>
+      <c r="AN77" s="294"/>
+      <c r="AO77" s="295"/>
+      <c r="AP77" s="295"/>
+      <c r="AQ77" s="295"/>
+      <c r="AR77" s="296"/>
+      <c r="AS77" s="310"/>
+      <c r="AT77" s="311"/>
+      <c r="AU77" s="311"/>
+      <c r="AV77" s="312"/>
       <c r="AW77" s="157"/>
     </row>
     <row r="78" spans="1:49" ht="13.5" customHeight="1">
       <c r="A78" s="21"/>
-      <c r="B78" s="232"/>
-      <c r="C78" s="233"/>
-      <c r="D78" s="218"/>
-      <c r="E78" s="219"/>
-      <c r="F78" s="219"/>
-      <c r="G78" s="219"/>
-      <c r="H78" s="220"/>
-      <c r="I78" s="234"/>
-      <c r="J78" s="235"/>
-      <c r="K78" s="235"/>
-      <c r="L78" s="235"/>
-      <c r="M78" s="235"/>
-      <c r="N78" s="235"/>
-      <c r="O78" s="235"/>
-      <c r="P78" s="235"/>
-      <c r="Q78" s="235"/>
-      <c r="R78" s="235"/>
-      <c r="S78" s="235"/>
-      <c r="T78" s="235"/>
-      <c r="U78" s="235"/>
-      <c r="V78" s="235"/>
-      <c r="W78" s="235"/>
-      <c r="X78" s="235"/>
-      <c r="Y78" s="235"/>
-      <c r="Z78" s="236"/>
-      <c r="AA78" s="224"/>
-      <c r="AB78" s="225"/>
-      <c r="AC78" s="225"/>
-      <c r="AD78" s="226"/>
-      <c r="AE78" s="218"/>
-      <c r="AF78" s="219"/>
-      <c r="AG78" s="219"/>
-      <c r="AH78" s="219"/>
-      <c r="AI78" s="220"/>
-      <c r="AJ78" s="224"/>
-      <c r="AK78" s="225"/>
-      <c r="AL78" s="225"/>
-      <c r="AM78" s="226"/>
-      <c r="AN78" s="218"/>
-      <c r="AO78" s="219"/>
-      <c r="AP78" s="219"/>
-      <c r="AQ78" s="219"/>
-      <c r="AR78" s="220"/>
-      <c r="AS78" s="224"/>
-      <c r="AT78" s="225"/>
-      <c r="AU78" s="225"/>
-      <c r="AV78" s="226"/>
+      <c r="B78" s="355"/>
+      <c r="C78" s="356"/>
+      <c r="D78" s="349"/>
+      <c r="E78" s="350"/>
+      <c r="F78" s="350"/>
+      <c r="G78" s="350"/>
+      <c r="H78" s="351"/>
+      <c r="I78" s="357"/>
+      <c r="J78" s="358"/>
+      <c r="K78" s="358"/>
+      <c r="L78" s="358"/>
+      <c r="M78" s="358"/>
+      <c r="N78" s="358"/>
+      <c r="O78" s="358"/>
+      <c r="P78" s="358"/>
+      <c r="Q78" s="358"/>
+      <c r="R78" s="358"/>
+      <c r="S78" s="358"/>
+      <c r="T78" s="358"/>
+      <c r="U78" s="358"/>
+      <c r="V78" s="358"/>
+      <c r="W78" s="358"/>
+      <c r="X78" s="358"/>
+      <c r="Y78" s="358"/>
+      <c r="Z78" s="359"/>
+      <c r="AA78" s="352"/>
+      <c r="AB78" s="353"/>
+      <c r="AC78" s="353"/>
+      <c r="AD78" s="354"/>
+      <c r="AE78" s="349"/>
+      <c r="AF78" s="350"/>
+      <c r="AG78" s="350"/>
+      <c r="AH78" s="350"/>
+      <c r="AI78" s="351"/>
+      <c r="AJ78" s="352"/>
+      <c r="AK78" s="353"/>
+      <c r="AL78" s="353"/>
+      <c r="AM78" s="354"/>
+      <c r="AN78" s="349"/>
+      <c r="AO78" s="350"/>
+      <c r="AP78" s="350"/>
+      <c r="AQ78" s="350"/>
+      <c r="AR78" s="351"/>
+      <c r="AS78" s="352"/>
+      <c r="AT78" s="353"/>
+      <c r="AU78" s="353"/>
+      <c r="AV78" s="354"/>
       <c r="AW78" s="157"/>
     </row>
     <row r="79" spans="1:49" ht="13.5" customHeight="1">
@@ -21491,184 +21473,184 @@
       <c r="AV80" s="26"/>
       <c r="AW80" s="162"/>
     </row>
-    <row r="81" spans="1:50" s="19" customFormat="1" ht="23" customHeight="1" thickTop="1">
-      <c r="A81" s="237" t="s">
+    <row r="81" spans="1:50" s="19" customFormat="1" ht="22.95" customHeight="1" thickTop="1">
+      <c r="A81" s="223" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="224"/>
+      <c r="C81" s="224"/>
+      <c r="D81" s="224"/>
+      <c r="E81" s="224"/>
+      <c r="F81" s="224"/>
+      <c r="G81" s="224"/>
+      <c r="H81" s="224"/>
+      <c r="I81" s="225"/>
+      <c r="J81" s="232" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="224"/>
+      <c r="L81" s="224"/>
+      <c r="M81" s="224"/>
+      <c r="N81" s="224"/>
+      <c r="O81" s="225"/>
+      <c r="P81" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q81" s="224"/>
+      <c r="R81" s="224"/>
+      <c r="S81" s="224"/>
+      <c r="T81" s="224"/>
+      <c r="U81" s="225"/>
+      <c r="V81" s="239" t="s">
+        <v>22</v>
+      </c>
+      <c r="W81" s="240"/>
+      <c r="X81" s="240"/>
+      <c r="Y81" s="240"/>
+      <c r="Z81" s="241"/>
+      <c r="AA81" s="245" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="238"/>
-      <c r="C81" s="238"/>
-      <c r="D81" s="238"/>
-      <c r="E81" s="238"/>
-      <c r="F81" s="238"/>
-      <c r="G81" s="238"/>
-      <c r="H81" s="238"/>
-      <c r="I81" s="239"/>
-      <c r="J81" s="246" t="s">
-        <v>18</v>
-      </c>
-      <c r="K81" s="238"/>
-      <c r="L81" s="238"/>
-      <c r="M81" s="238"/>
-      <c r="N81" s="238"/>
-      <c r="O81" s="239"/>
-      <c r="P81" s="246" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q81" s="238"/>
-      <c r="R81" s="238"/>
-      <c r="S81" s="238"/>
-      <c r="T81" s="238"/>
-      <c r="U81" s="239"/>
-      <c r="V81" s="252" t="s">
-        <v>22</v>
-      </c>
-      <c r="W81" s="253"/>
-      <c r="X81" s="253"/>
-      <c r="Y81" s="253"/>
-      <c r="Z81" s="254"/>
-      <c r="AA81" s="258" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB81" s="238"/>
-      <c r="AC81" s="238"/>
-      <c r="AD81" s="238"/>
-      <c r="AE81" s="238"/>
-      <c r="AF81" s="238"/>
-      <c r="AG81" s="238"/>
-      <c r="AH81" s="238"/>
-      <c r="AI81" s="238"/>
-      <c r="AJ81" s="238"/>
-      <c r="AK81" s="238"/>
-      <c r="AL81" s="239"/>
-      <c r="AM81" s="247" t="s">
+      <c r="AB81" s="224"/>
+      <c r="AC81" s="224"/>
+      <c r="AD81" s="224"/>
+      <c r="AE81" s="224"/>
+      <c r="AF81" s="224"/>
+      <c r="AG81" s="224"/>
+      <c r="AH81" s="224"/>
+      <c r="AI81" s="224"/>
+      <c r="AJ81" s="224"/>
+      <c r="AK81" s="224"/>
+      <c r="AL81" s="225"/>
+      <c r="AM81" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="AN81" s="248"/>
-      <c r="AO81" s="260"/>
-      <c r="AP81" s="261"/>
-      <c r="AQ81" s="262"/>
-      <c r="AR81" s="247" t="s">
+      <c r="AN81" s="260"/>
+      <c r="AO81" s="265"/>
+      <c r="AP81" s="266"/>
+      <c r="AQ81" s="267"/>
+      <c r="AR81" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="AS81" s="248"/>
-      <c r="AT81" s="249"/>
-      <c r="AU81" s="250"/>
-      <c r="AV81" s="250"/>
-      <c r="AW81" s="251"/>
-    </row>
-    <row r="82" spans="1:50" s="19" customFormat="1" ht="23" customHeight="1">
-      <c r="A82" s="240"/>
-      <c r="B82" s="241"/>
-      <c r="C82" s="241"/>
-      <c r="D82" s="241"/>
-      <c r="E82" s="241"/>
-      <c r="F82" s="241"/>
-      <c r="G82" s="241"/>
-      <c r="H82" s="241"/>
-      <c r="I82" s="242"/>
-      <c r="J82" s="240"/>
-      <c r="K82" s="241"/>
-      <c r="L82" s="241"/>
-      <c r="M82" s="241"/>
-      <c r="N82" s="241"/>
-      <c r="O82" s="242"/>
-      <c r="P82" s="240"/>
-      <c r="Q82" s="241"/>
-      <c r="R82" s="241"/>
-      <c r="S82" s="241"/>
-      <c r="T82" s="241"/>
-      <c r="U82" s="242"/>
-      <c r="V82" s="255"/>
-      <c r="W82" s="256"/>
-      <c r="X82" s="256"/>
-      <c r="Y82" s="256"/>
-      <c r="Z82" s="257"/>
-      <c r="AA82" s="259"/>
-      <c r="AB82" s="241"/>
-      <c r="AC82" s="241"/>
-      <c r="AD82" s="241"/>
-      <c r="AE82" s="241"/>
-      <c r="AF82" s="241"/>
-      <c r="AG82" s="241"/>
-      <c r="AH82" s="241"/>
-      <c r="AI82" s="241"/>
-      <c r="AJ82" s="241"/>
-      <c r="AK82" s="241"/>
-      <c r="AL82" s="242"/>
-      <c r="AM82" s="273" t="s">
+      <c r="AS81" s="260"/>
+      <c r="AT81" s="276"/>
+      <c r="AU81" s="277"/>
+      <c r="AV81" s="277"/>
+      <c r="AW81" s="278"/>
+    </row>
+    <row r="82" spans="1:50" s="19" customFormat="1" ht="22.95" customHeight="1">
+      <c r="A82" s="226"/>
+      <c r="B82" s="227"/>
+      <c r="C82" s="227"/>
+      <c r="D82" s="227"/>
+      <c r="E82" s="227"/>
+      <c r="F82" s="227"/>
+      <c r="G82" s="227"/>
+      <c r="H82" s="227"/>
+      <c r="I82" s="228"/>
+      <c r="J82" s="226"/>
+      <c r="K82" s="227"/>
+      <c r="L82" s="227"/>
+      <c r="M82" s="227"/>
+      <c r="N82" s="227"/>
+      <c r="O82" s="228"/>
+      <c r="P82" s="226"/>
+      <c r="Q82" s="227"/>
+      <c r="R82" s="227"/>
+      <c r="S82" s="227"/>
+      <c r="T82" s="227"/>
+      <c r="U82" s="228"/>
+      <c r="V82" s="242"/>
+      <c r="W82" s="243"/>
+      <c r="X82" s="243"/>
+      <c r="Y82" s="243"/>
+      <c r="Z82" s="244"/>
+      <c r="AA82" s="246"/>
+      <c r="AB82" s="227"/>
+      <c r="AC82" s="227"/>
+      <c r="AD82" s="227"/>
+      <c r="AE82" s="227"/>
+      <c r="AF82" s="227"/>
+      <c r="AG82" s="227"/>
+      <c r="AH82" s="227"/>
+      <c r="AI82" s="227"/>
+      <c r="AJ82" s="227"/>
+      <c r="AK82" s="227"/>
+      <c r="AL82" s="228"/>
+      <c r="AM82" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="AN82" s="274"/>
-      <c r="AO82" s="275"/>
-      <c r="AP82" s="276"/>
-      <c r="AQ82" s="277"/>
-      <c r="AR82" s="273" t="s">
+      <c r="AN82" s="269"/>
+      <c r="AO82" s="270"/>
+      <c r="AP82" s="271"/>
+      <c r="AQ82" s="272"/>
+      <c r="AR82" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="AS82" s="274"/>
-      <c r="AT82" s="278"/>
-      <c r="AU82" s="279"/>
-      <c r="AV82" s="279"/>
-      <c r="AW82" s="280"/>
-    </row>
-    <row r="83" spans="1:50" ht="23" customHeight="1" thickBot="1">
-      <c r="A83" s="243"/>
-      <c r="B83" s="244"/>
-      <c r="C83" s="244"/>
-      <c r="D83" s="244"/>
-      <c r="E83" s="244"/>
-      <c r="F83" s="244"/>
-      <c r="G83" s="244"/>
-      <c r="H83" s="244"/>
-      <c r="I83" s="245"/>
-      <c r="J83" s="243"/>
-      <c r="K83" s="244"/>
-      <c r="L83" s="244"/>
-      <c r="M83" s="244"/>
-      <c r="N83" s="244"/>
-      <c r="O83" s="245"/>
-      <c r="P83" s="243"/>
-      <c r="Q83" s="244"/>
-      <c r="R83" s="244"/>
-      <c r="S83" s="244"/>
-      <c r="T83" s="244"/>
-      <c r="U83" s="245"/>
-      <c r="V83" s="263" t="s">
+      <c r="AS82" s="269"/>
+      <c r="AT82" s="273"/>
+      <c r="AU82" s="274"/>
+      <c r="AV82" s="274"/>
+      <c r="AW82" s="275"/>
+    </row>
+    <row r="83" spans="1:50" ht="22.95" customHeight="1" thickBot="1">
+      <c r="A83" s="229"/>
+      <c r="B83" s="230"/>
+      <c r="C83" s="230"/>
+      <c r="D83" s="230"/>
+      <c r="E83" s="230"/>
+      <c r="F83" s="230"/>
+      <c r="G83" s="230"/>
+      <c r="H83" s="230"/>
+      <c r="I83" s="231"/>
+      <c r="J83" s="229"/>
+      <c r="K83" s="230"/>
+      <c r="L83" s="230"/>
+      <c r="M83" s="230"/>
+      <c r="N83" s="230"/>
+      <c r="O83" s="231"/>
+      <c r="P83" s="229"/>
+      <c r="Q83" s="230"/>
+      <c r="R83" s="230"/>
+      <c r="S83" s="230"/>
+      <c r="T83" s="230"/>
+      <c r="U83" s="231"/>
+      <c r="V83" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="W83" s="264"/>
-      <c r="X83" s="264"/>
-      <c r="Y83" s="264"/>
-      <c r="Z83" s="265"/>
-      <c r="AA83" s="266" t="s">
-        <v>122</v>
+      <c r="W83" s="237"/>
+      <c r="X83" s="237"/>
+      <c r="Y83" s="237"/>
+      <c r="Z83" s="238"/>
+      <c r="AA83" s="233" t="s">
+        <v>104</v>
       </c>
-      <c r="AB83" s="267"/>
-      <c r="AC83" s="267"/>
-      <c r="AD83" s="267"/>
-      <c r="AE83" s="267"/>
-      <c r="AF83" s="267"/>
-      <c r="AG83" s="268"/>
-      <c r="AH83" s="269" t="s">
+      <c r="AB83" s="234"/>
+      <c r="AC83" s="234"/>
+      <c r="AD83" s="234"/>
+      <c r="AE83" s="234"/>
+      <c r="AF83" s="234"/>
+      <c r="AG83" s="235"/>
+      <c r="AH83" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="AI83" s="270"/>
-      <c r="AJ83" s="270"/>
-      <c r="AK83" s="270"/>
-      <c r="AL83" s="271"/>
-      <c r="AM83" s="266" t="s">
-        <v>154</v>
+      <c r="AI83" s="262"/>
+      <c r="AJ83" s="262"/>
+      <c r="AK83" s="262"/>
+      <c r="AL83" s="263"/>
+      <c r="AM83" s="233" t="s">
+        <v>132</v>
       </c>
-      <c r="AN83" s="267"/>
-      <c r="AO83" s="267"/>
-      <c r="AP83" s="267"/>
-      <c r="AQ83" s="267"/>
-      <c r="AR83" s="267"/>
-      <c r="AS83" s="267"/>
-      <c r="AT83" s="267"/>
-      <c r="AU83" s="267"/>
-      <c r="AV83" s="267"/>
-      <c r="AW83" s="272"/>
+      <c r="AN83" s="234"/>
+      <c r="AO83" s="234"/>
+      <c r="AP83" s="234"/>
+      <c r="AQ83" s="234"/>
+      <c r="AR83" s="234"/>
+      <c r="AS83" s="234"/>
+      <c r="AT83" s="234"/>
+      <c r="AU83" s="234"/>
+      <c r="AV83" s="234"/>
+      <c r="AW83" s="264"/>
     </row>
     <row r="84" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A84" s="21"/>
@@ -21778,7 +21760,7 @@
       <c r="A86" s="21"/>
       <c r="B86" s="28"/>
       <c r="C86" s="18" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
@@ -21831,7 +21813,7 @@
       <c r="A87" s="21"/>
       <c r="B87" s="28"/>
       <c r="C87" s="18" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
@@ -21884,7 +21866,7 @@
       <c r="A88" s="21"/>
       <c r="B88" s="28"/>
       <c r="C88" s="18" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
@@ -23538,183 +23520,183 @@
       <c r="AW120" s="162"/>
     </row>
     <row r="121" spans="1:50" s="19" customFormat="1" ht="21" customHeight="1" thickTop="1">
-      <c r="A121" s="237" t="s">
-        <v>89</v>
+      <c r="A121" s="223" t="s">
+        <v>88</v>
       </c>
-      <c r="B121" s="238"/>
-      <c r="C121" s="238"/>
-      <c r="D121" s="238"/>
-      <c r="E121" s="238"/>
-      <c r="F121" s="238"/>
-      <c r="G121" s="238"/>
-      <c r="H121" s="238"/>
-      <c r="I121" s="239"/>
-      <c r="J121" s="246" t="s">
+      <c r="B121" s="224"/>
+      <c r="C121" s="224"/>
+      <c r="D121" s="224"/>
+      <c r="E121" s="224"/>
+      <c r="F121" s="224"/>
+      <c r="G121" s="224"/>
+      <c r="H121" s="224"/>
+      <c r="I121" s="225"/>
+      <c r="J121" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="K121" s="238"/>
-      <c r="L121" s="238"/>
-      <c r="M121" s="238"/>
-      <c r="N121" s="238"/>
-      <c r="O121" s="239"/>
-      <c r="P121" s="246" t="s">
+      <c r="K121" s="224"/>
+      <c r="L121" s="224"/>
+      <c r="M121" s="224"/>
+      <c r="N121" s="224"/>
+      <c r="O121" s="225"/>
+      <c r="P121" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="Q121" s="238"/>
-      <c r="R121" s="238"/>
-      <c r="S121" s="238"/>
-      <c r="T121" s="238"/>
-      <c r="U121" s="239"/>
-      <c r="V121" s="252" t="s">
+      <c r="Q121" s="224"/>
+      <c r="R121" s="224"/>
+      <c r="S121" s="224"/>
+      <c r="T121" s="224"/>
+      <c r="U121" s="225"/>
+      <c r="V121" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="W121" s="253"/>
-      <c r="X121" s="253"/>
-      <c r="Y121" s="253"/>
-      <c r="Z121" s="254"/>
-      <c r="AA121" s="258" t="s">
-        <v>124</v>
+      <c r="W121" s="240"/>
+      <c r="X121" s="240"/>
+      <c r="Y121" s="240"/>
+      <c r="Z121" s="241"/>
+      <c r="AA121" s="245" t="s">
+        <v>106</v>
       </c>
-      <c r="AB121" s="238"/>
-      <c r="AC121" s="238"/>
-      <c r="AD121" s="238"/>
-      <c r="AE121" s="238"/>
-      <c r="AF121" s="238"/>
-      <c r="AG121" s="238"/>
-      <c r="AH121" s="238"/>
-      <c r="AI121" s="238"/>
-      <c r="AJ121" s="238"/>
-      <c r="AK121" s="238"/>
-      <c r="AL121" s="239"/>
-      <c r="AM121" s="247" t="s">
+      <c r="AB121" s="224"/>
+      <c r="AC121" s="224"/>
+      <c r="AD121" s="224"/>
+      <c r="AE121" s="224"/>
+      <c r="AF121" s="224"/>
+      <c r="AG121" s="224"/>
+      <c r="AH121" s="224"/>
+      <c r="AI121" s="224"/>
+      <c r="AJ121" s="224"/>
+      <c r="AK121" s="224"/>
+      <c r="AL121" s="225"/>
+      <c r="AM121" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="AN121" s="248"/>
-      <c r="AO121" s="260"/>
-      <c r="AP121" s="261"/>
-      <c r="AQ121" s="262"/>
-      <c r="AR121" s="247" t="s">
+      <c r="AN121" s="260"/>
+      <c r="AO121" s="265"/>
+      <c r="AP121" s="266"/>
+      <c r="AQ121" s="267"/>
+      <c r="AR121" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="AS121" s="248"/>
-      <c r="AT121" s="249"/>
-      <c r="AU121" s="250"/>
-      <c r="AV121" s="250"/>
-      <c r="AW121" s="251"/>
+      <c r="AS121" s="260"/>
+      <c r="AT121" s="276"/>
+      <c r="AU121" s="277"/>
+      <c r="AV121" s="277"/>
+      <c r="AW121" s="278"/>
     </row>
     <row r="122" spans="1:50" s="19" customFormat="1" ht="21" customHeight="1">
-      <c r="A122" s="240"/>
-      <c r="B122" s="241"/>
-      <c r="C122" s="241"/>
-      <c r="D122" s="241"/>
-      <c r="E122" s="241"/>
-      <c r="F122" s="241"/>
-      <c r="G122" s="241"/>
-      <c r="H122" s="241"/>
-      <c r="I122" s="242"/>
-      <c r="J122" s="240"/>
-      <c r="K122" s="241"/>
-      <c r="L122" s="241"/>
-      <c r="M122" s="241"/>
-      <c r="N122" s="241"/>
-      <c r="O122" s="242"/>
-      <c r="P122" s="240"/>
-      <c r="Q122" s="241"/>
-      <c r="R122" s="241"/>
-      <c r="S122" s="241"/>
-      <c r="T122" s="241"/>
-      <c r="U122" s="242"/>
-      <c r="V122" s="255"/>
-      <c r="W122" s="256"/>
-      <c r="X122" s="256"/>
-      <c r="Y122" s="256"/>
-      <c r="Z122" s="257"/>
-      <c r="AA122" s="259"/>
-      <c r="AB122" s="241"/>
-      <c r="AC122" s="241"/>
-      <c r="AD122" s="241"/>
-      <c r="AE122" s="241"/>
-      <c r="AF122" s="241"/>
-      <c r="AG122" s="241"/>
-      <c r="AH122" s="241"/>
-      <c r="AI122" s="241"/>
-      <c r="AJ122" s="241"/>
-      <c r="AK122" s="241"/>
-      <c r="AL122" s="242"/>
-      <c r="AM122" s="273" t="s">
+      <c r="A122" s="226"/>
+      <c r="B122" s="227"/>
+      <c r="C122" s="227"/>
+      <c r="D122" s="227"/>
+      <c r="E122" s="227"/>
+      <c r="F122" s="227"/>
+      <c r="G122" s="227"/>
+      <c r="H122" s="227"/>
+      <c r="I122" s="228"/>
+      <c r="J122" s="226"/>
+      <c r="K122" s="227"/>
+      <c r="L122" s="227"/>
+      <c r="M122" s="227"/>
+      <c r="N122" s="227"/>
+      <c r="O122" s="228"/>
+      <c r="P122" s="226"/>
+      <c r="Q122" s="227"/>
+      <c r="R122" s="227"/>
+      <c r="S122" s="227"/>
+      <c r="T122" s="227"/>
+      <c r="U122" s="228"/>
+      <c r="V122" s="242"/>
+      <c r="W122" s="243"/>
+      <c r="X122" s="243"/>
+      <c r="Y122" s="243"/>
+      <c r="Z122" s="244"/>
+      <c r="AA122" s="246"/>
+      <c r="AB122" s="227"/>
+      <c r="AC122" s="227"/>
+      <c r="AD122" s="227"/>
+      <c r="AE122" s="227"/>
+      <c r="AF122" s="227"/>
+      <c r="AG122" s="227"/>
+      <c r="AH122" s="227"/>
+      <c r="AI122" s="227"/>
+      <c r="AJ122" s="227"/>
+      <c r="AK122" s="227"/>
+      <c r="AL122" s="228"/>
+      <c r="AM122" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="AN122" s="274"/>
-      <c r="AO122" s="275"/>
-      <c r="AP122" s="276"/>
-      <c r="AQ122" s="277"/>
-      <c r="AR122" s="273" t="s">
+      <c r="AN122" s="269"/>
+      <c r="AO122" s="270"/>
+      <c r="AP122" s="271"/>
+      <c r="AQ122" s="272"/>
+      <c r="AR122" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="AS122" s="274"/>
-      <c r="AT122" s="278"/>
-      <c r="AU122" s="279"/>
-      <c r="AV122" s="279"/>
-      <c r="AW122" s="280"/>
+      <c r="AS122" s="269"/>
+      <c r="AT122" s="273"/>
+      <c r="AU122" s="274"/>
+      <c r="AV122" s="274"/>
+      <c r="AW122" s="275"/>
     </row>
     <row r="123" spans="1:50" ht="21" customHeight="1" thickBot="1">
-      <c r="A123" s="243"/>
-      <c r="B123" s="244"/>
-      <c r="C123" s="244"/>
-      <c r="D123" s="244"/>
-      <c r="E123" s="244"/>
-      <c r="F123" s="244"/>
-      <c r="G123" s="244"/>
-      <c r="H123" s="244"/>
-      <c r="I123" s="245"/>
-      <c r="J123" s="243"/>
-      <c r="K123" s="244"/>
-      <c r="L123" s="244"/>
-      <c r="M123" s="244"/>
-      <c r="N123" s="244"/>
-      <c r="O123" s="245"/>
-      <c r="P123" s="243"/>
-      <c r="Q123" s="244"/>
-      <c r="R123" s="244"/>
-      <c r="S123" s="244"/>
-      <c r="T123" s="244"/>
-      <c r="U123" s="245"/>
-      <c r="V123" s="263" t="s">
+      <c r="A123" s="229"/>
+      <c r="B123" s="230"/>
+      <c r="C123" s="230"/>
+      <c r="D123" s="230"/>
+      <c r="E123" s="230"/>
+      <c r="F123" s="230"/>
+      <c r="G123" s="230"/>
+      <c r="H123" s="230"/>
+      <c r="I123" s="231"/>
+      <c r="J123" s="229"/>
+      <c r="K123" s="230"/>
+      <c r="L123" s="230"/>
+      <c r="M123" s="230"/>
+      <c r="N123" s="230"/>
+      <c r="O123" s="231"/>
+      <c r="P123" s="229"/>
+      <c r="Q123" s="230"/>
+      <c r="R123" s="230"/>
+      <c r="S123" s="230"/>
+      <c r="T123" s="230"/>
+      <c r="U123" s="231"/>
+      <c r="V123" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="W123" s="264"/>
-      <c r="X123" s="264"/>
-      <c r="Y123" s="264"/>
-      <c r="Z123" s="265"/>
-      <c r="AA123" s="266" t="s">
-        <v>122</v>
+      <c r="W123" s="237"/>
+      <c r="X123" s="237"/>
+      <c r="Y123" s="237"/>
+      <c r="Z123" s="238"/>
+      <c r="AA123" s="233" t="s">
+        <v>104</v>
       </c>
-      <c r="AB123" s="267"/>
-      <c r="AC123" s="267"/>
-      <c r="AD123" s="267"/>
-      <c r="AE123" s="267"/>
-      <c r="AF123" s="267"/>
-      <c r="AG123" s="268"/>
-      <c r="AH123" s="269" t="s">
+      <c r="AB123" s="234"/>
+      <c r="AC123" s="234"/>
+      <c r="AD123" s="234"/>
+      <c r="AE123" s="234"/>
+      <c r="AF123" s="234"/>
+      <c r="AG123" s="235"/>
+      <c r="AH123" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="AI123" s="270"/>
-      <c r="AJ123" s="270"/>
-      <c r="AK123" s="270"/>
-      <c r="AL123" s="271"/>
-      <c r="AM123" s="266" t="s">
-        <v>154</v>
+      <c r="AI123" s="262"/>
+      <c r="AJ123" s="262"/>
+      <c r="AK123" s="262"/>
+      <c r="AL123" s="263"/>
+      <c r="AM123" s="233" t="s">
+        <v>132</v>
       </c>
-      <c r="AN123" s="267"/>
-      <c r="AO123" s="267"/>
-      <c r="AP123" s="267"/>
-      <c r="AQ123" s="267"/>
-      <c r="AR123" s="267"/>
-      <c r="AS123" s="267"/>
-      <c r="AT123" s="267"/>
-      <c r="AU123" s="267"/>
-      <c r="AV123" s="267"/>
-      <c r="AW123" s="272"/>
+      <c r="AN123" s="234"/>
+      <c r="AO123" s="234"/>
+      <c r="AP123" s="234"/>
+      <c r="AQ123" s="234"/>
+      <c r="AR123" s="234"/>
+      <c r="AS123" s="234"/>
+      <c r="AT123" s="234"/>
+      <c r="AU123" s="234"/>
+      <c r="AV123" s="234"/>
+      <c r="AW123" s="264"/>
     </row>
     <row r="124" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A124" s="21"/>
@@ -24931,7 +24913,7 @@
       <c r="T147" s="51"/>
       <c r="U147" s="54"/>
       <c r="V147" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W147" s="49"/>
       <c r="X147" s="50"/>
@@ -25645,6 +25627,182 @@
     <row r="161" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="200">
+    <mergeCell ref="AE77:AI78"/>
+    <mergeCell ref="AJ77:AM78"/>
+    <mergeCell ref="AN77:AR78"/>
+    <mergeCell ref="AS77:AV78"/>
+    <mergeCell ref="AJ71:AM72"/>
+    <mergeCell ref="AN71:AR72"/>
+    <mergeCell ref="AS71:AV72"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="D63:H64"/>
+    <mergeCell ref="I63:Z64"/>
+    <mergeCell ref="B77:C78"/>
+    <mergeCell ref="D77:H78"/>
+    <mergeCell ref="I77:Z78"/>
+    <mergeCell ref="AA77:AD78"/>
+    <mergeCell ref="AE75:AI76"/>
+    <mergeCell ref="AJ75:AM76"/>
+    <mergeCell ref="AN75:AR76"/>
+    <mergeCell ref="AS75:AV76"/>
+    <mergeCell ref="B75:C76"/>
+    <mergeCell ref="D75:H76"/>
+    <mergeCell ref="I75:Z76"/>
+    <mergeCell ref="AA75:AD76"/>
+    <mergeCell ref="AJ63:AM64"/>
+    <mergeCell ref="AN63:AR64"/>
+    <mergeCell ref="A121:I123"/>
+    <mergeCell ref="J121:O123"/>
+    <mergeCell ref="P121:U123"/>
+    <mergeCell ref="AR121:AS121"/>
+    <mergeCell ref="AT121:AW121"/>
+    <mergeCell ref="V121:Z122"/>
+    <mergeCell ref="AA121:AL122"/>
+    <mergeCell ref="AM121:AN121"/>
+    <mergeCell ref="AO121:AQ121"/>
+    <mergeCell ref="V123:Z123"/>
+    <mergeCell ref="AA123:AG123"/>
+    <mergeCell ref="AH123:AL123"/>
+    <mergeCell ref="AM123:AW123"/>
+    <mergeCell ref="AM122:AN122"/>
+    <mergeCell ref="AO122:AQ122"/>
+    <mergeCell ref="AR122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AA83:AG83"/>
+    <mergeCell ref="AH83:AL83"/>
+    <mergeCell ref="AM83:AW83"/>
+    <mergeCell ref="AA81:AL82"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="AM82:AN82"/>
+    <mergeCell ref="AO82:AQ82"/>
+    <mergeCell ref="AR82:AS82"/>
+    <mergeCell ref="AT82:AW82"/>
+    <mergeCell ref="AO81:AQ81"/>
+    <mergeCell ref="AR81:AS81"/>
+    <mergeCell ref="AT41:AW41"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AO42:AQ42"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AT42:AW42"/>
+    <mergeCell ref="AA41:AL42"/>
+    <mergeCell ref="AA43:AG43"/>
+    <mergeCell ref="AH43:AL43"/>
+    <mergeCell ref="AM43:AW43"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="A81:I83"/>
+    <mergeCell ref="J81:O83"/>
+    <mergeCell ref="A41:I43"/>
+    <mergeCell ref="J41:O43"/>
+    <mergeCell ref="P41:U43"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:Z52"/>
+    <mergeCell ref="P81:U83"/>
+    <mergeCell ref="V81:Z82"/>
+    <mergeCell ref="V83:Z83"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="D67:H68"/>
+    <mergeCell ref="I67:Z68"/>
+    <mergeCell ref="AJ51:AM52"/>
+    <mergeCell ref="AN51:AR52"/>
+    <mergeCell ref="AE73:AI74"/>
+    <mergeCell ref="AJ73:AM74"/>
+    <mergeCell ref="AN73:AR74"/>
+    <mergeCell ref="AS73:AV74"/>
+    <mergeCell ref="B73:C74"/>
+    <mergeCell ref="D73:H74"/>
+    <mergeCell ref="I73:Z74"/>
+    <mergeCell ref="AA73:AD74"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:Z70"/>
+    <mergeCell ref="AA69:AD70"/>
+    <mergeCell ref="AE69:AI70"/>
+    <mergeCell ref="AJ69:AM70"/>
+    <mergeCell ref="AN69:AR70"/>
+    <mergeCell ref="AS69:AV70"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:H72"/>
+    <mergeCell ref="I71:Z72"/>
+    <mergeCell ref="AA71:AD72"/>
+    <mergeCell ref="AE71:AI72"/>
+    <mergeCell ref="AS63:AV64"/>
+    <mergeCell ref="AA67:AD68"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D65:H66"/>
+    <mergeCell ref="I65:Z66"/>
+    <mergeCell ref="AA65:AD66"/>
+    <mergeCell ref="AJ67:AM68"/>
+    <mergeCell ref="AN67:AR68"/>
+    <mergeCell ref="AS67:AV68"/>
+    <mergeCell ref="AJ65:AM66"/>
+    <mergeCell ref="AN65:AR66"/>
+    <mergeCell ref="AS65:AV66"/>
+    <mergeCell ref="AE67:AI68"/>
+    <mergeCell ref="AJ57:AM58"/>
+    <mergeCell ref="AN57:AR58"/>
+    <mergeCell ref="AS57:AV58"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:H62"/>
+    <mergeCell ref="I61:Z62"/>
+    <mergeCell ref="AA61:AD62"/>
+    <mergeCell ref="AE61:AI62"/>
+    <mergeCell ref="AJ61:AM62"/>
+    <mergeCell ref="AN61:AR62"/>
+    <mergeCell ref="AS61:AV62"/>
+    <mergeCell ref="D59:H60"/>
+    <mergeCell ref="I59:Z60"/>
+    <mergeCell ref="AA59:AD60"/>
+    <mergeCell ref="AE59:AI60"/>
+    <mergeCell ref="AJ59:AM60"/>
+    <mergeCell ref="AN59:AR60"/>
+    <mergeCell ref="AS59:AV60"/>
+    <mergeCell ref="AA47:AD48"/>
+    <mergeCell ref="AE47:AM47"/>
+    <mergeCell ref="AN47:AV47"/>
+    <mergeCell ref="D53:H54"/>
+    <mergeCell ref="I53:Z54"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="AE48:AI48"/>
+    <mergeCell ref="AJ48:AM48"/>
+    <mergeCell ref="AN48:AR48"/>
+    <mergeCell ref="AS48:AV48"/>
+    <mergeCell ref="AS55:AV56"/>
+    <mergeCell ref="AA53:AD54"/>
+    <mergeCell ref="AJ53:AM54"/>
+    <mergeCell ref="AN53:AR54"/>
+    <mergeCell ref="AS53:AV54"/>
+    <mergeCell ref="AJ55:AM56"/>
+    <mergeCell ref="AN55:AR56"/>
+    <mergeCell ref="AS51:AV52"/>
+    <mergeCell ref="AS49:AV50"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="D55:H56"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="D49:H50"/>
+    <mergeCell ref="I49:Z50"/>
+    <mergeCell ref="AA49:AD50"/>
+    <mergeCell ref="AE49:AI50"/>
+    <mergeCell ref="AE65:AI66"/>
+    <mergeCell ref="AE53:AI54"/>
+    <mergeCell ref="AE55:AI56"/>
+    <mergeCell ref="AE57:AI58"/>
+    <mergeCell ref="AA55:AD56"/>
+    <mergeCell ref="I55:Z56"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="D57:H58"/>
+    <mergeCell ref="I57:Z58"/>
+    <mergeCell ref="AA57:AD58"/>
+    <mergeCell ref="AA63:AD64"/>
+    <mergeCell ref="AE63:AI64"/>
+    <mergeCell ref="AE51:AI52"/>
+    <mergeCell ref="AA51:AD52"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -25669,182 +25827,6 @@
     <mergeCell ref="B47:C48"/>
     <mergeCell ref="D47:H48"/>
     <mergeCell ref="I47:Z48"/>
-    <mergeCell ref="AA49:AD50"/>
-    <mergeCell ref="AE49:AI50"/>
-    <mergeCell ref="AE65:AI66"/>
-    <mergeCell ref="AE53:AI54"/>
-    <mergeCell ref="AE55:AI56"/>
-    <mergeCell ref="AE57:AI58"/>
-    <mergeCell ref="AA55:AD56"/>
-    <mergeCell ref="I55:Z56"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="D57:H58"/>
-    <mergeCell ref="I57:Z58"/>
-    <mergeCell ref="AA57:AD58"/>
-    <mergeCell ref="AA63:AD64"/>
-    <mergeCell ref="AE63:AI64"/>
-    <mergeCell ref="AE51:AI52"/>
-    <mergeCell ref="AA51:AD52"/>
-    <mergeCell ref="AA47:AD48"/>
-    <mergeCell ref="AE47:AM47"/>
-    <mergeCell ref="AN47:AV47"/>
-    <mergeCell ref="D53:H54"/>
-    <mergeCell ref="I53:Z54"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="AE48:AI48"/>
-    <mergeCell ref="AJ48:AM48"/>
-    <mergeCell ref="AN48:AR48"/>
-    <mergeCell ref="AS48:AV48"/>
-    <mergeCell ref="AS55:AV56"/>
-    <mergeCell ref="AA53:AD54"/>
-    <mergeCell ref="AJ53:AM54"/>
-    <mergeCell ref="AN53:AR54"/>
-    <mergeCell ref="AS53:AV54"/>
-    <mergeCell ref="AJ55:AM56"/>
-    <mergeCell ref="AN55:AR56"/>
-    <mergeCell ref="AS51:AV52"/>
-    <mergeCell ref="AS49:AV50"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="D55:H56"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="D49:H50"/>
-    <mergeCell ref="I49:Z50"/>
-    <mergeCell ref="AJ57:AM58"/>
-    <mergeCell ref="AN57:AR58"/>
-    <mergeCell ref="AS57:AV58"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:H62"/>
-    <mergeCell ref="I61:Z62"/>
-    <mergeCell ref="AA61:AD62"/>
-    <mergeCell ref="AE61:AI62"/>
-    <mergeCell ref="AJ61:AM62"/>
-    <mergeCell ref="AN61:AR62"/>
-    <mergeCell ref="AS61:AV62"/>
-    <mergeCell ref="D59:H60"/>
-    <mergeCell ref="I59:Z60"/>
-    <mergeCell ref="AA59:AD60"/>
-    <mergeCell ref="AE59:AI60"/>
-    <mergeCell ref="AJ59:AM60"/>
-    <mergeCell ref="AN59:AR60"/>
-    <mergeCell ref="AS59:AV60"/>
-    <mergeCell ref="AA67:AD68"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="D65:H66"/>
-    <mergeCell ref="I65:Z66"/>
-    <mergeCell ref="AA65:AD66"/>
-    <mergeCell ref="AJ67:AM68"/>
-    <mergeCell ref="AN67:AR68"/>
-    <mergeCell ref="AS67:AV68"/>
-    <mergeCell ref="AJ65:AM66"/>
-    <mergeCell ref="AN65:AR66"/>
-    <mergeCell ref="AS65:AV66"/>
-    <mergeCell ref="AE67:AI68"/>
-    <mergeCell ref="AJ51:AM52"/>
-    <mergeCell ref="AN51:AR52"/>
-    <mergeCell ref="AE73:AI74"/>
-    <mergeCell ref="AJ73:AM74"/>
-    <mergeCell ref="AN73:AR74"/>
-    <mergeCell ref="AS73:AV74"/>
-    <mergeCell ref="B73:C74"/>
-    <mergeCell ref="D73:H74"/>
-    <mergeCell ref="I73:Z74"/>
-    <mergeCell ref="AA73:AD74"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:Z70"/>
-    <mergeCell ref="AA69:AD70"/>
-    <mergeCell ref="AE69:AI70"/>
-    <mergeCell ref="AJ69:AM70"/>
-    <mergeCell ref="AN69:AR70"/>
-    <mergeCell ref="AS69:AV70"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:H72"/>
-    <mergeCell ref="I71:Z72"/>
-    <mergeCell ref="AA71:AD72"/>
-    <mergeCell ref="AE71:AI72"/>
-    <mergeCell ref="AS63:AV64"/>
-    <mergeCell ref="A81:I83"/>
-    <mergeCell ref="J81:O83"/>
-    <mergeCell ref="A41:I43"/>
-    <mergeCell ref="J41:O43"/>
-    <mergeCell ref="P41:U43"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:Z52"/>
-    <mergeCell ref="P81:U83"/>
-    <mergeCell ref="V81:Z82"/>
-    <mergeCell ref="V83:Z83"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="D67:H68"/>
-    <mergeCell ref="I67:Z68"/>
-    <mergeCell ref="AT41:AW41"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AO42:AQ42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AT42:AW42"/>
-    <mergeCell ref="AA41:AL42"/>
-    <mergeCell ref="AA43:AG43"/>
-    <mergeCell ref="AH43:AL43"/>
-    <mergeCell ref="AM43:AW43"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AA83:AG83"/>
-    <mergeCell ref="AH83:AL83"/>
-    <mergeCell ref="AM83:AW83"/>
-    <mergeCell ref="AA81:AL82"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="AM82:AN82"/>
-    <mergeCell ref="AO82:AQ82"/>
-    <mergeCell ref="AR82:AS82"/>
-    <mergeCell ref="AT82:AW82"/>
-    <mergeCell ref="AO81:AQ81"/>
-    <mergeCell ref="AR81:AS81"/>
-    <mergeCell ref="A121:I123"/>
-    <mergeCell ref="J121:O123"/>
-    <mergeCell ref="P121:U123"/>
-    <mergeCell ref="AR121:AS121"/>
-    <mergeCell ref="AT121:AW121"/>
-    <mergeCell ref="V121:Z122"/>
-    <mergeCell ref="AA121:AL122"/>
-    <mergeCell ref="AM121:AN121"/>
-    <mergeCell ref="AO121:AQ121"/>
-    <mergeCell ref="V123:Z123"/>
-    <mergeCell ref="AA123:AG123"/>
-    <mergeCell ref="AH123:AL123"/>
-    <mergeCell ref="AM123:AW123"/>
-    <mergeCell ref="AM122:AN122"/>
-    <mergeCell ref="AO122:AQ122"/>
-    <mergeCell ref="AR122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AE77:AI78"/>
-    <mergeCell ref="AJ77:AM78"/>
-    <mergeCell ref="AN77:AR78"/>
-    <mergeCell ref="AS77:AV78"/>
-    <mergeCell ref="AJ71:AM72"/>
-    <mergeCell ref="AN71:AR72"/>
-    <mergeCell ref="AS71:AV72"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="D63:H64"/>
-    <mergeCell ref="I63:Z64"/>
-    <mergeCell ref="B77:C78"/>
-    <mergeCell ref="D77:H78"/>
-    <mergeCell ref="I77:Z78"/>
-    <mergeCell ref="AA77:AD78"/>
-    <mergeCell ref="AE75:AI76"/>
-    <mergeCell ref="AJ75:AM76"/>
-    <mergeCell ref="AN75:AR76"/>
-    <mergeCell ref="AS75:AV76"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="D75:H76"/>
-    <mergeCell ref="I75:Z76"/>
-    <mergeCell ref="AA75:AD76"/>
-    <mergeCell ref="AJ63:AM64"/>
-    <mergeCell ref="AN63:AR64"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -25860,15 +25842,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:BF208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z156" sqref="Z156"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A71" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="19" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="28" customWidth="1"/>
@@ -25878,183 +25860,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="237" t="s">
-        <v>89</v>
+      <c r="A1" s="223" t="s">
+        <v>88</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="246" t="s">
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="246" t="s">
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="252" t="s">
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="224"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="258" t="s">
-        <v>124</v>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+      <c r="Y1" s="240"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="245" t="s">
+        <v>106</v>
       </c>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="238"/>
-      <c r="AG1" s="238"/>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="238"/>
-      <c r="AJ1" s="238"/>
-      <c r="AK1" s="238"/>
-      <c r="AL1" s="239"/>
-      <c r="AM1" s="247" t="s">
+      <c r="AB1" s="224"/>
+      <c r="AC1" s="224"/>
+      <c r="AD1" s="224"/>
+      <c r="AE1" s="224"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="224"/>
+      <c r="AH1" s="224"/>
+      <c r="AI1" s="224"/>
+      <c r="AJ1" s="224"/>
+      <c r="AK1" s="224"/>
+      <c r="AL1" s="225"/>
+      <c r="AM1" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="260"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="262"/>
-      <c r="AR1" s="247" t="s">
+      <c r="AN1" s="260"/>
+      <c r="AO1" s="265"/>
+      <c r="AP1" s="266"/>
+      <c r="AQ1" s="267"/>
+      <c r="AR1" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" s="248"/>
-      <c r="AT1" s="249"/>
-      <c r="AU1" s="250"/>
-      <c r="AV1" s="250"/>
-      <c r="AW1" s="251"/>
+      <c r="AS1" s="260"/>
+      <c r="AT1" s="276"/>
+      <c r="AU1" s="277"/>
+      <c r="AV1" s="277"/>
+      <c r="AW1" s="278"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="240"/>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="241"/>
-      <c r="O2" s="242"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="241"/>
-      <c r="R2" s="241"/>
-      <c r="S2" s="241"/>
-      <c r="T2" s="241"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="259"/>
-      <c r="AB2" s="241"/>
-      <c r="AC2" s="241"/>
-      <c r="AD2" s="241"/>
-      <c r="AE2" s="241"/>
-      <c r="AF2" s="241"/>
-      <c r="AG2" s="241"/>
-      <c r="AH2" s="241"/>
-      <c r="AI2" s="241"/>
-      <c r="AJ2" s="241"/>
-      <c r="AK2" s="241"/>
-      <c r="AL2" s="242"/>
-      <c r="AM2" s="273" t="s">
+      <c r="A2" s="226"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="228"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="227"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="228"/>
+      <c r="V2" s="242"/>
+      <c r="W2" s="243"/>
+      <c r="X2" s="243"/>
+      <c r="Y2" s="243"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="227"/>
+      <c r="AC2" s="227"/>
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="227"/>
+      <c r="AH2" s="227"/>
+      <c r="AI2" s="227"/>
+      <c r="AJ2" s="227"/>
+      <c r="AK2" s="227"/>
+      <c r="AL2" s="228"/>
+      <c r="AM2" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="274"/>
-      <c r="AO2" s="275"/>
-      <c r="AP2" s="276"/>
-      <c r="AQ2" s="277"/>
-      <c r="AR2" s="273" t="s">
+      <c r="AN2" s="269"/>
+      <c r="AO2" s="270"/>
+      <c r="AP2" s="271"/>
+      <c r="AQ2" s="272"/>
+      <c r="AR2" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="AS2" s="274"/>
-      <c r="AT2" s="278"/>
-      <c r="AU2" s="279"/>
-      <c r="AV2" s="279"/>
-      <c r="AW2" s="280"/>
+      <c r="AS2" s="269"/>
+      <c r="AT2" s="273"/>
+      <c r="AU2" s="274"/>
+      <c r="AV2" s="274"/>
+      <c r="AW2" s="275"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="243"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="245"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="263" t="s">
+      <c r="A3" s="229"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="231"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="230"/>
+      <c r="R3" s="230"/>
+      <c r="S3" s="230"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="231"/>
+      <c r="V3" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="265"/>
-      <c r="AA3" s="266" t="s">
-        <v>122</v>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="233" t="s">
+        <v>104</v>
       </c>
-      <c r="AB3" s="267"/>
-      <c r="AC3" s="267"/>
-      <c r="AD3" s="267"/>
-      <c r="AE3" s="267"/>
-      <c r="AF3" s="267"/>
-      <c r="AG3" s="268"/>
-      <c r="AH3" s="269" t="s">
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="234"/>
+      <c r="AD3" s="234"/>
+      <c r="AE3" s="234"/>
+      <c r="AF3" s="234"/>
+      <c r="AG3" s="235"/>
+      <c r="AH3" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="AI3" s="270"/>
-      <c r="AJ3" s="270"/>
-      <c r="AK3" s="270"/>
-      <c r="AL3" s="271"/>
-      <c r="AM3" s="266" t="s">
-        <v>123</v>
+      <c r="AI3" s="262"/>
+      <c r="AJ3" s="262"/>
+      <c r="AK3" s="262"/>
+      <c r="AL3" s="263"/>
+      <c r="AM3" s="233" t="s">
+        <v>105</v>
       </c>
-      <c r="AN3" s="267"/>
-      <c r="AO3" s="267"/>
-      <c r="AP3" s="267"/>
-      <c r="AQ3" s="267"/>
-      <c r="AR3" s="267"/>
-      <c r="AS3" s="267"/>
-      <c r="AT3" s="267"/>
-      <c r="AU3" s="267"/>
-      <c r="AV3" s="267"/>
-      <c r="AW3" s="272"/>
+      <c r="AN3" s="234"/>
+      <c r="AO3" s="234"/>
+      <c r="AP3" s="234"/>
+      <c r="AQ3" s="234"/>
+      <c r="AR3" s="234"/>
+      <c r="AS3" s="234"/>
+      <c r="AT3" s="234"/>
+      <c r="AU3" s="234"/>
+      <c r="AV3" s="234"/>
+      <c r="AW3" s="264"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="21"/>
@@ -26105,7 +26087,7 @@
       <c r="AU4" s="23"/>
       <c r="AW4" s="157"/>
     </row>
-    <row r="5" spans="1:58" ht="14">
+    <row r="5" spans="1:58" ht="13.8">
       <c r="A5" s="21"/>
       <c r="B5" s="28" t="s">
         <v>60</v>
@@ -28292,184 +28274,184 @@
       <c r="AQ72" s="20"/>
       <c r="AW72" s="157"/>
     </row>
-    <row r="73" spans="1:50" ht="20" customHeight="1" thickTop="1">
-      <c r="A73" s="237" t="s">
-        <v>89</v>
+    <row r="73" spans="1:50" ht="19.95" customHeight="1" thickTop="1">
+      <c r="A73" s="223" t="s">
+        <v>88</v>
       </c>
-      <c r="B73" s="238"/>
-      <c r="C73" s="238"/>
-      <c r="D73" s="238"/>
-      <c r="E73" s="238"/>
-      <c r="F73" s="238"/>
-      <c r="G73" s="238"/>
-      <c r="H73" s="238"/>
-      <c r="I73" s="239"/>
-      <c r="J73" s="246" t="s">
+      <c r="B73" s="224"/>
+      <c r="C73" s="224"/>
+      <c r="D73" s="224"/>
+      <c r="E73" s="224"/>
+      <c r="F73" s="224"/>
+      <c r="G73" s="224"/>
+      <c r="H73" s="224"/>
+      <c r="I73" s="225"/>
+      <c r="J73" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="238"/>
-      <c r="L73" s="238"/>
-      <c r="M73" s="238"/>
-      <c r="N73" s="238"/>
-      <c r="O73" s="239"/>
-      <c r="P73" s="246" t="s">
+      <c r="K73" s="224"/>
+      <c r="L73" s="224"/>
+      <c r="M73" s="224"/>
+      <c r="N73" s="224"/>
+      <c r="O73" s="225"/>
+      <c r="P73" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="Q73" s="238"/>
-      <c r="R73" s="238"/>
-      <c r="S73" s="238"/>
-      <c r="T73" s="238"/>
-      <c r="U73" s="239"/>
-      <c r="V73" s="252" t="s">
+      <c r="Q73" s="224"/>
+      <c r="R73" s="224"/>
+      <c r="S73" s="224"/>
+      <c r="T73" s="224"/>
+      <c r="U73" s="225"/>
+      <c r="V73" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="W73" s="253"/>
-      <c r="X73" s="253"/>
-      <c r="Y73" s="253"/>
-      <c r="Z73" s="254"/>
-      <c r="AA73" s="258" t="s">
-        <v>124</v>
+      <c r="W73" s="240"/>
+      <c r="X73" s="240"/>
+      <c r="Y73" s="240"/>
+      <c r="Z73" s="241"/>
+      <c r="AA73" s="245" t="s">
+        <v>106</v>
       </c>
-      <c r="AB73" s="238"/>
-      <c r="AC73" s="238"/>
-      <c r="AD73" s="238"/>
-      <c r="AE73" s="238"/>
-      <c r="AF73" s="238"/>
-      <c r="AG73" s="238"/>
-      <c r="AH73" s="238"/>
-      <c r="AI73" s="238"/>
-      <c r="AJ73" s="238"/>
-      <c r="AK73" s="238"/>
-      <c r="AL73" s="239"/>
-      <c r="AM73" s="247" t="s">
+      <c r="AB73" s="224"/>
+      <c r="AC73" s="224"/>
+      <c r="AD73" s="224"/>
+      <c r="AE73" s="224"/>
+      <c r="AF73" s="224"/>
+      <c r="AG73" s="224"/>
+      <c r="AH73" s="224"/>
+      <c r="AI73" s="224"/>
+      <c r="AJ73" s="224"/>
+      <c r="AK73" s="224"/>
+      <c r="AL73" s="225"/>
+      <c r="AM73" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="AN73" s="248"/>
-      <c r="AO73" s="260"/>
-      <c r="AP73" s="261"/>
-      <c r="AQ73" s="262"/>
-      <c r="AR73" s="247" t="s">
+      <c r="AN73" s="260"/>
+      <c r="AO73" s="265"/>
+      <c r="AP73" s="266"/>
+      <c r="AQ73" s="267"/>
+      <c r="AR73" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="AS73" s="248"/>
-      <c r="AT73" s="249"/>
-      <c r="AU73" s="250"/>
-      <c r="AV73" s="250"/>
-      <c r="AW73" s="251"/>
-    </row>
-    <row r="74" spans="1:50" ht="20" customHeight="1">
-      <c r="A74" s="240"/>
-      <c r="B74" s="241"/>
-      <c r="C74" s="241"/>
-      <c r="D74" s="241"/>
-      <c r="E74" s="241"/>
-      <c r="F74" s="241"/>
-      <c r="G74" s="241"/>
-      <c r="H74" s="241"/>
-      <c r="I74" s="242"/>
-      <c r="J74" s="240"/>
-      <c r="K74" s="241"/>
-      <c r="L74" s="241"/>
-      <c r="M74" s="241"/>
-      <c r="N74" s="241"/>
-      <c r="O74" s="242"/>
-      <c r="P74" s="240"/>
-      <c r="Q74" s="241"/>
-      <c r="R74" s="241"/>
-      <c r="S74" s="241"/>
-      <c r="T74" s="241"/>
-      <c r="U74" s="242"/>
-      <c r="V74" s="255"/>
-      <c r="W74" s="256"/>
-      <c r="X74" s="256"/>
-      <c r="Y74" s="256"/>
-      <c r="Z74" s="257"/>
-      <c r="AA74" s="259"/>
-      <c r="AB74" s="241"/>
-      <c r="AC74" s="241"/>
-      <c r="AD74" s="241"/>
-      <c r="AE74" s="241"/>
-      <c r="AF74" s="241"/>
-      <c r="AG74" s="241"/>
-      <c r="AH74" s="241"/>
-      <c r="AI74" s="241"/>
-      <c r="AJ74" s="241"/>
-      <c r="AK74" s="241"/>
-      <c r="AL74" s="242"/>
-      <c r="AM74" s="273" t="s">
+      <c r="AS73" s="260"/>
+      <c r="AT73" s="276"/>
+      <c r="AU73" s="277"/>
+      <c r="AV73" s="277"/>
+      <c r="AW73" s="278"/>
+    </row>
+    <row r="74" spans="1:50" ht="19.95" customHeight="1">
+      <c r="A74" s="226"/>
+      <c r="B74" s="227"/>
+      <c r="C74" s="227"/>
+      <c r="D74" s="227"/>
+      <c r="E74" s="227"/>
+      <c r="F74" s="227"/>
+      <c r="G74" s="227"/>
+      <c r="H74" s="227"/>
+      <c r="I74" s="228"/>
+      <c r="J74" s="226"/>
+      <c r="K74" s="227"/>
+      <c r="L74" s="227"/>
+      <c r="M74" s="227"/>
+      <c r="N74" s="227"/>
+      <c r="O74" s="228"/>
+      <c r="P74" s="226"/>
+      <c r="Q74" s="227"/>
+      <c r="R74" s="227"/>
+      <c r="S74" s="227"/>
+      <c r="T74" s="227"/>
+      <c r="U74" s="228"/>
+      <c r="V74" s="242"/>
+      <c r="W74" s="243"/>
+      <c r="X74" s="243"/>
+      <c r="Y74" s="243"/>
+      <c r="Z74" s="244"/>
+      <c r="AA74" s="246"/>
+      <c r="AB74" s="227"/>
+      <c r="AC74" s="227"/>
+      <c r="AD74" s="227"/>
+      <c r="AE74" s="227"/>
+      <c r="AF74" s="227"/>
+      <c r="AG74" s="227"/>
+      <c r="AH74" s="227"/>
+      <c r="AI74" s="227"/>
+      <c r="AJ74" s="227"/>
+      <c r="AK74" s="227"/>
+      <c r="AL74" s="228"/>
+      <c r="AM74" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="AN74" s="274"/>
-      <c r="AO74" s="275"/>
-      <c r="AP74" s="276"/>
-      <c r="AQ74" s="277"/>
-      <c r="AR74" s="273" t="s">
+      <c r="AN74" s="269"/>
+      <c r="AO74" s="270"/>
+      <c r="AP74" s="271"/>
+      <c r="AQ74" s="272"/>
+      <c r="AR74" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="AS74" s="274"/>
-      <c r="AT74" s="278"/>
-      <c r="AU74" s="279"/>
-      <c r="AV74" s="279"/>
-      <c r="AW74" s="280"/>
-    </row>
-    <row r="75" spans="1:50" ht="20" customHeight="1" thickBot="1">
-      <c r="A75" s="243"/>
-      <c r="B75" s="244"/>
-      <c r="C75" s="244"/>
-      <c r="D75" s="244"/>
-      <c r="E75" s="244"/>
-      <c r="F75" s="244"/>
-      <c r="G75" s="244"/>
-      <c r="H75" s="244"/>
-      <c r="I75" s="245"/>
-      <c r="J75" s="243"/>
-      <c r="K75" s="244"/>
-      <c r="L75" s="244"/>
-      <c r="M75" s="244"/>
-      <c r="N75" s="244"/>
-      <c r="O75" s="245"/>
-      <c r="P75" s="243"/>
-      <c r="Q75" s="244"/>
-      <c r="R75" s="244"/>
-      <c r="S75" s="244"/>
-      <c r="T75" s="244"/>
-      <c r="U75" s="245"/>
-      <c r="V75" s="263" t="s">
+      <c r="AS74" s="269"/>
+      <c r="AT74" s="273"/>
+      <c r="AU74" s="274"/>
+      <c r="AV74" s="274"/>
+      <c r="AW74" s="275"/>
+    </row>
+    <row r="75" spans="1:50" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A75" s="229"/>
+      <c r="B75" s="230"/>
+      <c r="C75" s="230"/>
+      <c r="D75" s="230"/>
+      <c r="E75" s="230"/>
+      <c r="F75" s="230"/>
+      <c r="G75" s="230"/>
+      <c r="H75" s="230"/>
+      <c r="I75" s="231"/>
+      <c r="J75" s="229"/>
+      <c r="K75" s="230"/>
+      <c r="L75" s="230"/>
+      <c r="M75" s="230"/>
+      <c r="N75" s="230"/>
+      <c r="O75" s="231"/>
+      <c r="P75" s="229"/>
+      <c r="Q75" s="230"/>
+      <c r="R75" s="230"/>
+      <c r="S75" s="230"/>
+      <c r="T75" s="230"/>
+      <c r="U75" s="231"/>
+      <c r="V75" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="W75" s="264"/>
-      <c r="X75" s="264"/>
-      <c r="Y75" s="264"/>
-      <c r="Z75" s="265"/>
-      <c r="AA75" s="266" t="s">
-        <v>122</v>
+      <c r="W75" s="237"/>
+      <c r="X75" s="237"/>
+      <c r="Y75" s="237"/>
+      <c r="Z75" s="238"/>
+      <c r="AA75" s="233" t="s">
+        <v>104</v>
       </c>
-      <c r="AB75" s="267"/>
-      <c r="AC75" s="267"/>
-      <c r="AD75" s="267"/>
-      <c r="AE75" s="267"/>
-      <c r="AF75" s="267"/>
-      <c r="AG75" s="268"/>
-      <c r="AH75" s="269" t="s">
+      <c r="AB75" s="234"/>
+      <c r="AC75" s="234"/>
+      <c r="AD75" s="234"/>
+      <c r="AE75" s="234"/>
+      <c r="AF75" s="234"/>
+      <c r="AG75" s="235"/>
+      <c r="AH75" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="AI75" s="270"/>
-      <c r="AJ75" s="270"/>
-      <c r="AK75" s="270"/>
-      <c r="AL75" s="271"/>
-      <c r="AM75" s="266" t="s">
-        <v>123</v>
+      <c r="AI75" s="262"/>
+      <c r="AJ75" s="262"/>
+      <c r="AK75" s="262"/>
+      <c r="AL75" s="263"/>
+      <c r="AM75" s="233" t="s">
+        <v>105</v>
       </c>
-      <c r="AN75" s="267"/>
-      <c r="AO75" s="267"/>
-      <c r="AP75" s="267"/>
-      <c r="AQ75" s="267"/>
-      <c r="AR75" s="267"/>
-      <c r="AS75" s="267"/>
-      <c r="AT75" s="267"/>
-      <c r="AU75" s="267"/>
-      <c r="AV75" s="267"/>
-      <c r="AW75" s="272"/>
+      <c r="AN75" s="234"/>
+      <c r="AO75" s="234"/>
+      <c r="AP75" s="234"/>
+      <c r="AQ75" s="234"/>
+      <c r="AR75" s="234"/>
+      <c r="AS75" s="234"/>
+      <c r="AT75" s="234"/>
+      <c r="AU75" s="234"/>
+      <c r="AV75" s="234"/>
+      <c r="AW75" s="264"/>
     </row>
     <row r="76" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A76" s="21"/>
@@ -28598,8 +28580,8 @@
       <c r="C81" s="81">
         <v>1</v>
       </c>
-      <c r="D81" s="414" t="s">
-        <v>125</v>
+      <c r="D81" s="219" t="s">
+        <v>107</v>
       </c>
       <c r="E81" s="83"/>
       <c r="F81" s="83"/>
@@ -28607,7 +28589,7 @@
       <c r="H81" s="84"/>
       <c r="I81" s="85"/>
       <c r="J81" s="86" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="K81" s="84"/>
       <c r="L81" s="84"/>
@@ -28625,7 +28607,7 @@
       </c>
       <c r="U81" s="89"/>
       <c r="V81" s="82" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="W81" s="83"/>
       <c r="X81" s="83"/>
@@ -28662,7 +28644,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E82" s="94"/>
       <c r="F82" s="94"/>
@@ -28670,7 +28652,7 @@
       <c r="H82" s="95"/>
       <c r="I82" s="96"/>
       <c r="J82" s="97" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="K82" s="95"/>
       <c r="L82" s="95"/>
@@ -28687,7 +28669,7 @@
       </c>
       <c r="U82" s="101"/>
       <c r="V82" s="93" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="W82" s="94"/>
       <c r="X82" s="94"/>
@@ -28724,7 +28706,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E83" s="94"/>
       <c r="F83" s="94"/>
@@ -28732,7 +28714,7 @@
       <c r="H83" s="95"/>
       <c r="I83" s="96"/>
       <c r="J83" s="97" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="K83" s="95"/>
       <c r="L83" s="95"/>
@@ -28750,7 +28732,7 @@
       </c>
       <c r="U83" s="101"/>
       <c r="V83" s="93" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="W83" s="94"/>
       <c r="X83" s="94"/>
@@ -28783,11 +28765,11 @@
     </row>
     <row r="84" spans="1:50" ht="13.5" customHeight="1">
       <c r="A84" s="21"/>
-      <c r="C84" s="410">
+      <c r="C84" s="215">
         <v>4</v>
       </c>
       <c r="D84" s="103" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E84" s="104"/>
       <c r="F84" s="104"/>
@@ -28795,7 +28777,7 @@
       <c r="H84" s="105"/>
       <c r="I84" s="106"/>
       <c r="J84" s="107" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K84" s="105"/>
       <c r="L84" s="105"/>
@@ -28808,17 +28790,17 @@
         <v>16</v>
       </c>
       <c r="S84" s="109"/>
-      <c r="T84" s="411" t="s">
+      <c r="T84" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="U84" s="412"/>
+      <c r="U84" s="217"/>
       <c r="V84" s="103" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="W84" s="104"/>
       <c r="X84" s="104"/>
       <c r="Y84" s="109"/>
-      <c r="Z84" s="413"/>
+      <c r="Z84" s="218"/>
       <c r="AA84" s="104"/>
       <c r="AB84" s="104"/>
       <c r="AC84" s="104"/>
@@ -28968,7 +28950,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="185" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E88" s="186"/>
       <c r="F88" s="186"/>
@@ -28980,7 +28962,7 @@
       <c r="L88" s="186"/>
       <c r="M88" s="187"/>
       <c r="N88" s="185" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="O88" s="186"/>
       <c r="P88" s="186"/>
@@ -30170,187 +30152,187 @@
       <c r="AW111" s="157"/>
     </row>
     <row r="112" spans="1:49" ht="18" customHeight="1" thickTop="1">
-      <c r="A112" s="237" t="s">
+      <c r="A112" s="223" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112" s="224"/>
+      <c r="C112" s="224"/>
+      <c r="D112" s="224"/>
+      <c r="E112" s="224"/>
+      <c r="F112" s="224"/>
+      <c r="G112" s="224"/>
+      <c r="H112" s="224"/>
+      <c r="I112" s="225"/>
+      <c r="J112" s="232" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" s="224"/>
+      <c r="L112" s="224"/>
+      <c r="M112" s="224"/>
+      <c r="N112" s="224"/>
+      <c r="O112" s="225"/>
+      <c r="P112" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q112" s="224"/>
+      <c r="R112" s="224"/>
+      <c r="S112" s="224"/>
+      <c r="T112" s="224"/>
+      <c r="U112" s="225"/>
+      <c r="V112" s="239" t="s">
+        <v>22</v>
+      </c>
+      <c r="W112" s="240"/>
+      <c r="X112" s="240"/>
+      <c r="Y112" s="240"/>
+      <c r="Z112" s="241"/>
+      <c r="AA112" s="245" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="238"/>
-      <c r="C112" s="238"/>
-      <c r="D112" s="238"/>
-      <c r="E112" s="238"/>
-      <c r="F112" s="238"/>
-      <c r="G112" s="238"/>
-      <c r="H112" s="238"/>
-      <c r="I112" s="239"/>
-      <c r="J112" s="246" t="s">
-        <v>18</v>
+      <c r="AB112" s="224"/>
+      <c r="AC112" s="224"/>
+      <c r="AD112" s="224"/>
+      <c r="AE112" s="224"/>
+      <c r="AF112" s="224"/>
+      <c r="AG112" s="224"/>
+      <c r="AH112" s="224"/>
+      <c r="AI112" s="224"/>
+      <c r="AJ112" s="224"/>
+      <c r="AK112" s="224"/>
+      <c r="AL112" s="225"/>
+      <c r="AM112" s="259" t="s">
+        <v>23</v>
       </c>
-      <c r="K112" s="238"/>
-      <c r="L112" s="238"/>
-      <c r="M112" s="238"/>
-      <c r="N112" s="238"/>
-      <c r="O112" s="239"/>
-      <c r="P112" s="246" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q112" s="238"/>
-      <c r="R112" s="238"/>
-      <c r="S112" s="238"/>
-      <c r="T112" s="238"/>
-      <c r="U112" s="239"/>
-      <c r="V112" s="252" t="s">
-        <v>22</v>
-      </c>
-      <c r="W112" s="253"/>
-      <c r="X112" s="253"/>
-      <c r="Y112" s="253"/>
-      <c r="Z112" s="254"/>
-      <c r="AA112" s="258" t="s">
+      <c r="AN112" s="260"/>
+      <c r="AO112" s="265" t="s">
         <v>90</v>
       </c>
-      <c r="AB112" s="238"/>
-      <c r="AC112" s="238"/>
-      <c r="AD112" s="238"/>
-      <c r="AE112" s="238"/>
-      <c r="AF112" s="238"/>
-      <c r="AG112" s="238"/>
-      <c r="AH112" s="238"/>
-      <c r="AI112" s="238"/>
-      <c r="AJ112" s="238"/>
-      <c r="AK112" s="238"/>
-      <c r="AL112" s="239"/>
-      <c r="AM112" s="247" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN112" s="248"/>
-      <c r="AO112" s="260" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP112" s="261"/>
-      <c r="AQ112" s="262"/>
-      <c r="AR112" s="247" t="s">
+      <c r="AP112" s="266"/>
+      <c r="AQ112" s="267"/>
+      <c r="AR112" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="AS112" s="248"/>
-      <c r="AT112" s="249">
+      <c r="AS112" s="260"/>
+      <c r="AT112" s="276">
         <v>43110</v>
       </c>
-      <c r="AU112" s="250"/>
-      <c r="AV112" s="250"/>
-      <c r="AW112" s="251"/>
+      <c r="AU112" s="277"/>
+      <c r="AV112" s="277"/>
+      <c r="AW112" s="278"/>
     </row>
     <row r="113" spans="1:49" ht="18" customHeight="1">
-      <c r="A113" s="240"/>
-      <c r="B113" s="241"/>
-      <c r="C113" s="241"/>
-      <c r="D113" s="241"/>
-      <c r="E113" s="241"/>
-      <c r="F113" s="241"/>
-      <c r="G113" s="241"/>
-      <c r="H113" s="241"/>
-      <c r="I113" s="242"/>
-      <c r="J113" s="240"/>
-      <c r="K113" s="241"/>
-      <c r="L113" s="241"/>
-      <c r="M113" s="241"/>
-      <c r="N113" s="241"/>
-      <c r="O113" s="242"/>
-      <c r="P113" s="240"/>
-      <c r="Q113" s="241"/>
-      <c r="R113" s="241"/>
-      <c r="S113" s="241"/>
-      <c r="T113" s="241"/>
-      <c r="U113" s="242"/>
-      <c r="V113" s="255"/>
-      <c r="W113" s="256"/>
-      <c r="X113" s="256"/>
-      <c r="Y113" s="256"/>
-      <c r="Z113" s="257"/>
-      <c r="AA113" s="259"/>
-      <c r="AB113" s="241"/>
-      <c r="AC113" s="241"/>
-      <c r="AD113" s="241"/>
-      <c r="AE113" s="241"/>
-      <c r="AF113" s="241"/>
-      <c r="AG113" s="241"/>
-      <c r="AH113" s="241"/>
-      <c r="AI113" s="241"/>
-      <c r="AJ113" s="241"/>
-      <c r="AK113" s="241"/>
-      <c r="AL113" s="242"/>
-      <c r="AM113" s="273" t="s">
+      <c r="A113" s="226"/>
+      <c r="B113" s="227"/>
+      <c r="C113" s="227"/>
+      <c r="D113" s="227"/>
+      <c r="E113" s="227"/>
+      <c r="F113" s="227"/>
+      <c r="G113" s="227"/>
+      <c r="H113" s="227"/>
+      <c r="I113" s="228"/>
+      <c r="J113" s="226"/>
+      <c r="K113" s="227"/>
+      <c r="L113" s="227"/>
+      <c r="M113" s="227"/>
+      <c r="N113" s="227"/>
+      <c r="O113" s="228"/>
+      <c r="P113" s="226"/>
+      <c r="Q113" s="227"/>
+      <c r="R113" s="227"/>
+      <c r="S113" s="227"/>
+      <c r="T113" s="227"/>
+      <c r="U113" s="228"/>
+      <c r="V113" s="242"/>
+      <c r="W113" s="243"/>
+      <c r="X113" s="243"/>
+      <c r="Y113" s="243"/>
+      <c r="Z113" s="244"/>
+      <c r="AA113" s="246"/>
+      <c r="AB113" s="227"/>
+      <c r="AC113" s="227"/>
+      <c r="AD113" s="227"/>
+      <c r="AE113" s="227"/>
+      <c r="AF113" s="227"/>
+      <c r="AG113" s="227"/>
+      <c r="AH113" s="227"/>
+      <c r="AI113" s="227"/>
+      <c r="AJ113" s="227"/>
+      <c r="AK113" s="227"/>
+      <c r="AL113" s="228"/>
+      <c r="AM113" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="AN113" s="274"/>
-      <c r="AO113" s="275"/>
-      <c r="AP113" s="276"/>
-      <c r="AQ113" s="277"/>
-      <c r="AR113" s="273" t="s">
+      <c r="AN113" s="269"/>
+      <c r="AO113" s="270"/>
+      <c r="AP113" s="271"/>
+      <c r="AQ113" s="272"/>
+      <c r="AR113" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="AS113" s="274"/>
-      <c r="AT113" s="278"/>
-      <c r="AU113" s="279"/>
-      <c r="AV113" s="279"/>
-      <c r="AW113" s="280"/>
+      <c r="AS113" s="269"/>
+      <c r="AT113" s="273"/>
+      <c r="AU113" s="274"/>
+      <c r="AV113" s="274"/>
+      <c r="AW113" s="275"/>
     </row>
     <row r="114" spans="1:49" ht="18" customHeight="1" thickBot="1">
-      <c r="A114" s="243"/>
-      <c r="B114" s="244"/>
-      <c r="C114" s="244"/>
-      <c r="D114" s="244"/>
-      <c r="E114" s="244"/>
-      <c r="F114" s="244"/>
-      <c r="G114" s="244"/>
-      <c r="H114" s="244"/>
-      <c r="I114" s="245"/>
-      <c r="J114" s="243"/>
-      <c r="K114" s="244"/>
-      <c r="L114" s="244"/>
-      <c r="M114" s="244"/>
-      <c r="N114" s="244"/>
-      <c r="O114" s="245"/>
-      <c r="P114" s="243"/>
-      <c r="Q114" s="244"/>
-      <c r="R114" s="244"/>
-      <c r="S114" s="244"/>
-      <c r="T114" s="244"/>
-      <c r="U114" s="245"/>
-      <c r="V114" s="263" t="s">
+      <c r="A114" s="229"/>
+      <c r="B114" s="230"/>
+      <c r="C114" s="230"/>
+      <c r="D114" s="230"/>
+      <c r="E114" s="230"/>
+      <c r="F114" s="230"/>
+      <c r="G114" s="230"/>
+      <c r="H114" s="230"/>
+      <c r="I114" s="231"/>
+      <c r="J114" s="229"/>
+      <c r="K114" s="230"/>
+      <c r="L114" s="230"/>
+      <c r="M114" s="230"/>
+      <c r="N114" s="230"/>
+      <c r="O114" s="231"/>
+      <c r="P114" s="229"/>
+      <c r="Q114" s="230"/>
+      <c r="R114" s="230"/>
+      <c r="S114" s="230"/>
+      <c r="T114" s="230"/>
+      <c r="U114" s="231"/>
+      <c r="V114" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="W114" s="264"/>
-      <c r="X114" s="264"/>
-      <c r="Y114" s="264"/>
-      <c r="Z114" s="265"/>
-      <c r="AA114" s="266" t="s">
+      <c r="W114" s="237"/>
+      <c r="X114" s="237"/>
+      <c r="Y114" s="237"/>
+      <c r="Z114" s="238"/>
+      <c r="AA114" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="AB114" s="267"/>
-      <c r="AC114" s="267"/>
-      <c r="AD114" s="267"/>
-      <c r="AE114" s="267"/>
-      <c r="AF114" s="267"/>
-      <c r="AG114" s="268"/>
-      <c r="AH114" s="269" t="s">
+      <c r="AB114" s="234"/>
+      <c r="AC114" s="234"/>
+      <c r="AD114" s="234"/>
+      <c r="AE114" s="234"/>
+      <c r="AF114" s="234"/>
+      <c r="AG114" s="235"/>
+      <c r="AH114" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="AI114" s="270"/>
-      <c r="AJ114" s="270"/>
-      <c r="AK114" s="270"/>
-      <c r="AL114" s="271"/>
-      <c r="AM114" s="266" t="s">
+      <c r="AI114" s="262"/>
+      <c r="AJ114" s="262"/>
+      <c r="AK114" s="262"/>
+      <c r="AL114" s="263"/>
+      <c r="AM114" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="AN114" s="267"/>
-      <c r="AO114" s="267"/>
-      <c r="AP114" s="267"/>
-      <c r="AQ114" s="267"/>
-      <c r="AR114" s="267"/>
-      <c r="AS114" s="267"/>
-      <c r="AT114" s="267"/>
-      <c r="AU114" s="267"/>
-      <c r="AV114" s="267"/>
-      <c r="AW114" s="272"/>
+      <c r="AN114" s="234"/>
+      <c r="AO114" s="234"/>
+      <c r="AP114" s="234"/>
+      <c r="AQ114" s="234"/>
+      <c r="AR114" s="234"/>
+      <c r="AS114" s="234"/>
+      <c r="AT114" s="234"/>
+      <c r="AU114" s="234"/>
+      <c r="AV114" s="234"/>
+      <c r="AW114" s="264"/>
     </row>
     <row r="115" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A115" s="21"/>
@@ -30369,7 +30351,7 @@
     <row r="116" spans="1:49" ht="13.5" customHeight="1">
       <c r="A116" s="21"/>
       <c r="B116" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
@@ -30435,7 +30417,7 @@
     <row r="118" spans="1:49" ht="13.5" customHeight="1">
       <c r="A118" s="21"/>
       <c r="D118" s="123" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
@@ -30497,7 +30479,7 @@
     <row r="120" spans="1:49" ht="13.5" customHeight="1">
       <c r="A120" s="21"/>
       <c r="C120" s="19" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
@@ -30530,7 +30512,7 @@
     <row r="121" spans="1:49" ht="13.5" customHeight="1">
       <c r="A121" s="21"/>
       <c r="D121" s="23" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
@@ -30562,7 +30544,7 @@
     <row r="122" spans="1:49" ht="13.5" customHeight="1">
       <c r="A122" s="21"/>
       <c r="D122" s="23" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E122" s="23"/>
       <c r="F122" s="23"/>
@@ -30654,7 +30636,7 @@
     <row r="125" spans="1:49" ht="13.5" customHeight="1">
       <c r="A125" s="21"/>
       <c r="C125" s="19" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
@@ -31465,183 +31447,183 @@
       <c r="AW151" s="157"/>
     </row>
     <row r="152" spans="1:49" ht="18" customHeight="1" thickTop="1">
-      <c r="A152" s="237" t="s">
-        <v>89</v>
+      <c r="A152" s="223" t="s">
+        <v>88</v>
       </c>
-      <c r="B152" s="238"/>
-      <c r="C152" s="238"/>
-      <c r="D152" s="238"/>
-      <c r="E152" s="238"/>
-      <c r="F152" s="238"/>
-      <c r="G152" s="238"/>
-      <c r="H152" s="238"/>
-      <c r="I152" s="239"/>
-      <c r="J152" s="246" t="s">
+      <c r="B152" s="224"/>
+      <c r="C152" s="224"/>
+      <c r="D152" s="224"/>
+      <c r="E152" s="224"/>
+      <c r="F152" s="224"/>
+      <c r="G152" s="224"/>
+      <c r="H152" s="224"/>
+      <c r="I152" s="225"/>
+      <c r="J152" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="K152" s="238"/>
-      <c r="L152" s="238"/>
-      <c r="M152" s="238"/>
-      <c r="N152" s="238"/>
-      <c r="O152" s="239"/>
-      <c r="P152" s="246" t="s">
+      <c r="K152" s="224"/>
+      <c r="L152" s="224"/>
+      <c r="M152" s="224"/>
+      <c r="N152" s="224"/>
+      <c r="O152" s="225"/>
+      <c r="P152" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="Q152" s="238"/>
-      <c r="R152" s="238"/>
-      <c r="S152" s="238"/>
-      <c r="T152" s="238"/>
-      <c r="U152" s="239"/>
-      <c r="V152" s="252" t="s">
+      <c r="Q152" s="224"/>
+      <c r="R152" s="224"/>
+      <c r="S152" s="224"/>
+      <c r="T152" s="224"/>
+      <c r="U152" s="225"/>
+      <c r="V152" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="W152" s="253"/>
-      <c r="X152" s="253"/>
-      <c r="Y152" s="253"/>
-      <c r="Z152" s="254"/>
-      <c r="AA152" s="258" t="s">
-        <v>124</v>
+      <c r="W152" s="240"/>
+      <c r="X152" s="240"/>
+      <c r="Y152" s="240"/>
+      <c r="Z152" s="241"/>
+      <c r="AA152" s="245" t="s">
+        <v>106</v>
       </c>
-      <c r="AB152" s="238"/>
-      <c r="AC152" s="238"/>
-      <c r="AD152" s="238"/>
-      <c r="AE152" s="238"/>
-      <c r="AF152" s="238"/>
-      <c r="AG152" s="238"/>
-      <c r="AH152" s="238"/>
-      <c r="AI152" s="238"/>
-      <c r="AJ152" s="238"/>
-      <c r="AK152" s="238"/>
-      <c r="AL152" s="239"/>
-      <c r="AM152" s="247" t="s">
+      <c r="AB152" s="224"/>
+      <c r="AC152" s="224"/>
+      <c r="AD152" s="224"/>
+      <c r="AE152" s="224"/>
+      <c r="AF152" s="224"/>
+      <c r="AG152" s="224"/>
+      <c r="AH152" s="224"/>
+      <c r="AI152" s="224"/>
+      <c r="AJ152" s="224"/>
+      <c r="AK152" s="224"/>
+      <c r="AL152" s="225"/>
+      <c r="AM152" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="AN152" s="248"/>
-      <c r="AO152" s="260"/>
-      <c r="AP152" s="261"/>
-      <c r="AQ152" s="262"/>
-      <c r="AR152" s="247" t="s">
+      <c r="AN152" s="260"/>
+      <c r="AO152" s="265"/>
+      <c r="AP152" s="266"/>
+      <c r="AQ152" s="267"/>
+      <c r="AR152" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="AS152" s="248"/>
-      <c r="AT152" s="249"/>
-      <c r="AU152" s="250"/>
-      <c r="AV152" s="250"/>
-      <c r="AW152" s="251"/>
+      <c r="AS152" s="260"/>
+      <c r="AT152" s="276"/>
+      <c r="AU152" s="277"/>
+      <c r="AV152" s="277"/>
+      <c r="AW152" s="278"/>
     </row>
     <row r="153" spans="1:49" ht="18" customHeight="1">
-      <c r="A153" s="240"/>
-      <c r="B153" s="241"/>
-      <c r="C153" s="241"/>
-      <c r="D153" s="241"/>
-      <c r="E153" s="241"/>
-      <c r="F153" s="241"/>
-      <c r="G153" s="241"/>
-      <c r="H153" s="241"/>
-      <c r="I153" s="242"/>
-      <c r="J153" s="240"/>
-      <c r="K153" s="241"/>
-      <c r="L153" s="241"/>
-      <c r="M153" s="241"/>
-      <c r="N153" s="241"/>
-      <c r="O153" s="242"/>
-      <c r="P153" s="240"/>
-      <c r="Q153" s="241"/>
-      <c r="R153" s="241"/>
-      <c r="S153" s="241"/>
-      <c r="T153" s="241"/>
-      <c r="U153" s="242"/>
-      <c r="V153" s="255"/>
-      <c r="W153" s="256"/>
-      <c r="X153" s="256"/>
-      <c r="Y153" s="256"/>
-      <c r="Z153" s="257"/>
-      <c r="AA153" s="259"/>
-      <c r="AB153" s="241"/>
-      <c r="AC153" s="241"/>
-      <c r="AD153" s="241"/>
-      <c r="AE153" s="241"/>
-      <c r="AF153" s="241"/>
-      <c r="AG153" s="241"/>
-      <c r="AH153" s="241"/>
-      <c r="AI153" s="241"/>
-      <c r="AJ153" s="241"/>
-      <c r="AK153" s="241"/>
-      <c r="AL153" s="242"/>
-      <c r="AM153" s="273" t="s">
+      <c r="A153" s="226"/>
+      <c r="B153" s="227"/>
+      <c r="C153" s="227"/>
+      <c r="D153" s="227"/>
+      <c r="E153" s="227"/>
+      <c r="F153" s="227"/>
+      <c r="G153" s="227"/>
+      <c r="H153" s="227"/>
+      <c r="I153" s="228"/>
+      <c r="J153" s="226"/>
+      <c r="K153" s="227"/>
+      <c r="L153" s="227"/>
+      <c r="M153" s="227"/>
+      <c r="N153" s="227"/>
+      <c r="O153" s="228"/>
+      <c r="P153" s="226"/>
+      <c r="Q153" s="227"/>
+      <c r="R153" s="227"/>
+      <c r="S153" s="227"/>
+      <c r="T153" s="227"/>
+      <c r="U153" s="228"/>
+      <c r="V153" s="242"/>
+      <c r="W153" s="243"/>
+      <c r="X153" s="243"/>
+      <c r="Y153" s="243"/>
+      <c r="Z153" s="244"/>
+      <c r="AA153" s="246"/>
+      <c r="AB153" s="227"/>
+      <c r="AC153" s="227"/>
+      <c r="AD153" s="227"/>
+      <c r="AE153" s="227"/>
+      <c r="AF153" s="227"/>
+      <c r="AG153" s="227"/>
+      <c r="AH153" s="227"/>
+      <c r="AI153" s="227"/>
+      <c r="AJ153" s="227"/>
+      <c r="AK153" s="227"/>
+      <c r="AL153" s="228"/>
+      <c r="AM153" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="AN153" s="274"/>
-      <c r="AO153" s="275"/>
-      <c r="AP153" s="276"/>
-      <c r="AQ153" s="277"/>
-      <c r="AR153" s="273" t="s">
+      <c r="AN153" s="269"/>
+      <c r="AO153" s="270"/>
+      <c r="AP153" s="271"/>
+      <c r="AQ153" s="272"/>
+      <c r="AR153" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="AS153" s="274"/>
-      <c r="AT153" s="278"/>
-      <c r="AU153" s="279"/>
-      <c r="AV153" s="279"/>
-      <c r="AW153" s="280"/>
+      <c r="AS153" s="269"/>
+      <c r="AT153" s="273"/>
+      <c r="AU153" s="274"/>
+      <c r="AV153" s="274"/>
+      <c r="AW153" s="275"/>
     </row>
     <row r="154" spans="1:49" ht="18" customHeight="1" thickBot="1">
-      <c r="A154" s="243"/>
-      <c r="B154" s="244"/>
-      <c r="C154" s="244"/>
-      <c r="D154" s="244"/>
-      <c r="E154" s="244"/>
-      <c r="F154" s="244"/>
-      <c r="G154" s="244"/>
-      <c r="H154" s="244"/>
-      <c r="I154" s="245"/>
-      <c r="J154" s="243"/>
-      <c r="K154" s="244"/>
-      <c r="L154" s="244"/>
-      <c r="M154" s="244"/>
-      <c r="N154" s="244"/>
-      <c r="O154" s="245"/>
-      <c r="P154" s="243"/>
-      <c r="Q154" s="244"/>
-      <c r="R154" s="244"/>
-      <c r="S154" s="244"/>
-      <c r="T154" s="244"/>
-      <c r="U154" s="245"/>
-      <c r="V154" s="263" t="s">
+      <c r="A154" s="229"/>
+      <c r="B154" s="230"/>
+      <c r="C154" s="230"/>
+      <c r="D154" s="230"/>
+      <c r="E154" s="230"/>
+      <c r="F154" s="230"/>
+      <c r="G154" s="230"/>
+      <c r="H154" s="230"/>
+      <c r="I154" s="231"/>
+      <c r="J154" s="229"/>
+      <c r="K154" s="230"/>
+      <c r="L154" s="230"/>
+      <c r="M154" s="230"/>
+      <c r="N154" s="230"/>
+      <c r="O154" s="231"/>
+      <c r="P154" s="229"/>
+      <c r="Q154" s="230"/>
+      <c r="R154" s="230"/>
+      <c r="S154" s="230"/>
+      <c r="T154" s="230"/>
+      <c r="U154" s="231"/>
+      <c r="V154" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="W154" s="264"/>
-      <c r="X154" s="264"/>
-      <c r="Y154" s="264"/>
-      <c r="Z154" s="265"/>
-      <c r="AA154" s="266" t="s">
-        <v>122</v>
+      <c r="W154" s="237"/>
+      <c r="X154" s="237"/>
+      <c r="Y154" s="237"/>
+      <c r="Z154" s="238"/>
+      <c r="AA154" s="233" t="s">
+        <v>104</v>
       </c>
-      <c r="AB154" s="267"/>
-      <c r="AC154" s="267"/>
-      <c r="AD154" s="267"/>
-      <c r="AE154" s="267"/>
-      <c r="AF154" s="267"/>
-      <c r="AG154" s="268"/>
-      <c r="AH154" s="269" t="s">
+      <c r="AB154" s="234"/>
+      <c r="AC154" s="234"/>
+      <c r="AD154" s="234"/>
+      <c r="AE154" s="234"/>
+      <c r="AF154" s="234"/>
+      <c r="AG154" s="235"/>
+      <c r="AH154" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="AI154" s="270"/>
-      <c r="AJ154" s="270"/>
-      <c r="AK154" s="270"/>
-      <c r="AL154" s="271"/>
-      <c r="AM154" s="266" t="s">
-        <v>121</v>
+      <c r="AI154" s="262"/>
+      <c r="AJ154" s="262"/>
+      <c r="AK154" s="262"/>
+      <c r="AL154" s="263"/>
+      <c r="AM154" s="233" t="s">
+        <v>103</v>
       </c>
-      <c r="AN154" s="267"/>
-      <c r="AO154" s="267"/>
-      <c r="AP154" s="267"/>
-      <c r="AQ154" s="267"/>
-      <c r="AR154" s="267"/>
-      <c r="AS154" s="267"/>
-      <c r="AT154" s="267"/>
-      <c r="AU154" s="267"/>
-      <c r="AV154" s="267"/>
-      <c r="AW154" s="272"/>
+      <c r="AN154" s="234"/>
+      <c r="AO154" s="234"/>
+      <c r="AP154" s="234"/>
+      <c r="AQ154" s="234"/>
+      <c r="AR154" s="234"/>
+      <c r="AS154" s="234"/>
+      <c r="AT154" s="234"/>
+      <c r="AU154" s="234"/>
+      <c r="AV154" s="234"/>
+      <c r="AW154" s="264"/>
     </row>
     <row r="155" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A155" s="21"/>
@@ -31676,7 +31658,7 @@
     <row r="156" spans="1:49" ht="13.5" customHeight="1">
       <c r="A156" s="21"/>
       <c r="B156" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
@@ -31870,12 +31852,12 @@
       <c r="AU161" s="115"/>
       <c r="AV161" s="23"/>
       <c r="AW161" s="157"/>
-      <c r="AZ161" s="415"/>
-      <c r="BA161" s="415"/>
-      <c r="BB161" s="415"/>
-      <c r="BC161" s="416"/>
-      <c r="BD161" s="416"/>
-      <c r="BE161" s="416"/>
+      <c r="AZ161" s="220"/>
+      <c r="BA161" s="220"/>
+      <c r="BB161" s="220"/>
+      <c r="BC161" s="221"/>
+      <c r="BD161" s="221"/>
+      <c r="BE161" s="221"/>
     </row>
     <row r="162" spans="1:57" ht="13.5" customHeight="1">
       <c r="A162" s="21"/>
@@ -31884,7 +31866,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="120" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G162" s="118"/>
       <c r="H162" s="118"/>
@@ -31894,7 +31876,7 @@
       <c r="L162" s="118"/>
       <c r="M162" s="119"/>
       <c r="N162" s="120" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="O162" s="118"/>
       <c r="P162" s="118"/>
@@ -31912,7 +31894,7 @@
       <c r="AB162" s="118"/>
       <c r="AC162" s="119"/>
       <c r="AD162" s="120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE162" s="118"/>
       <c r="AF162" s="118"/>
@@ -31935,12 +31917,12 @@
       <c r="AU162" s="119"/>
       <c r="AV162" s="23"/>
       <c r="AW162" s="157"/>
-      <c r="AZ162" s="415"/>
-      <c r="BA162" s="415"/>
-      <c r="BB162" s="415"/>
-      <c r="BC162" s="416"/>
-      <c r="BD162" s="416"/>
-      <c r="BE162" s="416"/>
+      <c r="AZ162" s="220"/>
+      <c r="BA162" s="220"/>
+      <c r="BB162" s="220"/>
+      <c r="BC162" s="221"/>
+      <c r="BD162" s="221"/>
+      <c r="BE162" s="221"/>
     </row>
     <row r="163" spans="1:57" ht="13.5" customHeight="1">
       <c r="A163" s="21"/>
@@ -31949,7 +31931,7 @@
         <v>2</v>
       </c>
       <c r="F163" s="150" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G163" s="151"/>
       <c r="H163" s="151"/>
@@ -31959,7 +31941,7 @@
       <c r="L163" s="151"/>
       <c r="M163" s="152"/>
       <c r="N163" s="150" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="O163" s="151"/>
       <c r="P163" s="151"/>
@@ -31977,7 +31959,7 @@
       <c r="AB163" s="151"/>
       <c r="AC163" s="152"/>
       <c r="AD163" s="150" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE163" s="199"/>
       <c r="AF163" s="151"/>
@@ -32000,12 +31982,12 @@
       <c r="AU163" s="152"/>
       <c r="AV163" s="23"/>
       <c r="AW163" s="157"/>
-      <c r="AZ163" s="415"/>
-      <c r="BA163" s="415"/>
-      <c r="BB163" s="415"/>
-      <c r="BC163" s="416"/>
-      <c r="BD163" s="416"/>
-      <c r="BE163" s="416"/>
+      <c r="AZ163" s="220"/>
+      <c r="BA163" s="220"/>
+      <c r="BB163" s="220"/>
+      <c r="BC163" s="221"/>
+      <c r="BD163" s="221"/>
+      <c r="BE163" s="221"/>
     </row>
     <row r="164" spans="1:57" ht="13.5" customHeight="1">
       <c r="A164" s="21"/>
@@ -32014,7 +31996,7 @@
         <v>3</v>
       </c>
       <c r="F164" s="150" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G164" s="151"/>
       <c r="H164" s="151"/>
@@ -32024,7 +32006,7 @@
       <c r="L164" s="151"/>
       <c r="M164" s="152"/>
       <c r="N164" s="150" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="O164" s="151"/>
       <c r="P164" s="151"/>
@@ -32042,7 +32024,7 @@
       <c r="AB164" s="199"/>
       <c r="AC164" s="200"/>
       <c r="AD164" s="201" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE164" s="199"/>
       <c r="AF164" s="199"/>
@@ -32052,7 +32034,7 @@
       <c r="AJ164" s="199"/>
       <c r="AK164" s="200"/>
       <c r="AL164" s="198" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM164" s="193"/>
       <c r="AN164" s="197"/>
@@ -32065,12 +32047,12 @@
       <c r="AU164" s="152"/>
       <c r="AV164" s="23"/>
       <c r="AW164" s="157"/>
-      <c r="AZ164" s="415"/>
-      <c r="BA164" s="415"/>
-      <c r="BB164" s="415"/>
-      <c r="BC164" s="416"/>
-      <c r="BD164" s="416"/>
-      <c r="BE164" s="416"/>
+      <c r="AZ164" s="220"/>
+      <c r="BA164" s="220"/>
+      <c r="BB164" s="220"/>
+      <c r="BC164" s="221"/>
+      <c r="BD164" s="221"/>
+      <c r="BE164" s="221"/>
     </row>
     <row r="165" spans="1:57" ht="13.5" customHeight="1">
       <c r="A165" s="21"/>
@@ -32079,7 +32061,7 @@
         <v>4</v>
       </c>
       <c r="F165" s="150" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="G165" s="151"/>
       <c r="H165" s="151"/>
@@ -32089,7 +32071,7 @@
       <c r="L165" s="151"/>
       <c r="M165" s="152"/>
       <c r="N165" s="150" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="O165" s="151"/>
       <c r="P165" s="151"/>
@@ -32107,7 +32089,7 @@
       <c r="AB165" s="199"/>
       <c r="AC165" s="200"/>
       <c r="AD165" s="201" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE165" s="199"/>
       <c r="AF165" s="199"/>
@@ -32117,7 +32099,7 @@
       <c r="AJ165" s="199"/>
       <c r="AK165" s="200"/>
       <c r="AL165" s="198" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM165" s="193"/>
       <c r="AN165" s="197"/>
@@ -32130,12 +32112,12 @@
       <c r="AU165" s="152"/>
       <c r="AV165" s="23"/>
       <c r="AW165" s="157"/>
-      <c r="AZ165" s="415"/>
-      <c r="BA165" s="415"/>
-      <c r="BB165" s="415"/>
-      <c r="BC165" s="416"/>
-      <c r="BD165" s="416"/>
-      <c r="BE165" s="416"/>
+      <c r="AZ165" s="220"/>
+      <c r="BA165" s="220"/>
+      <c r="BB165" s="220"/>
+      <c r="BC165" s="221"/>
+      <c r="BD165" s="221"/>
+      <c r="BE165" s="221"/>
     </row>
     <row r="166" spans="1:57" ht="13.5" customHeight="1">
       <c r="A166" s="21"/>
@@ -32166,12 +32148,12 @@
       <c r="AU166" s="23"/>
       <c r="AV166" s="23"/>
       <c r="AW166" s="157"/>
-      <c r="AZ166" s="415"/>
-      <c r="BA166" s="415"/>
-      <c r="BB166" s="415"/>
-      <c r="BC166" s="416"/>
-      <c r="BD166" s="416"/>
-      <c r="BE166" s="416"/>
+      <c r="AZ166" s="220"/>
+      <c r="BA166" s="220"/>
+      <c r="BB166" s="220"/>
+      <c r="BC166" s="221"/>
+      <c r="BD166" s="221"/>
+      <c r="BE166" s="221"/>
     </row>
     <row r="167" spans="1:57" ht="13.5" customHeight="1">
       <c r="A167" s="21"/>
@@ -32223,12 +32205,12 @@
       <c r="AU167" s="20"/>
       <c r="AV167" s="23"/>
       <c r="AW167" s="157"/>
-      <c r="AZ167" s="415"/>
-      <c r="BA167" s="415"/>
-      <c r="BB167" s="415"/>
-      <c r="BC167" s="416"/>
-      <c r="BD167" s="416"/>
-      <c r="BE167" s="416"/>
+      <c r="AZ167" s="220"/>
+      <c r="BA167" s="220"/>
+      <c r="BB167" s="220"/>
+      <c r="BC167" s="221"/>
+      <c r="BD167" s="221"/>
+      <c r="BE167" s="221"/>
     </row>
     <row r="168" spans="1:57" ht="13.5" customHeight="1">
       <c r="A168" s="21"/>
@@ -32290,12 +32272,12 @@
       <c r="AU168" s="115"/>
       <c r="AV168" s="23"/>
       <c r="AW168" s="157"/>
-      <c r="AZ168" s="415"/>
-      <c r="BA168" s="415"/>
-      <c r="BB168" s="415"/>
-      <c r="BC168" s="416"/>
-      <c r="BD168" s="416"/>
-      <c r="BE168" s="416"/>
+      <c r="AZ168" s="220"/>
+      <c r="BA168" s="220"/>
+      <c r="BB168" s="220"/>
+      <c r="BC168" s="221"/>
+      <c r="BD168" s="221"/>
+      <c r="BE168" s="221"/>
     </row>
     <row r="169" spans="1:57" ht="13.5" customHeight="1">
       <c r="A169" s="21"/>
@@ -32304,7 +32286,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="186" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G169" s="186"/>
       <c r="H169" s="186"/>
@@ -32314,7 +32296,7 @@
       <c r="L169" s="186"/>
       <c r="M169" s="186"/>
       <c r="N169" s="185" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="O169" s="186"/>
       <c r="P169" s="186"/>
@@ -32340,7 +32322,7 @@
       <c r="AJ169" s="186"/>
       <c r="AK169" s="186"/>
       <c r="AL169" s="185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM169" s="186"/>
       <c r="AN169" s="187"/>
@@ -32504,7 +32486,7 @@
     <row r="173" spans="1:57" ht="13.5" customHeight="1">
       <c r="A173" s="21"/>
       <c r="C173" s="19" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D173" s="23"/>
       <c r="E173" s="121"/>
@@ -32556,7 +32538,7 @@
     <row r="174" spans="1:57" ht="13.5" customHeight="1">
       <c r="A174" s="21"/>
       <c r="D174" s="23" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E174" s="121"/>
       <c r="F174" s="23"/>
@@ -32770,7 +32752,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G178" s="140"/>
       <c r="H178" s="140"/>
@@ -32780,7 +32762,7 @@
       <c r="L178" s="141"/>
       <c r="M178" s="142"/>
       <c r="N178" s="153" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O178" s="140"/>
       <c r="P178" s="140"/>
@@ -32804,7 +32786,7 @@
       <c r="AH178" s="143"/>
       <c r="AI178" s="148"/>
       <c r="AJ178" s="181" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="AK178" s="144"/>
       <c r="AL178" s="144"/>
@@ -32828,7 +32810,7 @@
         <v>2</v>
       </c>
       <c r="F179" s="132" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G179" s="133"/>
       <c r="H179" s="133"/>
@@ -32862,7 +32844,7 @@
       <c r="AH179" s="136"/>
       <c r="AI179" s="149"/>
       <c r="AJ179" s="169" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="AK179" s="137"/>
       <c r="AL179" s="137"/>
@@ -32896,7 +32878,7 @@
       <c r="L180" s="134"/>
       <c r="M180" s="135"/>
       <c r="N180" s="132" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="O180" s="133"/>
       <c r="P180" s="133"/>
@@ -32920,7 +32902,7 @@
       <c r="AH180" s="136"/>
       <c r="AI180" s="149"/>
       <c r="AJ180" s="169" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="AK180" s="137"/>
       <c r="AL180" s="137"/>
@@ -32937,14 +32919,14 @@
       <c r="AW180" s="157"/>
       <c r="AY180" s="167"/>
     </row>
-    <row r="181" spans="1:51" ht="13" customHeight="1">
+    <row r="181" spans="1:51" ht="13.05" customHeight="1">
       <c r="A181" s="21"/>
       <c r="D181" s="23"/>
       <c r="E181" s="147">
         <v>4</v>
       </c>
       <c r="F181" s="132" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G181" s="133"/>
       <c r="H181" s="133"/>
@@ -32954,7 +32936,7 @@
       <c r="L181" s="134"/>
       <c r="M181" s="135"/>
       <c r="N181" s="132" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="O181" s="133"/>
       <c r="P181" s="133"/>
@@ -33143,7 +33125,7 @@
     <row r="185" spans="1:51" ht="13.5" customHeight="1">
       <c r="A185" s="21"/>
       <c r="D185" s="23" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E185" s="125"/>
       <c r="F185" s="154"/>
@@ -33194,72 +33176,72 @@
     <row r="186" spans="1:51" ht="13.5" customHeight="1">
       <c r="A186" s="21"/>
       <c r="D186" s="23"/>
-      <c r="E186" s="352" t="s">
+      <c r="E186" s="360" t="s">
+        <v>93</v>
+      </c>
+      <c r="F186" s="361"/>
+      <c r="G186" s="361"/>
+      <c r="H186" s="361"/>
+      <c r="I186" s="361"/>
+      <c r="J186" s="361"/>
+      <c r="K186" s="362"/>
+      <c r="L186" s="378" t="s">
         <v>94</v>
       </c>
-      <c r="F186" s="353"/>
-      <c r="G186" s="353"/>
-      <c r="H186" s="353"/>
-      <c r="I186" s="353"/>
-      <c r="J186" s="353"/>
-      <c r="K186" s="354"/>
-      <c r="L186" s="364" t="s">
-        <v>96</v>
-      </c>
-      <c r="M186" s="365"/>
-      <c r="N186" s="365"/>
-      <c r="O186" s="365"/>
-      <c r="P186" s="365"/>
-      <c r="Q186" s="365"/>
-      <c r="R186" s="365"/>
-      <c r="S186" s="365"/>
-      <c r="T186" s="365"/>
-      <c r="U186" s="365"/>
-      <c r="V186" s="365"/>
-      <c r="W186" s="365"/>
-      <c r="X186" s="365"/>
-      <c r="Y186" s="365"/>
-      <c r="Z186" s="365"/>
-      <c r="AA186" s="365"/>
-      <c r="AB186" s="365"/>
-      <c r="AC186" s="365"/>
-      <c r="AD186" s="365"/>
-      <c r="AE186" s="365"/>
-      <c r="AF186" s="365"/>
-      <c r="AG186" s="365"/>
-      <c r="AH186" s="365"/>
-      <c r="AI186" s="365"/>
-      <c r="AJ186" s="365"/>
-      <c r="AK186" s="365"/>
-      <c r="AL186" s="365"/>
-      <c r="AM186" s="365"/>
-      <c r="AN186" s="365"/>
-      <c r="AO186" s="365"/>
-      <c r="AP186" s="365"/>
-      <c r="AQ186" s="365"/>
-      <c r="AR186" s="365"/>
-      <c r="AS186" s="365"/>
-      <c r="AT186" s="365"/>
-      <c r="AU186" s="366"/>
+      <c r="M186" s="379"/>
+      <c r="N186" s="379"/>
+      <c r="O186" s="379"/>
+      <c r="P186" s="379"/>
+      <c r="Q186" s="379"/>
+      <c r="R186" s="379"/>
+      <c r="S186" s="379"/>
+      <c r="T186" s="379"/>
+      <c r="U186" s="379"/>
+      <c r="V186" s="379"/>
+      <c r="W186" s="379"/>
+      <c r="X186" s="379"/>
+      <c r="Y186" s="379"/>
+      <c r="Z186" s="379"/>
+      <c r="AA186" s="379"/>
+      <c r="AB186" s="379"/>
+      <c r="AC186" s="379"/>
+      <c r="AD186" s="379"/>
+      <c r="AE186" s="379"/>
+      <c r="AF186" s="379"/>
+      <c r="AG186" s="379"/>
+      <c r="AH186" s="379"/>
+      <c r="AI186" s="379"/>
+      <c r="AJ186" s="379"/>
+      <c r="AK186" s="379"/>
+      <c r="AL186" s="379"/>
+      <c r="AM186" s="379"/>
+      <c r="AN186" s="379"/>
+      <c r="AO186" s="379"/>
+      <c r="AP186" s="379"/>
+      <c r="AQ186" s="379"/>
+      <c r="AR186" s="379"/>
+      <c r="AS186" s="379"/>
+      <c r="AT186" s="379"/>
+      <c r="AU186" s="380"/>
       <c r="AV186" s="23"/>
       <c r="AW186" s="157"/>
     </row>
     <row r="187" spans="1:51" ht="13.5" customHeight="1">
       <c r="A187" s="21"/>
       <c r="D187" s="23"/>
-      <c r="E187" s="355" t="s">
-        <v>95</v>
+      <c r="E187" s="369" t="s">
+        <v>145</v>
       </c>
-      <c r="F187" s="356"/>
-      <c r="G187" s="356"/>
-      <c r="H187" s="356"/>
-      <c r="I187" s="356"/>
-      <c r="J187" s="356"/>
-      <c r="K187" s="357"/>
+      <c r="F187" s="370"/>
+      <c r="G187" s="370"/>
+      <c r="H187" s="370"/>
+      <c r="I187" s="370"/>
+      <c r="J187" s="370"/>
+      <c r="K187" s="371"/>
       <c r="L187" s="206"/>
       <c r="M187" s="207"/>
       <c r="N187" s="207" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="O187" s="207"/>
       <c r="P187" s="207"/>
@@ -33271,12 +33253,8 @@
       <c r="V187" s="208"/>
       <c r="W187" s="208"/>
       <c r="X187" s="208"/>
-      <c r="Y187" s="208" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z187" s="208" t="s">
-        <v>99</v>
-      </c>
+      <c r="Y187" s="222"/>
+      <c r="Z187" s="208"/>
       <c r="AA187" s="208"/>
       <c r="AB187" s="208"/>
       <c r="AC187" s="208"/>
@@ -33304,17 +33282,17 @@
     <row r="188" spans="1:51" ht="13.5" customHeight="1">
       <c r="A188" s="21"/>
       <c r="D188" s="23"/>
-      <c r="E188" s="358"/>
-      <c r="F188" s="359"/>
-      <c r="G188" s="359"/>
-      <c r="H188" s="359"/>
-      <c r="I188" s="359"/>
-      <c r="J188" s="359"/>
-      <c r="K188" s="360"/>
+      <c r="E188" s="372"/>
+      <c r="F188" s="373"/>
+      <c r="G188" s="373"/>
+      <c r="H188" s="373"/>
+      <c r="I188" s="373"/>
+      <c r="J188" s="373"/>
+      <c r="K188" s="374"/>
       <c r="L188" s="210"/>
       <c r="M188" s="134"/>
       <c r="N188" s="134" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="O188" s="134"/>
       <c r="P188" s="134"/>
@@ -33326,12 +33304,8 @@
       <c r="V188" s="136"/>
       <c r="W188" s="136"/>
       <c r="X188" s="136"/>
-      <c r="Y188" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z188" s="136" t="s">
-        <v>99</v>
-      </c>
+      <c r="Y188" s="136"/>
+      <c r="Z188" s="136"/>
       <c r="AA188" s="136"/>
       <c r="AB188" s="136"/>
       <c r="AC188" s="136"/>
@@ -33359,17 +33333,17 @@
     <row r="189" spans="1:51" ht="13.5" customHeight="1">
       <c r="A189" s="21"/>
       <c r="D189" s="23"/>
-      <c r="E189" s="358"/>
-      <c r="F189" s="359"/>
-      <c r="G189" s="359"/>
-      <c r="H189" s="359"/>
-      <c r="I189" s="359"/>
-      <c r="J189" s="359"/>
-      <c r="K189" s="360"/>
+      <c r="E189" s="372"/>
+      <c r="F189" s="373"/>
+      <c r="G189" s="373"/>
+      <c r="H189" s="373"/>
+      <c r="I189" s="373"/>
+      <c r="J189" s="373"/>
+      <c r="K189" s="374"/>
       <c r="L189" s="210"/>
       <c r="M189" s="134"/>
       <c r="N189" s="134" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="O189" s="134"/>
       <c r="P189" s="134"/>
@@ -33381,12 +33355,8 @@
       <c r="V189" s="136"/>
       <c r="W189" s="136"/>
       <c r="X189" s="136"/>
-      <c r="Y189" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z189" s="136" t="s">
-        <v>99</v>
-      </c>
+      <c r="Y189" s="136"/>
+      <c r="Z189" s="136"/>
       <c r="AA189" s="136"/>
       <c r="AB189" s="136"/>
       <c r="AC189" s="136"/>
@@ -33414,17 +33384,17 @@
     <row r="190" spans="1:51" ht="13.5" customHeight="1">
       <c r="A190" s="21"/>
       <c r="D190" s="23"/>
-      <c r="E190" s="361"/>
-      <c r="F190" s="362"/>
-      <c r="G190" s="362"/>
-      <c r="H190" s="362"/>
-      <c r="I190" s="362"/>
-      <c r="J190" s="362"/>
-      <c r="K190" s="363"/>
+      <c r="E190" s="375"/>
+      <c r="F190" s="376"/>
+      <c r="G190" s="376"/>
+      <c r="H190" s="376"/>
+      <c r="I190" s="376"/>
+      <c r="J190" s="376"/>
+      <c r="K190" s="377"/>
       <c r="L190" s="211"/>
       <c r="M190" s="212"/>
       <c r="N190" s="212" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O190" s="212"/>
       <c r="P190" s="212"/>
@@ -33436,12 +33406,8 @@
       <c r="V190" s="213"/>
       <c r="W190" s="213"/>
       <c r="X190" s="213"/>
-      <c r="Y190" s="156" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z190" s="213" t="s">
-        <v>114</v>
-      </c>
+      <c r="Y190" s="156"/>
+      <c r="Z190" s="213"/>
       <c r="AA190" s="213"/>
       <c r="AB190" s="213"/>
       <c r="AC190" s="213"/>
@@ -33519,7 +33485,7 @@
       <c r="A192" s="21"/>
       <c r="D192" s="23"/>
       <c r="E192" s="125" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="F192" s="123"/>
       <c r="G192" s="23"/>
@@ -33571,7 +33537,7 @@
       <c r="D193" s="126"/>
       <c r="E193" s="124"/>
       <c r="F193" s="12" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
@@ -33622,7 +33588,7 @@
       <c r="D194" s="126"/>
       <c r="E194" s="126"/>
       <c r="F194" s="173" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
@@ -33673,7 +33639,7 @@
       <c r="D195" s="126"/>
       <c r="E195" s="124"/>
       <c r="F195" s="173" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
@@ -33723,53 +33689,53 @@
       <c r="A196" s="21"/>
       <c r="D196" s="126"/>
       <c r="E196" s="174" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F196" s="171"/>
       <c r="G196" s="171"/>
       <c r="H196" s="172"/>
-      <c r="I196" s="352" t="s">
-        <v>104</v>
+      <c r="I196" s="360" t="s">
+        <v>96</v>
       </c>
-      <c r="J196" s="353"/>
-      <c r="K196" s="353"/>
-      <c r="L196" s="353"/>
-      <c r="M196" s="353"/>
-      <c r="N196" s="353"/>
-      <c r="O196" s="353"/>
-      <c r="P196" s="353"/>
-      <c r="Q196" s="353"/>
-      <c r="R196" s="353"/>
-      <c r="S196" s="353"/>
-      <c r="T196" s="353"/>
-      <c r="U196" s="353"/>
-      <c r="V196" s="353"/>
-      <c r="W196" s="353"/>
-      <c r="X196" s="353"/>
-      <c r="Y196" s="353"/>
-      <c r="Z196" s="353"/>
-      <c r="AA196" s="353"/>
-      <c r="AB196" s="353"/>
-      <c r="AC196" s="353"/>
-      <c r="AD196" s="353"/>
-      <c r="AE196" s="353"/>
-      <c r="AF196" s="353"/>
-      <c r="AG196" s="353"/>
-      <c r="AH196" s="353"/>
-      <c r="AI196" s="354"/>
-      <c r="AJ196" s="352" t="s">
-        <v>105</v>
+      <c r="J196" s="361"/>
+      <c r="K196" s="361"/>
+      <c r="L196" s="361"/>
+      <c r="M196" s="361"/>
+      <c r="N196" s="361"/>
+      <c r="O196" s="361"/>
+      <c r="P196" s="361"/>
+      <c r="Q196" s="361"/>
+      <c r="R196" s="361"/>
+      <c r="S196" s="361"/>
+      <c r="T196" s="361"/>
+      <c r="U196" s="361"/>
+      <c r="V196" s="361"/>
+      <c r="W196" s="361"/>
+      <c r="X196" s="361"/>
+      <c r="Y196" s="361"/>
+      <c r="Z196" s="361"/>
+      <c r="AA196" s="361"/>
+      <c r="AB196" s="361"/>
+      <c r="AC196" s="361"/>
+      <c r="AD196" s="361"/>
+      <c r="AE196" s="361"/>
+      <c r="AF196" s="361"/>
+      <c r="AG196" s="361"/>
+      <c r="AH196" s="361"/>
+      <c r="AI196" s="362"/>
+      <c r="AJ196" s="360" t="s">
+        <v>97</v>
       </c>
-      <c r="AK196" s="353"/>
-      <c r="AL196" s="353"/>
-      <c r="AM196" s="353"/>
-      <c r="AN196" s="353"/>
-      <c r="AO196" s="353"/>
-      <c r="AP196" s="353"/>
-      <c r="AQ196" s="353"/>
-      <c r="AR196" s="353"/>
-      <c r="AS196" s="353"/>
-      <c r="AT196" s="354"/>
+      <c r="AK196" s="361"/>
+      <c r="AL196" s="361"/>
+      <c r="AM196" s="361"/>
+      <c r="AN196" s="361"/>
+      <c r="AO196" s="361"/>
+      <c r="AP196" s="361"/>
+      <c r="AQ196" s="361"/>
+      <c r="AR196" s="361"/>
+      <c r="AS196" s="361"/>
+      <c r="AT196" s="362"/>
       <c r="AU196" s="12"/>
       <c r="AV196" s="23"/>
       <c r="AW196" s="157"/>
@@ -33777,14 +33743,14 @@
     <row r="197" spans="1:50" ht="13.5" customHeight="1">
       <c r="A197" s="21"/>
       <c r="D197" s="126"/>
-      <c r="E197" s="367" t="s">
-        <v>106</v>
+      <c r="E197" s="363" t="s">
+        <v>98</v>
       </c>
-      <c r="F197" s="368"/>
-      <c r="G197" s="368"/>
-      <c r="H197" s="369"/>
+      <c r="F197" s="364"/>
+      <c r="G197" s="364"/>
+      <c r="H197" s="365"/>
       <c r="I197" s="175" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J197" s="176"/>
       <c r="K197" s="176"/>
@@ -33813,7 +33779,7 @@
       <c r="AH197" s="176"/>
       <c r="AI197" s="178"/>
       <c r="AJ197" s="168" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="AK197" s="176"/>
       <c r="AL197" s="176"/>
@@ -33832,14 +33798,14 @@
     <row r="198" spans="1:50" ht="13.5" customHeight="1">
       <c r="A198" s="21"/>
       <c r="D198" s="126"/>
-      <c r="E198" s="370" t="s">
-        <v>107</v>
+      <c r="E198" s="366" t="s">
+        <v>99</v>
       </c>
-      <c r="F198" s="371"/>
-      <c r="G198" s="371"/>
-      <c r="H198" s="372"/>
+      <c r="F198" s="367"/>
+      <c r="G198" s="367"/>
+      <c r="H198" s="368"/>
       <c r="I198" s="179" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="J198" s="164"/>
       <c r="K198" s="164"/>
@@ -33868,7 +33834,7 @@
       <c r="AH198" s="164"/>
       <c r="AI198" s="166"/>
       <c r="AJ198" s="180" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="AK198" s="164"/>
       <c r="AL198" s="164"/>
@@ -33935,9 +33901,6 @@
     </row>
     <row r="200" spans="1:50" ht="13.5" customHeight="1">
       <c r="A200" s="21"/>
-      <c r="C200" s="19" t="s">
-        <v>139</v>
-      </c>
       <c r="D200" s="126"/>
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
@@ -33987,9 +33950,7 @@
     </row>
     <row r="201" spans="1:50" ht="13.5" customHeight="1">
       <c r="A201" s="21"/>
-      <c r="D201" s="126" t="s">
-        <v>153</v>
-      </c>
+      <c r="D201" s="126"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -34137,7 +34098,7 @@
     <row r="204" spans="1:50" ht="13.5" customHeight="1">
       <c r="A204" s="21"/>
       <c r="D204" s="126" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
@@ -34376,32 +34337,39 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="I196:AI196"/>
-    <mergeCell ref="AJ196:AT196"/>
-    <mergeCell ref="E197:H197"/>
-    <mergeCell ref="E198:H198"/>
-    <mergeCell ref="E186:K186"/>
-    <mergeCell ref="E187:K190"/>
-    <mergeCell ref="L186:AU186"/>
-    <mergeCell ref="AM154:AW154"/>
-    <mergeCell ref="AH114:AL114"/>
-    <mergeCell ref="AM114:AW114"/>
-    <mergeCell ref="AM152:AN152"/>
-    <mergeCell ref="AO152:AQ152"/>
-    <mergeCell ref="AR152:AS152"/>
-    <mergeCell ref="AT152:AW152"/>
-    <mergeCell ref="AM153:AN153"/>
-    <mergeCell ref="AO153:AQ153"/>
-    <mergeCell ref="AR153:AS153"/>
-    <mergeCell ref="AT153:AW153"/>
-    <mergeCell ref="A152:I154"/>
-    <mergeCell ref="J152:O154"/>
-    <mergeCell ref="P152:U154"/>
-    <mergeCell ref="V152:Z153"/>
-    <mergeCell ref="AA152:AL153"/>
-    <mergeCell ref="V154:Z154"/>
-    <mergeCell ref="AA154:AG154"/>
-    <mergeCell ref="AH154:AL154"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="A73:I75"/>
+    <mergeCell ref="J73:O75"/>
+    <mergeCell ref="P73:U75"/>
+    <mergeCell ref="V73:Z74"/>
+    <mergeCell ref="AA73:AL74"/>
+    <mergeCell ref="V75:Z75"/>
+    <mergeCell ref="AA75:AG75"/>
+    <mergeCell ref="AH75:AL75"/>
+    <mergeCell ref="AM73:AN73"/>
+    <mergeCell ref="AO73:AQ73"/>
+    <mergeCell ref="AR73:AS73"/>
+    <mergeCell ref="AT73:AW73"/>
+    <mergeCell ref="AM74:AN74"/>
+    <mergeCell ref="AO74:AQ74"/>
+    <mergeCell ref="AR74:AS74"/>
+    <mergeCell ref="AT74:AW74"/>
     <mergeCell ref="AM75:AW75"/>
     <mergeCell ref="A112:I114"/>
     <mergeCell ref="J112:O114"/>
@@ -34418,39 +34386,32 @@
     <mergeCell ref="AT113:AW113"/>
     <mergeCell ref="V114:Z114"/>
     <mergeCell ref="AA114:AG114"/>
-    <mergeCell ref="AM73:AN73"/>
-    <mergeCell ref="AO73:AQ73"/>
-    <mergeCell ref="AR73:AS73"/>
-    <mergeCell ref="AT73:AW73"/>
-    <mergeCell ref="AM74:AN74"/>
-    <mergeCell ref="AO74:AQ74"/>
-    <mergeCell ref="AR74:AS74"/>
-    <mergeCell ref="AT74:AW74"/>
-    <mergeCell ref="A73:I75"/>
-    <mergeCell ref="J73:O75"/>
-    <mergeCell ref="P73:U75"/>
-    <mergeCell ref="V73:Z74"/>
-    <mergeCell ref="AA73:AL74"/>
-    <mergeCell ref="V75:Z75"/>
-    <mergeCell ref="AA75:AG75"/>
-    <mergeCell ref="AH75:AL75"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="A152:I154"/>
+    <mergeCell ref="J152:O154"/>
+    <mergeCell ref="P152:U154"/>
+    <mergeCell ref="V152:Z153"/>
+    <mergeCell ref="AA152:AL153"/>
+    <mergeCell ref="V154:Z154"/>
+    <mergeCell ref="AA154:AG154"/>
+    <mergeCell ref="AH154:AL154"/>
+    <mergeCell ref="AM154:AW154"/>
+    <mergeCell ref="AH114:AL114"/>
+    <mergeCell ref="AM114:AW114"/>
+    <mergeCell ref="AM152:AN152"/>
+    <mergeCell ref="AO152:AQ152"/>
+    <mergeCell ref="AR152:AS152"/>
+    <mergeCell ref="AT152:AW152"/>
+    <mergeCell ref="AM153:AN153"/>
+    <mergeCell ref="AO153:AQ153"/>
+    <mergeCell ref="AR153:AS153"/>
+    <mergeCell ref="AT153:AW153"/>
+    <mergeCell ref="I196:AI196"/>
+    <mergeCell ref="AJ196:AT196"/>
+    <mergeCell ref="E197:H197"/>
+    <mergeCell ref="E198:H198"/>
+    <mergeCell ref="E186:K186"/>
+    <mergeCell ref="E187:K190"/>
+    <mergeCell ref="L186:AU186"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -34467,7 +34428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:AW684"/>
   <sheetViews>
@@ -34475,133 +34436,133 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:49" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="373"/>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="375"/>
-      <c r="J1" s="379" t="s">
+      <c r="A1" s="381"/>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
+      <c r="I1" s="383"/>
+      <c r="J1" s="387" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
-      <c r="N1" s="380"/>
-      <c r="O1" s="381"/>
-      <c r="P1" s="379" t="s">
+      <c r="K1" s="388"/>
+      <c r="L1" s="388"/>
+      <c r="M1" s="388"/>
+      <c r="N1" s="388"/>
+      <c r="O1" s="389"/>
+      <c r="P1" s="387" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="380"/>
-      <c r="R1" s="380"/>
-      <c r="S1" s="380"/>
-      <c r="T1" s="380"/>
-      <c r="U1" s="381"/>
-      <c r="V1" s="385" t="s">
+      <c r="Q1" s="388"/>
+      <c r="R1" s="388"/>
+      <c r="S1" s="388"/>
+      <c r="T1" s="388"/>
+      <c r="U1" s="389"/>
+      <c r="V1" s="393" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="386"/>
-      <c r="X1" s="386"/>
-      <c r="Y1" s="386"/>
-      <c r="Z1" s="387"/>
-      <c r="AA1" s="402" t="s">
+      <c r="W1" s="394"/>
+      <c r="X1" s="394"/>
+      <c r="Y1" s="394"/>
+      <c r="Z1" s="395"/>
+      <c r="AA1" s="410" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="380"/>
-      <c r="AC1" s="380"/>
-      <c r="AD1" s="380"/>
-      <c r="AE1" s="380"/>
-      <c r="AF1" s="380"/>
-      <c r="AG1" s="380"/>
-      <c r="AH1" s="380"/>
-      <c r="AI1" s="380"/>
-      <c r="AJ1" s="380"/>
-      <c r="AK1" s="380"/>
-      <c r="AL1" s="381"/>
-      <c r="AM1" s="404" t="s">
+      <c r="AB1" s="388"/>
+      <c r="AC1" s="388"/>
+      <c r="AD1" s="388"/>
+      <c r="AE1" s="388"/>
+      <c r="AF1" s="388"/>
+      <c r="AG1" s="388"/>
+      <c r="AH1" s="388"/>
+      <c r="AI1" s="388"/>
+      <c r="AJ1" s="388"/>
+      <c r="AK1" s="388"/>
+      <c r="AL1" s="389"/>
+      <c r="AM1" s="412" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="405"/>
-      <c r="AO1" s="406" t="s">
+      <c r="AN1" s="413"/>
+      <c r="AO1" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="407"/>
-      <c r="AQ1" s="408"/>
-      <c r="AR1" s="409" t="s">
+      <c r="AP1" s="415"/>
+      <c r="AQ1" s="416"/>
+      <c r="AR1" s="417" t="s">
         <v>1</v>
       </c>
-      <c r="AS1" s="405"/>
-      <c r="AT1" s="391" t="s">
+      <c r="AS1" s="413"/>
+      <c r="AT1" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="392"/>
-      <c r="AV1" s="392"/>
-      <c r="AW1" s="393"/>
+      <c r="AU1" s="400"/>
+      <c r="AV1" s="400"/>
+      <c r="AW1" s="401"/>
     </row>
     <row r="2" spans="1:49" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="376"/>
-      <c r="B2" s="377"/>
-      <c r="C2" s="377"/>
-      <c r="D2" s="377"/>
-      <c r="E2" s="377"/>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
-      <c r="I2" s="378"/>
-      <c r="J2" s="382"/>
-      <c r="K2" s="383"/>
-      <c r="L2" s="383"/>
-      <c r="M2" s="383"/>
-      <c r="N2" s="383"/>
-      <c r="O2" s="384"/>
-      <c r="P2" s="382"/>
-      <c r="Q2" s="383"/>
-      <c r="R2" s="383"/>
-      <c r="S2" s="383"/>
-      <c r="T2" s="383"/>
-      <c r="U2" s="384"/>
-      <c r="V2" s="388"/>
-      <c r="W2" s="389"/>
-      <c r="X2" s="389"/>
-      <c r="Y2" s="389"/>
-      <c r="Z2" s="390"/>
-      <c r="AA2" s="403"/>
-      <c r="AB2" s="383"/>
-      <c r="AC2" s="383"/>
-      <c r="AD2" s="383"/>
-      <c r="AE2" s="383"/>
-      <c r="AF2" s="383"/>
-      <c r="AG2" s="383"/>
-      <c r="AH2" s="383"/>
-      <c r="AI2" s="383"/>
-      <c r="AJ2" s="383"/>
-      <c r="AK2" s="383"/>
-      <c r="AL2" s="384"/>
-      <c r="AM2" s="394" t="s">
+      <c r="A2" s="384"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="386"/>
+      <c r="J2" s="390"/>
+      <c r="K2" s="391"/>
+      <c r="L2" s="391"/>
+      <c r="M2" s="391"/>
+      <c r="N2" s="391"/>
+      <c r="O2" s="392"/>
+      <c r="P2" s="390"/>
+      <c r="Q2" s="391"/>
+      <c r="R2" s="391"/>
+      <c r="S2" s="391"/>
+      <c r="T2" s="391"/>
+      <c r="U2" s="392"/>
+      <c r="V2" s="396"/>
+      <c r="W2" s="397"/>
+      <c r="X2" s="397"/>
+      <c r="Y2" s="397"/>
+      <c r="Z2" s="398"/>
+      <c r="AA2" s="411"/>
+      <c r="AB2" s="391"/>
+      <c r="AC2" s="391"/>
+      <c r="AD2" s="391"/>
+      <c r="AE2" s="391"/>
+      <c r="AF2" s="391"/>
+      <c r="AG2" s="391"/>
+      <c r="AH2" s="391"/>
+      <c r="AI2" s="391"/>
+      <c r="AJ2" s="391"/>
+      <c r="AK2" s="391"/>
+      <c r="AL2" s="392"/>
+      <c r="AM2" s="402" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="395"/>
-      <c r="AO2" s="396" t="s">
+      <c r="AN2" s="403"/>
+      <c r="AO2" s="404" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="397"/>
-      <c r="AQ2" s="398"/>
-      <c r="AR2" s="394" t="s">
+      <c r="AP2" s="405"/>
+      <c r="AQ2" s="406"/>
+      <c r="AR2" s="402" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="395"/>
-      <c r="AT2" s="399" t="s">
+      <c r="AS2" s="403"/>
+      <c r="AT2" s="407" t="s">
         <v>5</v>
       </c>
-      <c r="AU2" s="400"/>
-      <c r="AV2" s="400"/>
-      <c r="AW2" s="401"/>
+      <c r="AU2" s="408"/>
+      <c r="AV2" s="408"/>
+      <c r="AW2" s="409"/>
     </row>
     <row r="3" spans="1:49" s="5" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
       <c r="A3" s="2"/>
@@ -37319,9 +37280,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>101600</xdr:colOff>
+                <xdr:colOff>99060</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>165100</xdr:rowOff>
+                <xdr:rowOff>167640</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
